--- a/data/Excel Workbooks/Calvin/FebPwtExport1192014.xlsx
+++ b/data/Excel Workbooks/Calvin/FebPwtExport1192014.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8203" uniqueCount="1601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7939" uniqueCount="1601">
   <si>
     <t>FebPwt - penn world table - international comparisons of production, income and prices (8.0)</t>
   </si>
@@ -33934,10 +33934,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J289"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G269" sqref="G269"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -36627,7 +36627,7 @@
         <v>1981</v>
       </c>
       <c r="B67" s="4">
-        <f t="shared" ref="B67:B130" si="1">A67-$A$2</f>
+        <f t="shared" ref="B67:B118" si="1">A67-$A$2</f>
         <v>1</v>
       </c>
       <c r="C67">
@@ -37883,36 +37883,38 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="4" t="str">
-        <f>'PWT Calcs'!A98</f>
-        <v>1980</v>
+        <f>'PWT Calcs'!A109</f>
+        <v>1991</v>
       </c>
       <c r="B98" s="4">
-        <f t="shared" si="1"/>
+        <f>A98-$A$98</f>
         <v>0</v>
       </c>
       <c r="C98">
-        <f>'PWT Calcs'!B98/'PWT Calcs'!B$109</f>
-        <v>0.37717968202851604</v>
+        <f>'PWT Calcs'!B109/'PWT Calcs'!B$109</f>
+        <v>1</v>
       </c>
       <c r="D98">
-        <f>'PWT Calcs'!C98/'PWT Calcs'!C$109</f>
-        <v>0.47567989754516138</v>
+        <f>'PWT Calcs'!C109/'PWT Calcs'!C$109</f>
+        <v>1</v>
       </c>
       <c r="E98">
-        <f>'PWT Calcs'!D98/'PWT Calcs'!D$109</f>
-        <v>0.73574463123547218</v>
-      </c>
-      <c r="F98" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G98" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D109/'PWT Calcs'!D$109</f>
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <f>'Energy Data'!B109/'Energy Data'!B$109</f>
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <f>'Energy Data'!C109/'Energy Data'!C$109</f>
+        <v>1</v>
       </c>
       <c r="H98" t="s">
         <v>1423</v>
       </c>
       <c r="I98" s="4" t="str">
-        <f>'PWT Calcs'!H98</f>
+        <f>'PWT Calcs'!H109</f>
         <v>CN</v>
       </c>
       <c r="J98" s="4" t="s">
@@ -37921,36 +37923,38 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="4" t="str">
-        <f>'PWT Calcs'!A99</f>
-        <v>1981</v>
+        <f>'PWT Calcs'!A110</f>
+        <v>1992</v>
       </c>
       <c r="B99" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B99:B162" si="2">A99-$A$98</f>
         <v>1</v>
       </c>
       <c r="C99">
-        <f>'PWT Calcs'!B99/'PWT Calcs'!B$109</f>
-        <v>0.39695562586402811</v>
+        <f>'PWT Calcs'!B110/'PWT Calcs'!B$109</f>
+        <v>1.142407063564209</v>
       </c>
       <c r="D99">
-        <f>'PWT Calcs'!C99/'PWT Calcs'!C$109</f>
-        <v>0.50881626813289371</v>
+        <f>'PWT Calcs'!C110/'PWT Calcs'!C$109</f>
+        <v>1.0795650634261662</v>
       </c>
       <c r="E99">
-        <f>'PWT Calcs'!D99/'PWT Calcs'!D$109</f>
-        <v>0.76919572967612393</v>
-      </c>
-      <c r="F99" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G99" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D110/'PWT Calcs'!D$109</f>
+        <v>1.010772442440016</v>
+      </c>
+      <c r="F99">
+        <f>'Energy Data'!B110/'Energy Data'!B$109</f>
+        <v>1.0363780582761455</v>
+      </c>
+      <c r="G99">
+        <f>'Energy Data'!C110/'Energy Data'!C$109</f>
+        <v>1.0364201236705477</v>
       </c>
       <c r="H99" t="s">
         <v>1423</v>
       </c>
       <c r="I99" s="4" t="str">
-        <f>'PWT Calcs'!H99</f>
+        <f>'PWT Calcs'!H110</f>
         <v>CN</v>
       </c>
       <c r="J99" s="4" t="s">
@@ -37959,36 +37963,38 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="4" t="str">
-        <f>'PWT Calcs'!A100</f>
-        <v>1982</v>
+        <f>'PWT Calcs'!A111</f>
+        <v>1993</v>
       </c>
       <c r="B100" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C100">
-        <f>'PWT Calcs'!B100/'PWT Calcs'!B$109</f>
-        <v>0.43290738346711288</v>
+        <f>'PWT Calcs'!B111/'PWT Calcs'!B$109</f>
+        <v>1.3019363806223001</v>
       </c>
       <c r="D100">
-        <f>'PWT Calcs'!C100/'PWT Calcs'!C$109</f>
-        <v>0.54545178343280587</v>
+        <f>'PWT Calcs'!C111/'PWT Calcs'!C$109</f>
+        <v>1.1931946377941531</v>
       </c>
       <c r="E100">
-        <f>'PWT Calcs'!D100/'PWT Calcs'!D$109</f>
-        <v>0.79721838279146107</v>
-      </c>
-      <c r="F100" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G100" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D111/'PWT Calcs'!D$109</f>
+        <v>1.0208844830021506</v>
+      </c>
+      <c r="F100">
+        <f>'Energy Data'!B111/'Energy Data'!B$109</f>
+        <v>1.0914400675409635</v>
+      </c>
+      <c r="G100">
+        <f>'Energy Data'!C111/'Energy Data'!C$109</f>
+        <v>1.0911726742512797</v>
       </c>
       <c r="H100" t="s">
         <v>1423</v>
       </c>
       <c r="I100" s="4" t="str">
-        <f>'PWT Calcs'!H100</f>
+        <f>'PWT Calcs'!H111</f>
         <v>CN</v>
       </c>
       <c r="J100" s="4" t="s">
@@ -37997,36 +38003,38 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="4" t="str">
-        <f>'PWT Calcs'!A101</f>
-        <v>1983</v>
+        <f>'PWT Calcs'!A112</f>
+        <v>1994</v>
       </c>
       <c r="B101" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C101">
-        <f>'PWT Calcs'!B101/'PWT Calcs'!B$109</f>
-        <v>0.47989073228692897</v>
+        <f>'PWT Calcs'!B112/'PWT Calcs'!B$109</f>
+        <v>1.4722385362525572</v>
       </c>
       <c r="D101">
-        <f>'PWT Calcs'!C101/'PWT Calcs'!C$109</f>
-        <v>0.58796505783138797</v>
+        <f>'PWT Calcs'!C112/'PWT Calcs'!C$109</f>
+        <v>1.32510987394057</v>
       </c>
       <c r="E101">
-        <f>'PWT Calcs'!D101/'PWT Calcs'!D$109</f>
-        <v>0.8187920419230531</v>
-      </c>
-      <c r="F101" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G101" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D112/'PWT Calcs'!D$109</f>
+        <v>1.0308891121887449</v>
+      </c>
+      <c r="F101">
+        <f>'Energy Data'!B112/'Energy Data'!B$109</f>
+        <v>1.1763434041212082</v>
+      </c>
+      <c r="G101">
+        <f>'Energy Data'!C112/'Energy Data'!C$109</f>
+        <v>1.1760423150405293</v>
       </c>
       <c r="H101" t="s">
         <v>1423</v>
       </c>
       <c r="I101" s="4" t="str">
-        <f>'PWT Calcs'!H101</f>
+        <f>'PWT Calcs'!H112</f>
         <v>CN</v>
       </c>
       <c r="J101" s="4" t="s">
@@ -38035,36 +38043,38 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="4" t="str">
-        <f>'PWT Calcs'!A102</f>
-        <v>1984</v>
+        <f>'PWT Calcs'!A113</f>
+        <v>1995</v>
       </c>
       <c r="B102" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C102">
-        <f>'PWT Calcs'!B102/'PWT Calcs'!B$109</f>
-        <v>0.55271905154728651</v>
+        <f>'PWT Calcs'!B113/'PWT Calcs'!B$109</f>
+        <v>1.633080306691673</v>
       </c>
       <c r="D102">
-        <f>'PWT Calcs'!C102/'PWT Calcs'!C$109</f>
-        <v>0.62453049946085415</v>
+        <f>'PWT Calcs'!C113/'PWT Calcs'!C$109</f>
+        <v>1.4710178911558136</v>
       </c>
       <c r="E102">
-        <f>'PWT Calcs'!D102/'PWT Calcs'!D$109</f>
-        <v>0.83955139910814813</v>
-      </c>
-      <c r="F102" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G102" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D113/'PWT Calcs'!D$109</f>
+        <v>1.0405404835442691</v>
+      </c>
+      <c r="F102">
+        <f>'Energy Data'!B113/'Energy Data'!B$109</f>
+        <v>1.2061438588220461</v>
+      </c>
+      <c r="G102">
+        <f>'Energy Data'!C113/'Energy Data'!C$109</f>
+        <v>1.2052447438395517</v>
       </c>
       <c r="H102" t="s">
         <v>1423</v>
       </c>
       <c r="I102" s="4" t="str">
-        <f>'PWT Calcs'!H102</f>
+        <f>'PWT Calcs'!H113</f>
         <v>CN</v>
       </c>
       <c r="J102" s="4" t="s">
@@ -38073,36 +38083,38 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="4" t="str">
-        <f>'PWT Calcs'!A103</f>
-        <v>1985</v>
+        <f>'PWT Calcs'!A114</f>
+        <v>1996</v>
       </c>
       <c r="B103" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C103">
-        <f>'PWT Calcs'!B103/'PWT Calcs'!B$109</f>
-        <v>0.62714926354419498</v>
+        <f>'PWT Calcs'!B114/'PWT Calcs'!B$109</f>
+        <v>1.7965275321329677</v>
       </c>
       <c r="D103">
-        <f>'PWT Calcs'!C103/'PWT Calcs'!C$109</f>
-        <v>0.67071715330275783</v>
+        <f>'PWT Calcs'!C114/'PWT Calcs'!C$109</f>
+        <v>1.6320988726985106</v>
       </c>
       <c r="E103">
-        <f>'PWT Calcs'!D103/'PWT Calcs'!D$109</f>
-        <v>0.86032294082973471</v>
-      </c>
-      <c r="F103" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G103" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D114/'PWT Calcs'!D$109</f>
+        <v>1.0520193479192232</v>
+      </c>
+      <c r="F103">
+        <f>'Energy Data'!B114/'Energy Data'!B$109</f>
+        <v>1.2677247831214169</v>
+      </c>
+      <c r="G103">
+        <f>'Energy Data'!C114/'Energy Data'!C$109</f>
+        <v>1.2671630975316091</v>
       </c>
       <c r="H103" t="s">
         <v>1423</v>
       </c>
       <c r="I103" s="4" t="str">
-        <f>'PWT Calcs'!H103</f>
+        <f>'PWT Calcs'!H114</f>
         <v>CN</v>
       </c>
       <c r="J103" s="4" t="s">
@@ -38111,36 +38123,38 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="4" t="str">
-        <f>'PWT Calcs'!A104</f>
-        <v>1986</v>
+        <f>'PWT Calcs'!A115</f>
+        <v>1997</v>
       </c>
       <c r="B104" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C104">
-        <f>'PWT Calcs'!B104/'PWT Calcs'!B$109</f>
-        <v>0.68262924961097315</v>
+        <f>'PWT Calcs'!B115/'PWT Calcs'!B$109</f>
+        <v>1.9635513032306731</v>
       </c>
       <c r="D104">
-        <f>'PWT Calcs'!C104/'PWT Calcs'!C$109</f>
-        <v>0.72056801633897538</v>
+        <f>'PWT Calcs'!C115/'PWT Calcs'!C$109</f>
+        <v>1.8052898627713918</v>
       </c>
       <c r="E104">
-        <f>'PWT Calcs'!D104/'PWT Calcs'!D$109</f>
-        <v>0.87851211063259271</v>
-      </c>
-      <c r="F104" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G104" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D115/'PWT Calcs'!D$109</f>
+        <v>1.0654944142804279</v>
+      </c>
+      <c r="F104">
+        <f>'Energy Data'!B115/'Energy Data'!B$109</f>
+        <v>1.3787805466297578</v>
+      </c>
+      <c r="G104">
+        <f>'Energy Data'!C115/'Energy Data'!C$109</f>
+        <v>1.379963808806042</v>
       </c>
       <c r="H104" t="s">
         <v>1423</v>
       </c>
       <c r="I104" s="4" t="str">
-        <f>'PWT Calcs'!H104</f>
+        <f>'PWT Calcs'!H115</f>
         <v>CN</v>
       </c>
       <c r="J104" s="4" t="s">
@@ -38149,36 +38163,38 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="4" t="str">
-        <f>'PWT Calcs'!A105</f>
-        <v>1987</v>
+        <f>'PWT Calcs'!A116</f>
+        <v>1998</v>
       </c>
       <c r="B105" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C105">
-        <f>'PWT Calcs'!B105/'PWT Calcs'!B$109</f>
-        <v>0.76169999623646834</v>
+        <f>'PWT Calcs'!B116/'PWT Calcs'!B$109</f>
+        <v>2.1173630876228575</v>
       </c>
       <c r="D105">
-        <f>'PWT Calcs'!C105/'PWT Calcs'!C$109</f>
-        <v>0.77892891676850429</v>
+        <f>'PWT Calcs'!C116/'PWT Calcs'!C$109</f>
+        <v>1.999162450590652</v>
       </c>
       <c r="E105">
-        <f>'PWT Calcs'!D105/'PWT Calcs'!D$109</f>
-        <v>0.8943864059563259</v>
-      </c>
-      <c r="F105" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G105" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D116/'PWT Calcs'!D$109</f>
+        <v>1.0784474201165386</v>
+      </c>
+      <c r="F105">
+        <f>'Energy Data'!B116/'Energy Data'!B$109</f>
+        <v>1.4239524902210814</v>
+      </c>
+      <c r="G105">
+        <f>'Energy Data'!C116/'Energy Data'!C$109</f>
+        <v>1.4249456601009207</v>
       </c>
       <c r="H105" t="s">
         <v>1423</v>
       </c>
       <c r="I105" s="4" t="str">
-        <f>'PWT Calcs'!H105</f>
+        <f>'PWT Calcs'!H116</f>
         <v>CN</v>
       </c>
       <c r="J105" s="4" t="s">
@@ -38187,36 +38203,38 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="4" t="str">
-        <f>'PWT Calcs'!A106</f>
-        <v>1988</v>
+        <f>'PWT Calcs'!A117</f>
+        <v>1999</v>
       </c>
       <c r="B106" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C106">
-        <f>'PWT Calcs'!B106/'PWT Calcs'!B$109</f>
-        <v>0.84762420147720385</v>
+        <f>'PWT Calcs'!B117/'PWT Calcs'!B$109</f>
+        <v>2.2787026765311009</v>
       </c>
       <c r="D106">
-        <f>'PWT Calcs'!C106/'PWT Calcs'!C$109</f>
-        <v>0.84241140126869929</v>
+        <f>'PWT Calcs'!C117/'PWT Calcs'!C$109</f>
+        <v>2.2052976065372203</v>
       </c>
       <c r="E106">
-        <f>'PWT Calcs'!D106/'PWT Calcs'!D$109</f>
-        <v>0.91853268937745547</v>
-      </c>
-      <c r="F106" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G106" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D117/'PWT Calcs'!D$109</f>
+        <v>1.0905328869544015</v>
+      </c>
+      <c r="F106">
+        <f>'Energy Data'!B117/'Energy Data'!B$109</f>
+        <v>1.4038376564415576</v>
+      </c>
+      <c r="G106">
+        <f>'Energy Data'!C117/'Energy Data'!C$109</f>
+        <v>1.4038685295679179</v>
       </c>
       <c r="H106" t="s">
         <v>1423</v>
       </c>
       <c r="I106" s="4" t="str">
-        <f>'PWT Calcs'!H106</f>
+        <f>'PWT Calcs'!H117</f>
         <v>CN</v>
       </c>
       <c r="J106" s="4" t="s">
@@ -38225,36 +38243,38 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="4" t="str">
-        <f>'PWT Calcs'!A107</f>
-        <v>1989</v>
+        <f>'PWT Calcs'!A118</f>
+        <v>2000</v>
       </c>
       <c r="B107" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C107">
-        <f>'PWT Calcs'!B107/'PWT Calcs'!B$109</f>
-        <v>0.88206489531330556</v>
+        <f>'PWT Calcs'!B118/'PWT Calcs'!B$109</f>
+        <v>2.4708264670309936</v>
       </c>
       <c r="D107">
-        <f>'PWT Calcs'!C107/'PWT Calcs'!C$109</f>
-        <v>0.89144435219647378</v>
+        <f>'PWT Calcs'!C118/'PWT Calcs'!C$109</f>
+        <v>2.4322507097911674</v>
       </c>
       <c r="E107">
-        <f>'PWT Calcs'!D107/'PWT Calcs'!D$109</f>
-        <v>0.95066987301182337</v>
-      </c>
-      <c r="F107" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G107" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D118/'PWT Calcs'!D$109</f>
+        <v>1.1016508078675744</v>
+      </c>
+      <c r="F107">
+        <f>'Energy Data'!B118/'Energy Data'!B$109</f>
+        <v>1.4703668396482878</v>
+      </c>
+      <c r="G107">
+        <f>'Energy Data'!C118/'Energy Data'!C$109</f>
+        <v>1.470417223989221</v>
       </c>
       <c r="H107" t="s">
         <v>1423</v>
       </c>
       <c r="I107" s="4" t="str">
-        <f>'PWT Calcs'!H107</f>
+        <f>'PWT Calcs'!H118</f>
         <v>CN</v>
       </c>
       <c r="J107" s="4" t="s">
@@ -38263,36 +38283,38 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="4" t="str">
-        <f>'PWT Calcs'!A108</f>
-        <v>1990</v>
+        <f>'PWT Calcs'!A119</f>
+        <v>2001</v>
       </c>
       <c r="B108" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C108">
-        <f>'PWT Calcs'!B108/'PWT Calcs'!B$109</f>
-        <v>0.91592758661564166</v>
+        <f>'PWT Calcs'!B119/'PWT Calcs'!B$109</f>
+        <v>2.675912910926622</v>
       </c>
       <c r="D108">
-        <f>'PWT Calcs'!C108/'PWT Calcs'!C$109</f>
-        <v>0.94087532898268311</v>
+        <f>'PWT Calcs'!C119/'PWT Calcs'!C$109</f>
+        <v>2.6791593864306806</v>
       </c>
       <c r="E108">
-        <f>'PWT Calcs'!D108/'PWT Calcs'!D$109</f>
-        <v>0.97830899440926566</v>
-      </c>
-      <c r="F108" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G108" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D119/'PWT Calcs'!D$109</f>
+        <v>1.1141737932927134</v>
+      </c>
+      <c r="F108">
+        <f>'Energy Data'!B119/'Energy Data'!B$109</f>
+        <v>1.5285411964292384</v>
+      </c>
+      <c r="G108">
+        <f>'Energy Data'!C119/'Energy Data'!C$109</f>
+        <v>1.5274495241131492</v>
       </c>
       <c r="H108" t="s">
         <v>1423</v>
       </c>
       <c r="I108" s="4" t="str">
-        <f>'PWT Calcs'!H108</f>
+        <f>'PWT Calcs'!H119</f>
         <v>CN</v>
       </c>
       <c r="J108" s="4" t="s">
@@ -38301,38 +38323,38 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="4" t="str">
-        <f>'PWT Calcs'!A109</f>
-        <v>1991</v>
+        <f>'PWT Calcs'!A120</f>
+        <v>2002</v>
       </c>
       <c r="B109" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C109">
-        <f>'PWT Calcs'!B109/'PWT Calcs'!B$109</f>
-        <v>1</v>
+        <f>'PWT Calcs'!B120/'PWT Calcs'!B$109</f>
+        <v>2.91942072288614</v>
       </c>
       <c r="D109">
-        <f>'PWT Calcs'!C109/'PWT Calcs'!C$109</f>
-        <v>1</v>
+        <f>'PWT Calcs'!C120/'PWT Calcs'!C$109</f>
+        <v>2.9603798002201045</v>
       </c>
       <c r="E109">
-        <f>'PWT Calcs'!D109/'PWT Calcs'!D$109</f>
-        <v>1</v>
+        <f>'PWT Calcs'!D120/'PWT Calcs'!D$109</f>
+        <v>1.1268811401276997</v>
       </c>
       <c r="F109">
-        <f>'Energy Data'!B109/'Energy Data'!B$109</f>
-        <v>1</v>
+        <f>'Energy Data'!B120/'Energy Data'!B$109</f>
+        <v>1.6867578122761935</v>
       </c>
       <c r="G109">
-        <f>'Energy Data'!C109/'Energy Data'!C$109</f>
-        <v>1</v>
+        <f>'Energy Data'!C120/'Energy Data'!C$109</f>
+        <v>1.6870892182405504</v>
       </c>
       <c r="H109" t="s">
         <v>1423</v>
       </c>
       <c r="I109" s="4" t="str">
-        <f>'PWT Calcs'!H109</f>
+        <f>'PWT Calcs'!H120</f>
         <v>CN</v>
       </c>
       <c r="J109" s="4" t="s">
@@ -38341,38 +38363,38 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="4" t="str">
-        <f>'PWT Calcs'!A110</f>
-        <v>1992</v>
+        <f>'PWT Calcs'!A121</f>
+        <v>2003</v>
       </c>
       <c r="B110" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C110">
-        <f>'PWT Calcs'!B110/'PWT Calcs'!B$109</f>
-        <v>1.142407063564209</v>
+        <f>'PWT Calcs'!B121/'PWT Calcs'!B$109</f>
+        <v>3.2113631904042914</v>
       </c>
       <c r="D110">
-        <f>'PWT Calcs'!C110/'PWT Calcs'!C$109</f>
-        <v>1.0795650634261662</v>
+        <f>'PWT Calcs'!C121/'PWT Calcs'!C$109</f>
+        <v>3.2947089237916183</v>
       </c>
       <c r="E110">
-        <f>'PWT Calcs'!D110/'PWT Calcs'!D$109</f>
-        <v>1.010772442440016</v>
+        <f>'PWT Calcs'!D121/'PWT Calcs'!D$109</f>
+        <v>1.1376841376361493</v>
       </c>
       <c r="F110">
-        <f>'Energy Data'!B110/'Energy Data'!B$109</f>
-        <v>1.0363780582761455</v>
+        <f>'Energy Data'!B121/'Energy Data'!B$109</f>
+        <v>1.8830237738216187</v>
       </c>
       <c r="G110">
-        <f>'Energy Data'!C110/'Energy Data'!C$109</f>
-        <v>1.0364201236705477</v>
+        <f>'Energy Data'!C121/'Energy Data'!C$109</f>
+        <v>1.8848818936864753</v>
       </c>
       <c r="H110" t="s">
         <v>1423</v>
       </c>
       <c r="I110" s="4" t="str">
-        <f>'PWT Calcs'!H110</f>
+        <f>'PWT Calcs'!H121</f>
         <v>CN</v>
       </c>
       <c r="J110" s="4" t="s">
@@ -38381,38 +38403,38 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="4" t="str">
-        <f>'PWT Calcs'!A111</f>
-        <v>1993</v>
+        <f>'PWT Calcs'!A122</f>
+        <v>2004</v>
       </c>
       <c r="B111" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C111">
-        <f>'PWT Calcs'!B111/'PWT Calcs'!B$109</f>
-        <v>1.3019363806223001</v>
+        <f>'PWT Calcs'!B122/'PWT Calcs'!B$109</f>
+        <v>3.5357109669961582</v>
       </c>
       <c r="D111">
-        <f>'PWT Calcs'!C111/'PWT Calcs'!C$109</f>
-        <v>1.1931946377941531</v>
+        <f>'PWT Calcs'!C122/'PWT Calcs'!C$109</f>
+        <v>3.6692122598633672</v>
       </c>
       <c r="E111">
-        <f>'PWT Calcs'!D111/'PWT Calcs'!D$109</f>
-        <v>1.0208844830021506</v>
+        <f>'PWT Calcs'!D122/'PWT Calcs'!D$109</f>
+        <v>1.1488942861178484</v>
       </c>
       <c r="F111">
-        <f>'Energy Data'!B111/'Energy Data'!B$109</f>
-        <v>1.0914400675409635</v>
+        <f>'Energy Data'!B122/'Energy Data'!B$109</f>
+        <v>2.1124705766406309</v>
       </c>
       <c r="G111">
-        <f>'Energy Data'!C111/'Energy Data'!C$109</f>
-        <v>1.0911726742512797</v>
+        <f>'Energy Data'!C122/'Energy Data'!C$109</f>
+        <v>2.1140683534496385</v>
       </c>
       <c r="H111" t="s">
         <v>1423</v>
       </c>
       <c r="I111" s="4" t="str">
-        <f>'PWT Calcs'!H111</f>
+        <f>'PWT Calcs'!H122</f>
         <v>CN</v>
       </c>
       <c r="J111" s="4" t="s">
@@ -38421,38 +38443,38 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="4" t="str">
-        <f>'PWT Calcs'!A112</f>
-        <v>1994</v>
+        <f>'PWT Calcs'!A123</f>
+        <v>2005</v>
       </c>
       <c r="B112" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C112">
-        <f>'PWT Calcs'!B112/'PWT Calcs'!B$109</f>
-        <v>1.4722385362525572</v>
+        <f>'PWT Calcs'!B123/'PWT Calcs'!B$109</f>
+        <v>3.9352462591903912</v>
       </c>
       <c r="D112">
-        <f>'PWT Calcs'!C112/'PWT Calcs'!C$109</f>
-        <v>1.32510987394057</v>
+        <f>'PWT Calcs'!C123/'PWT Calcs'!C$109</f>
+        <v>4.087860248369247</v>
       </c>
       <c r="E112">
-        <f>'PWT Calcs'!D112/'PWT Calcs'!D$109</f>
-        <v>1.0308891121887449</v>
+        <f>'PWT Calcs'!D123/'PWT Calcs'!D$109</f>
+        <v>1.1595899659779627</v>
       </c>
       <c r="F112">
-        <f>'Energy Data'!B112/'Energy Data'!B$109</f>
-        <v>1.1763434041212082</v>
+        <f>'Energy Data'!B123/'Energy Data'!B$109</f>
+        <v>2.4021902372308266</v>
       </c>
       <c r="G112">
-        <f>'Energy Data'!C112/'Energy Data'!C$109</f>
-        <v>1.1760423150405293</v>
+        <f>'Energy Data'!C123/'Energy Data'!C$109</f>
+        <v>2.4054475291413717</v>
       </c>
       <c r="H112" t="s">
         <v>1423</v>
       </c>
       <c r="I112" s="4" t="str">
-        <f>'PWT Calcs'!H112</f>
+        <f>'PWT Calcs'!H123</f>
         <v>CN</v>
       </c>
       <c r="J112" s="4" t="s">
@@ -38461,38 +38483,38 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="4" t="str">
-        <f>'PWT Calcs'!A113</f>
-        <v>1995</v>
+        <f>'PWT Calcs'!A124</f>
+        <v>2006</v>
       </c>
       <c r="B113" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C113">
-        <f>'PWT Calcs'!B113/'PWT Calcs'!B$109</f>
-        <v>1.633080306691673</v>
+        <f>'PWT Calcs'!B124/'PWT Calcs'!B$109</f>
+        <v>4.4350224103604017</v>
       </c>
       <c r="D113">
-        <f>'PWT Calcs'!C113/'PWT Calcs'!C$109</f>
-        <v>1.4710178911558136</v>
+        <f>'PWT Calcs'!C124/'PWT Calcs'!C$109</f>
+        <v>4.5619650861757943</v>
       </c>
       <c r="E113">
-        <f>'PWT Calcs'!D113/'PWT Calcs'!D$109</f>
-        <v>1.0405404835442691</v>
+        <f>'PWT Calcs'!D124/'PWT Calcs'!D$109</f>
+        <v>1.168803725019006</v>
       </c>
       <c r="F113">
-        <f>'Energy Data'!B113/'Energy Data'!B$109</f>
-        <v>1.2061438588220461</v>
+        <f>'Energy Data'!B124/'Energy Data'!B$109</f>
+        <v>2.6250158150928318</v>
       </c>
       <c r="G113">
-        <f>'Energy Data'!C113/'Energy Data'!C$109</f>
-        <v>1.2052447438395517</v>
+        <f>'Energy Data'!C124/'Energy Data'!C$109</f>
+        <v>2.6288298048994529</v>
       </c>
       <c r="H113" t="s">
         <v>1423</v>
       </c>
       <c r="I113" s="4" t="str">
-        <f>'PWT Calcs'!H113</f>
+        <f>'PWT Calcs'!H124</f>
         <v>CN</v>
       </c>
       <c r="J113" s="4" t="s">
@@ -38501,38 +38523,38 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="4" t="str">
-        <f>'PWT Calcs'!A114</f>
-        <v>1996</v>
+        <f>'PWT Calcs'!A125</f>
+        <v>2007</v>
       </c>
       <c r="B114" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C114">
-        <f>'PWT Calcs'!B114/'PWT Calcs'!B$109</f>
-        <v>1.7965275321329677</v>
+        <f>'PWT Calcs'!B125/'PWT Calcs'!B$109</f>
+        <v>5.0647955957811179</v>
       </c>
       <c r="D114">
-        <f>'PWT Calcs'!C114/'PWT Calcs'!C$109</f>
-        <v>1.6320988726985106</v>
+        <f>'PWT Calcs'!C125/'PWT Calcs'!C$109</f>
+        <v>5.1068357166563496</v>
       </c>
       <c r="E114">
-        <f>'PWT Calcs'!D114/'PWT Calcs'!D$109</f>
-        <v>1.0520193479192232</v>
+        <f>'PWT Calcs'!D125/'PWT Calcs'!D$109</f>
+        <v>1.1777487681667924</v>
       </c>
       <c r="F114">
-        <f>'Energy Data'!B114/'Energy Data'!B$109</f>
-        <v>1.2677247831214169</v>
+        <f>'Energy Data'!B125/'Energy Data'!B$109</f>
+        <v>2.8062144990974685</v>
       </c>
       <c r="G114">
-        <f>'Energy Data'!C114/'Energy Data'!C$109</f>
-        <v>1.2671630975316091</v>
+        <f>'Energy Data'!C125/'Energy Data'!C$109</f>
+        <v>2.8096887274009084</v>
       </c>
       <c r="H114" t="s">
         <v>1423</v>
       </c>
       <c r="I114" s="4" t="str">
-        <f>'PWT Calcs'!H114</f>
+        <f>'PWT Calcs'!H125</f>
         <v>CN</v>
       </c>
       <c r="J114" s="4" t="s">
@@ -38541,38 +38563,38 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="4" t="str">
-        <f>'PWT Calcs'!A115</f>
-        <v>1997</v>
+        <f>'PWT Calcs'!A126</f>
+        <v>2008</v>
       </c>
       <c r="B115" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="C115">
-        <f>'PWT Calcs'!B115/'PWT Calcs'!B$109</f>
-        <v>1.9635513032306731</v>
+        <f>'PWT Calcs'!B126/'PWT Calcs'!B$109</f>
+        <v>5.5510158358426009</v>
       </c>
       <c r="D115">
-        <f>'PWT Calcs'!C115/'PWT Calcs'!C$109</f>
-        <v>1.8052898627713918</v>
+        <f>'PWT Calcs'!C126/'PWT Calcs'!C$109</f>
+        <v>5.7074577559511441</v>
       </c>
       <c r="E115">
-        <f>'PWT Calcs'!D115/'PWT Calcs'!D$109</f>
-        <v>1.0654944142804279</v>
+        <f>'PWT Calcs'!D126/'PWT Calcs'!D$109</f>
+        <v>1.1860410950674103</v>
       </c>
       <c r="F115">
-        <f>'Energy Data'!B115/'Energy Data'!B$109</f>
-        <v>1.3787805466297578</v>
+        <f>'Energy Data'!B126/'Energy Data'!B$109</f>
+        <v>2.9616345564196394</v>
       </c>
       <c r="G115">
-        <f>'Energy Data'!C115/'Energy Data'!C$109</f>
-        <v>1.379963808806042</v>
+        <f>'Energy Data'!C126/'Energy Data'!C$109</f>
+        <v>2.9638257211273458</v>
       </c>
       <c r="H115" t="s">
         <v>1423</v>
       </c>
       <c r="I115" s="4" t="str">
-        <f>'PWT Calcs'!H115</f>
+        <f>'PWT Calcs'!H126</f>
         <v>CN</v>
       </c>
       <c r="J115" s="4" t="s">
@@ -38581,38 +38603,38 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="4" t="str">
-        <f>'PWT Calcs'!A116</f>
-        <v>1998</v>
+        <f>'PWT Calcs'!A127</f>
+        <v>2009</v>
       </c>
       <c r="B116" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="C116">
-        <f>'PWT Calcs'!B116/'PWT Calcs'!B$109</f>
-        <v>2.1173630876228575</v>
+        <f>'PWT Calcs'!B127/'PWT Calcs'!B$109</f>
+        <v>6.0617098637773656</v>
       </c>
       <c r="D116">
-        <f>'PWT Calcs'!C116/'PWT Calcs'!C$109</f>
-        <v>1.999162450590652</v>
+        <f>'PWT Calcs'!C127/'PWT Calcs'!C$109</f>
+        <v>6.4830481463082661</v>
       </c>
       <c r="E116">
-        <f>'PWT Calcs'!D116/'PWT Calcs'!D$109</f>
-        <v>1.0784474201165386</v>
+        <f>'PWT Calcs'!D127/'PWT Calcs'!D$109</f>
+        <v>1.1937576557551648</v>
       </c>
       <c r="F116">
-        <f>'Energy Data'!B116/'Energy Data'!B$109</f>
-        <v>1.4239524902210814</v>
+        <f>'Energy Data'!B127/'Energy Data'!B$109</f>
+        <v>3.3442903621128823</v>
       </c>
       <c r="G116">
-        <f>'Energy Data'!C116/'Energy Data'!C$109</f>
-        <v>1.4249456601009207</v>
+        <f>'Energy Data'!C127/'Energy Data'!C$109</f>
+        <v>3.348435958830914</v>
       </c>
       <c r="H116" t="s">
         <v>1423</v>
       </c>
       <c r="I116" s="4" t="str">
-        <f>'PWT Calcs'!H116</f>
+        <f>'PWT Calcs'!H127</f>
         <v>CN</v>
       </c>
       <c r="J116" s="4" t="s">
@@ -38621,38 +38643,38 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="4" t="str">
-        <f>'PWT Calcs'!A117</f>
-        <v>1999</v>
+        <f>'PWT Calcs'!A128</f>
+        <v>2010</v>
       </c>
       <c r="B117" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C117">
-        <f>'PWT Calcs'!B117/'PWT Calcs'!B$109</f>
-        <v>2.2787026765311009</v>
+        <f>'PWT Calcs'!B128/'PWT Calcs'!B$109</f>
+        <v>6.6860654986070687</v>
       </c>
       <c r="D117">
-        <f>'PWT Calcs'!C117/'PWT Calcs'!C$109</f>
-        <v>2.2052976065372203</v>
+        <f>'PWT Calcs'!C128/'PWT Calcs'!C$109</f>
+        <v>7.3475977328550846</v>
       </c>
       <c r="E117">
-        <f>'PWT Calcs'!D117/'PWT Calcs'!D$109</f>
-        <v>1.0905328869544015</v>
+        <f>'PWT Calcs'!D128/'PWT Calcs'!D$109</f>
+        <v>1.1999028798714364</v>
       </c>
       <c r="F117">
-        <f>'Energy Data'!B117/'Energy Data'!B$109</f>
-        <v>1.4038376564415576</v>
+        <f>'Energy Data'!B128/'Energy Data'!B$109</f>
+        <v>3.5744785772970471</v>
       </c>
       <c r="G117">
-        <f>'Energy Data'!C117/'Energy Data'!C$109</f>
-        <v>1.4038685295679179</v>
+        <f>'Energy Data'!C128/'Energy Data'!C$109</f>
+        <v>3.5758853230674927</v>
       </c>
       <c r="H117" t="s">
         <v>1423</v>
       </c>
       <c r="I117" s="4" t="str">
-        <f>'PWT Calcs'!H117</f>
+        <f>'PWT Calcs'!H128</f>
         <v>CN</v>
       </c>
       <c r="J117" s="4" t="s">
@@ -38661,38 +38683,38 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="4" t="str">
-        <f>'PWT Calcs'!A118</f>
-        <v>2000</v>
+        <f>'PWT Calcs'!A129</f>
+        <v>2011</v>
       </c>
       <c r="B118" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C118">
-        <f>'PWT Calcs'!B118/'PWT Calcs'!B$109</f>
-        <v>2.4708264670309936</v>
+        <f>'PWT Calcs'!B129/'PWT Calcs'!B$109</f>
+        <v>7.3011835244788061</v>
       </c>
       <c r="D118">
-        <f>'PWT Calcs'!C118/'PWT Calcs'!C$109</f>
-        <v>2.4322507097911674</v>
+        <f>'PWT Calcs'!C129/'PWT Calcs'!C$109</f>
+        <v>8.2703530203141398</v>
       </c>
       <c r="E118">
-        <f>'PWT Calcs'!D118/'PWT Calcs'!D$109</f>
-        <v>1.1016508078675744</v>
+        <f>'PWT Calcs'!D129/'PWT Calcs'!D$109</f>
+        <v>1.2045868031534712</v>
       </c>
       <c r="F118">
-        <f>'Energy Data'!B118/'Energy Data'!B$109</f>
-        <v>1.4703668396482878</v>
+        <f>'Energy Data'!B129/'Energy Data'!B$109</f>
+        <v>3.8145090203943046</v>
       </c>
       <c r="G118">
-        <f>'Energy Data'!C118/'Energy Data'!C$109</f>
-        <v>1.470417223989221</v>
+        <f>'Energy Data'!C129/'Energy Data'!C$109</f>
+        <v>3.8167788348581282</v>
       </c>
       <c r="H118" t="s">
         <v>1423</v>
       </c>
       <c r="I118" s="4" t="str">
-        <f>'PWT Calcs'!H118</f>
+        <f>'PWT Calcs'!H129</f>
         <v>CN</v>
       </c>
       <c r="J118" s="4" t="s">
@@ -38701,39 +38723,39 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="4" t="str">
-        <f>'PWT Calcs'!A119</f>
-        <v>2001</v>
+        <f>'PWT Calcs'!A141</f>
+        <v>1991</v>
       </c>
       <c r="B119" s="4">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="C119">
-        <f>'PWT Calcs'!B119/'PWT Calcs'!B$109</f>
-        <v>2.675912910926622</v>
+        <f>'PWT Calcs'!B141/'PWT Calcs'!B$141</f>
+        <v>1</v>
       </c>
       <c r="D119">
-        <f>'PWT Calcs'!C119/'PWT Calcs'!C$109</f>
-        <v>2.6791593864306806</v>
+        <f>'PWT Calcs'!C141/'PWT Calcs'!C$141</f>
+        <v>1</v>
       </c>
       <c r="E119">
-        <f>'PWT Calcs'!D119/'PWT Calcs'!D$109</f>
-        <v>1.1141737932927134</v>
+        <f>'PWT Calcs'!D141/'PWT Calcs'!D$141</f>
+        <v>1</v>
       </c>
       <c r="F119">
-        <f>'Energy Data'!B119/'Energy Data'!B$109</f>
-        <v>1.5285411964292384</v>
+        <f>'Energy Data'!B141/'Energy Data'!B$141</f>
+        <v>1</v>
       </c>
       <c r="G119">
-        <f>'Energy Data'!C119/'Energy Data'!C$109</f>
-        <v>1.5274495241131492</v>
+        <f>'Energy Data'!C141/'Energy Data'!C$141</f>
+        <v>1</v>
       </c>
       <c r="H119" t="s">
         <v>1423</v>
       </c>
       <c r="I119" s="4" t="str">
-        <f>'PWT Calcs'!H119</f>
-        <v>CN</v>
+        <f>'PWT Calcs'!H141</f>
+        <v>ZA</v>
       </c>
       <c r="J119" s="4" t="s">
         <v>1588</v>
@@ -38741,39 +38763,39 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="4" t="str">
-        <f>'PWT Calcs'!A120</f>
-        <v>2002</v>
+        <f>'PWT Calcs'!A142</f>
+        <v>1992</v>
       </c>
       <c r="B120" s="4">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="C120">
-        <f>'PWT Calcs'!B120/'PWT Calcs'!B$109</f>
-        <v>2.91942072288614</v>
+        <f>'PWT Calcs'!B142/'PWT Calcs'!B$141</f>
+        <v>0.97862958284418067</v>
       </c>
       <c r="D120">
-        <f>'PWT Calcs'!C120/'PWT Calcs'!C$109</f>
-        <v>2.9603798002201045</v>
+        <f>'PWT Calcs'!C142/'PWT Calcs'!C$141</f>
+        <v>1.0093900756571406</v>
       </c>
       <c r="E120">
-        <f>'PWT Calcs'!D120/'PWT Calcs'!D$109</f>
-        <v>1.1268811401276997</v>
+        <f>'PWT Calcs'!D142/'PWT Calcs'!D$141</f>
+        <v>1.0466386864502881</v>
       </c>
       <c r="F120">
-        <f>'Energy Data'!B120/'Energy Data'!B$109</f>
-        <v>1.6867578122761935</v>
+        <f>'Energy Data'!B142/'Energy Data'!B$141</f>
+        <v>1.0229231762314899</v>
       </c>
       <c r="G120">
-        <f>'Energy Data'!C120/'Energy Data'!C$109</f>
-        <v>1.6870892182405504</v>
+        <f>'Energy Data'!C142/'Energy Data'!C$141</f>
+        <v>1.0232287138610123</v>
       </c>
       <c r="H120" t="s">
         <v>1423</v>
       </c>
       <c r="I120" s="4" t="str">
-        <f>'PWT Calcs'!H120</f>
-        <v>CN</v>
+        <f>'PWT Calcs'!H142</f>
+        <v>ZA</v>
       </c>
       <c r="J120" s="4" t="s">
         <v>1588</v>
@@ -38781,39 +38803,39 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="4" t="str">
-        <f>'PWT Calcs'!A121</f>
-        <v>2003</v>
+        <f>'PWT Calcs'!A143</f>
+        <v>1993</v>
       </c>
       <c r="B121" s="4">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="C121">
-        <f>'PWT Calcs'!B121/'PWT Calcs'!B$109</f>
-        <v>3.2113631904042914</v>
+        <f>'PWT Calcs'!B143/'PWT Calcs'!B$141</f>
+        <v>0.99070208852117714</v>
       </c>
       <c r="D121">
-        <f>'PWT Calcs'!C121/'PWT Calcs'!C$109</f>
-        <v>3.2947089237916183</v>
+        <f>'PWT Calcs'!C143/'PWT Calcs'!C$141</f>
+        <v>1.0167647774884834</v>
       </c>
       <c r="E121">
-        <f>'PWT Calcs'!D121/'PWT Calcs'!D$109</f>
-        <v>1.1376841376361493</v>
+        <f>'PWT Calcs'!D143/'PWT Calcs'!D$141</f>
+        <v>1.0925130623807584</v>
       </c>
       <c r="F121">
-        <f>'Energy Data'!B121/'Energy Data'!B$109</f>
-        <v>1.8830237738216187</v>
+        <f>'Energy Data'!B143/'Energy Data'!B$141</f>
+        <v>1.0226100561442151</v>
       </c>
       <c r="G121">
-        <f>'Energy Data'!C121/'Energy Data'!C$109</f>
-        <v>1.8848818936864753</v>
+        <f>'Energy Data'!C143/'Energy Data'!C$141</f>
+        <v>1.0228038028047062</v>
       </c>
       <c r="H121" t="s">
         <v>1423</v>
       </c>
       <c r="I121" s="4" t="str">
-        <f>'PWT Calcs'!H121</f>
-        <v>CN</v>
+        <f>'PWT Calcs'!H143</f>
+        <v>ZA</v>
       </c>
       <c r="J121" s="4" t="s">
         <v>1588</v>
@@ -38821,39 +38843,39 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="4" t="str">
-        <f>'PWT Calcs'!A122</f>
-        <v>2004</v>
+        <f>'PWT Calcs'!A144</f>
+        <v>1994</v>
       </c>
       <c r="B122" s="4">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="C122">
-        <f>'PWT Calcs'!B122/'PWT Calcs'!B$109</f>
-        <v>3.5357109669961582</v>
+        <f>'PWT Calcs'!B144/'PWT Calcs'!B$141</f>
+        <v>1.0227423773020567</v>
       </c>
       <c r="D122">
-        <f>'PWT Calcs'!C122/'PWT Calcs'!C$109</f>
-        <v>3.6692122598633672</v>
+        <f>'PWT Calcs'!C144/'PWT Calcs'!C$141</f>
+        <v>1.0293685126574241</v>
       </c>
       <c r="E122">
-        <f>'PWT Calcs'!D122/'PWT Calcs'!D$109</f>
-        <v>1.1488942861178484</v>
+        <f>'PWT Calcs'!D144/'PWT Calcs'!D$141</f>
+        <v>1.1448756529118707</v>
       </c>
       <c r="F122">
-        <f>'Energy Data'!B122/'Energy Data'!B$109</f>
-        <v>2.1124705766406309</v>
+        <f>'Energy Data'!B144/'Energy Data'!B$141</f>
+        <v>1.1102322464387493</v>
       </c>
       <c r="G122">
-        <f>'Energy Data'!C122/'Energy Data'!C$109</f>
-        <v>2.1140683534496385</v>
+        <f>'Energy Data'!C144/'Energy Data'!C$141</f>
+        <v>1.1100923370478673</v>
       </c>
       <c r="H122" t="s">
         <v>1423</v>
       </c>
       <c r="I122" s="4" t="str">
-        <f>'PWT Calcs'!H122</f>
-        <v>CN</v>
+        <f>'PWT Calcs'!H144</f>
+        <v>ZA</v>
       </c>
       <c r="J122" s="4" t="s">
         <v>1588</v>
@@ -38861,39 +38883,39 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="4" t="str">
-        <f>'PWT Calcs'!A123</f>
-        <v>2005</v>
+        <f>'PWT Calcs'!A145</f>
+        <v>1995</v>
       </c>
       <c r="B123" s="4">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="C123">
-        <f>'PWT Calcs'!B123/'PWT Calcs'!B$109</f>
-        <v>3.9352462591903912</v>
+        <f>'PWT Calcs'!B145/'PWT Calcs'!B$141</f>
+        <v>1.0546079177716243</v>
       </c>
       <c r="D123">
-        <f>'PWT Calcs'!C123/'PWT Calcs'!C$109</f>
-        <v>4.087860248369247</v>
+        <f>'PWT Calcs'!C145/'PWT Calcs'!C$141</f>
+        <v>1.0483859821837693</v>
       </c>
       <c r="E123">
-        <f>'PWT Calcs'!D123/'PWT Calcs'!D$109</f>
-        <v>1.1595899659779627</v>
+        <f>'PWT Calcs'!D145/'PWT Calcs'!D$141</f>
+        <v>1.1963464097247638</v>
       </c>
       <c r="F123">
-        <f>'Energy Data'!B123/'Energy Data'!B$109</f>
-        <v>2.4021902372308266</v>
+        <f>'Energy Data'!B145/'Energy Data'!B$141</f>
+        <v>1.1270287190833779</v>
       </c>
       <c r="G123">
-        <f>'Energy Data'!C123/'Energy Data'!C$109</f>
-        <v>2.4054475291413717</v>
+        <f>'Energy Data'!C145/'Energy Data'!C$141</f>
+        <v>1.1266800229104592</v>
       </c>
       <c r="H123" t="s">
         <v>1423</v>
       </c>
       <c r="I123" s="4" t="str">
-        <f>'PWT Calcs'!H123</f>
-        <v>CN</v>
+        <f>'PWT Calcs'!H145</f>
+        <v>ZA</v>
       </c>
       <c r="J123" s="4" t="s">
         <v>1588</v>
@@ -38901,39 +38923,39 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="4" t="str">
-        <f>'PWT Calcs'!A124</f>
-        <v>2006</v>
+        <f>'PWT Calcs'!A146</f>
+        <v>1996</v>
       </c>
       <c r="B124" s="4">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="C124">
-        <f>'PWT Calcs'!B124/'PWT Calcs'!B$109</f>
-        <v>4.4350224103604017</v>
+        <f>'PWT Calcs'!B146/'PWT Calcs'!B$141</f>
+        <v>1.1000266770028451</v>
       </c>
       <c r="D124">
-        <f>'PWT Calcs'!C124/'PWT Calcs'!C$109</f>
-        <v>4.5619650861757943</v>
+        <f>'PWT Calcs'!C146/'PWT Calcs'!C$141</f>
+        <v>1.0716841572197127</v>
       </c>
       <c r="E124">
-        <f>'PWT Calcs'!D124/'PWT Calcs'!D$109</f>
-        <v>1.168803725019006</v>
+        <f>'PWT Calcs'!D146/'PWT Calcs'!D$141</f>
+        <v>1.2494812291836805</v>
       </c>
       <c r="F124">
-        <f>'Energy Data'!B124/'Energy Data'!B$109</f>
-        <v>2.6250158150928318</v>
+        <f>'Energy Data'!B146/'Energy Data'!B$141</f>
+        <v>1.1424144339714173</v>
       </c>
       <c r="G124">
-        <f>'Energy Data'!C124/'Energy Data'!C$109</f>
-        <v>2.6288298048994529</v>
+        <f>'Energy Data'!C146/'Energy Data'!C$141</f>
+        <v>1.141875633777123</v>
       </c>
       <c r="H124" t="s">
         <v>1423</v>
       </c>
       <c r="I124" s="4" t="str">
-        <f>'PWT Calcs'!H124</f>
-        <v>CN</v>
+        <f>'PWT Calcs'!H146</f>
+        <v>ZA</v>
       </c>
       <c r="J124" s="4" t="s">
         <v>1588</v>
@@ -38941,39 +38963,39 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="4" t="str">
-        <f>'PWT Calcs'!A125</f>
-        <v>2007</v>
+        <f>'PWT Calcs'!A147</f>
+        <v>1997</v>
       </c>
       <c r="B125" s="4">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="C125">
-        <f>'PWT Calcs'!B125/'PWT Calcs'!B$109</f>
-        <v>5.0647955957811179</v>
+        <f>'PWT Calcs'!B147/'PWT Calcs'!B$141</f>
+        <v>1.1291417905938947</v>
       </c>
       <c r="D125">
-        <f>'PWT Calcs'!C125/'PWT Calcs'!C$109</f>
-        <v>5.1068357166563496</v>
+        <f>'PWT Calcs'!C147/'PWT Calcs'!C$141</f>
+        <v>1.0989262561711299</v>
       </c>
       <c r="E125">
-        <f>'PWT Calcs'!D125/'PWT Calcs'!D$109</f>
-        <v>1.1777487681667924</v>
+        <f>'PWT Calcs'!D147/'PWT Calcs'!D$141</f>
+        <v>1.3000730427099625</v>
       </c>
       <c r="F125">
-        <f>'Energy Data'!B125/'Energy Data'!B$109</f>
-        <v>2.8062144990974685</v>
+        <f>'Energy Data'!B147/'Energy Data'!B$141</f>
+        <v>1.2324433362558471</v>
       </c>
       <c r="G125">
-        <f>'Energy Data'!C125/'Energy Data'!C$109</f>
-        <v>2.8096887274009084</v>
+        <f>'Energy Data'!C147/'Energy Data'!C$141</f>
+        <v>1.2320056938569433</v>
       </c>
       <c r="H125" t="s">
         <v>1423</v>
       </c>
       <c r="I125" s="4" t="str">
-        <f>'PWT Calcs'!H125</f>
-        <v>CN</v>
+        <f>'PWT Calcs'!H147</f>
+        <v>ZA</v>
       </c>
       <c r="J125" s="4" t="s">
         <v>1588</v>
@@ -38981,39 +39003,39 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="4" t="str">
-        <f>'PWT Calcs'!A126</f>
-        <v>2008</v>
+        <f>'PWT Calcs'!A148</f>
+        <v>1998</v>
       </c>
       <c r="B126" s="4">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="C126">
-        <f>'PWT Calcs'!B126/'PWT Calcs'!B$109</f>
-        <v>5.5510158358426009</v>
+        <f>'PWT Calcs'!B148/'PWT Calcs'!B$141</f>
+        <v>1.1349837753629082</v>
       </c>
       <c r="D126">
-        <f>'PWT Calcs'!C126/'PWT Calcs'!C$109</f>
-        <v>5.7074577559511441</v>
+        <f>'PWT Calcs'!C148/'PWT Calcs'!C$141</f>
+        <v>1.1283016202254181</v>
       </c>
       <c r="E126">
-        <f>'PWT Calcs'!D126/'PWT Calcs'!D$109</f>
-        <v>1.1860410950674103</v>
+        <f>'PWT Calcs'!D148/'PWT Calcs'!D$141</f>
+        <v>1.3495602383219809</v>
       </c>
       <c r="F126">
-        <f>'Energy Data'!B126/'Energy Data'!B$109</f>
-        <v>2.9616345564196394</v>
+        <f>'Energy Data'!B148/'Energy Data'!B$141</f>
+        <v>1.1758332441525656</v>
       </c>
       <c r="G126">
-        <f>'Energy Data'!C126/'Energy Data'!C$109</f>
-        <v>2.9638257211273458</v>
+        <f>'Energy Data'!C148/'Energy Data'!C$141</f>
+        <v>1.1748229536074084</v>
       </c>
       <c r="H126" t="s">
         <v>1423</v>
       </c>
       <c r="I126" s="4" t="str">
-        <f>'PWT Calcs'!H126</f>
-        <v>CN</v>
+        <f>'PWT Calcs'!H148</f>
+        <v>ZA</v>
       </c>
       <c r="J126" s="4" t="s">
         <v>1588</v>
@@ -39021,39 +39043,39 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="4" t="str">
-        <f>'PWT Calcs'!A127</f>
-        <v>2009</v>
+        <f>'PWT Calcs'!A149</f>
+        <v>1999</v>
       </c>
       <c r="B127" s="4">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="C127">
-        <f>'PWT Calcs'!B127/'PWT Calcs'!B$109</f>
-        <v>6.0617098637773656</v>
+        <f>'PWT Calcs'!B149/'PWT Calcs'!B$141</f>
+        <v>1.1617481523619395</v>
       </c>
       <c r="D127">
-        <f>'PWT Calcs'!C127/'PWT Calcs'!C$109</f>
-        <v>6.4830481463082661</v>
+        <f>'PWT Calcs'!C149/'PWT Calcs'!C$141</f>
+        <v>1.1491034061246999</v>
       </c>
       <c r="E127">
-        <f>'PWT Calcs'!D127/'PWT Calcs'!D$109</f>
-        <v>1.1937576557551648</v>
+        <f>'PWT Calcs'!D149/'PWT Calcs'!D$141</f>
+        <v>1.4047218019276486</v>
       </c>
       <c r="F127">
-        <f>'Energy Data'!B127/'Energy Data'!B$109</f>
-        <v>3.3442903621128823</v>
+        <f>'Energy Data'!B149/'Energy Data'!B$141</f>
+        <v>1.2236660554393917</v>
       </c>
       <c r="G127">
-        <f>'Energy Data'!C127/'Energy Data'!C$109</f>
-        <v>3.348435958830914</v>
+        <f>'Energy Data'!C149/'Energy Data'!C$141</f>
+        <v>1.2231897482509246</v>
       </c>
       <c r="H127" t="s">
         <v>1423</v>
       </c>
       <c r="I127" s="4" t="str">
-        <f>'PWT Calcs'!H127</f>
-        <v>CN</v>
+        <f>'PWT Calcs'!H149</f>
+        <v>ZA</v>
       </c>
       <c r="J127" s="4" t="s">
         <v>1588</v>
@@ -39061,39 +39083,39 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="4" t="str">
-        <f>'PWT Calcs'!A128</f>
-        <v>2010</v>
+        <f>'PWT Calcs'!A150</f>
+        <v>2000</v>
       </c>
       <c r="B128" s="4">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="C128">
-        <f>'PWT Calcs'!B128/'PWT Calcs'!B$109</f>
-        <v>6.6860654986070687</v>
+        <f>'PWT Calcs'!B150/'PWT Calcs'!B$141</f>
+        <v>1.2100140077502739</v>
       </c>
       <c r="D128">
-        <f>'PWT Calcs'!C128/'PWT Calcs'!C$109</f>
-        <v>7.3475977328550846</v>
+        <f>'PWT Calcs'!C150/'PWT Calcs'!C$141</f>
+        <v>1.1716930522228826</v>
       </c>
       <c r="E128">
-        <f>'PWT Calcs'!D128/'PWT Calcs'!D$109</f>
-        <v>1.1999028798714364</v>
+        <f>'PWT Calcs'!D150/'PWT Calcs'!D$141</f>
+        <v>1.4607723449416898</v>
       </c>
       <c r="F128">
-        <f>'Energy Data'!B128/'Energy Data'!B$109</f>
-        <v>3.5744785772970471</v>
+        <f>'Energy Data'!B150/'Energy Data'!B$141</f>
+        <v>1.2563636877417368</v>
       </c>
       <c r="G128">
-        <f>'Energy Data'!C128/'Energy Data'!C$109</f>
-        <v>3.5758853230674927</v>
+        <f>'Energy Data'!C150/'Energy Data'!C$141</f>
+        <v>1.2557758192071538</v>
       </c>
       <c r="H128" t="s">
         <v>1423</v>
       </c>
       <c r="I128" s="4" t="str">
-        <f>'PWT Calcs'!H128</f>
-        <v>CN</v>
+        <f>'PWT Calcs'!H150</f>
+        <v>ZA</v>
       </c>
       <c r="J128" s="4" t="s">
         <v>1588</v>
@@ -39101,39 +39123,39 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="4" t="str">
-        <f>'PWT Calcs'!A129</f>
-        <v>2011</v>
+        <f>'PWT Calcs'!A151</f>
+        <v>2001</v>
       </c>
       <c r="B129" s="4">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="C129">
-        <f>'PWT Calcs'!B129/'PWT Calcs'!B$109</f>
-        <v>7.3011835244788061</v>
+        <f>'PWT Calcs'!B151/'PWT Calcs'!B$141</f>
+        <v>1.2431130110342412</v>
       </c>
       <c r="D129">
-        <f>'PWT Calcs'!C129/'PWT Calcs'!C$109</f>
-        <v>8.2703530203141398</v>
+        <f>'PWT Calcs'!C151/'PWT Calcs'!C$141</f>
+        <v>1.1960442160802993</v>
       </c>
       <c r="E129">
-        <f>'PWT Calcs'!D129/'PWT Calcs'!D$109</f>
-        <v>1.2045868031534712</v>
+        <f>'PWT Calcs'!D151/'PWT Calcs'!D$141</f>
+        <v>1.5131544552692384</v>
       </c>
       <c r="F129">
-        <f>'Energy Data'!B129/'Energy Data'!B$109</f>
-        <v>3.8145090203943046</v>
+        <f>'Energy Data'!B151/'Energy Data'!B$141</f>
+        <v>1.2722882753220093</v>
       </c>
       <c r="G129">
-        <f>'Energy Data'!C129/'Energy Data'!C$109</f>
-        <v>3.8167788348581282</v>
+        <f>'Energy Data'!C151/'Energy Data'!C$141</f>
+        <v>1.2719159283492358</v>
       </c>
       <c r="H129" t="s">
         <v>1423</v>
       </c>
       <c r="I129" s="4" t="str">
-        <f>'PWT Calcs'!H129</f>
-        <v>CN</v>
+        <f>'PWT Calcs'!H151</f>
+        <v>ZA</v>
       </c>
       <c r="J129" s="4" t="s">
         <v>1588</v>
@@ -39141,36 +39163,38 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="4" t="str">
-        <f>'PWT Calcs'!A130</f>
-        <v>1980</v>
+        <f>'PWT Calcs'!A152</f>
+        <v>2002</v>
       </c>
       <c r="B130" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="C130">
-        <f>'PWT Calcs'!B130/'PWT Calcs'!B$141</f>
-        <v>0.86966750415724459</v>
+        <f>'PWT Calcs'!B152/'PWT Calcs'!B$141</f>
+        <v>1.2887083776013601</v>
       </c>
       <c r="D130">
-        <f>'PWT Calcs'!C130/'PWT Calcs'!C$141</f>
-        <v>0.75547984762020859</v>
+        <f>'PWT Calcs'!C152/'PWT Calcs'!C$141</f>
+        <v>1.2221053940929383</v>
       </c>
       <c r="E130">
-        <f>'PWT Calcs'!D130/'PWT Calcs'!D$141</f>
-        <v>0.72086861436791405</v>
-      </c>
-      <c r="F130" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G130" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D152/'PWT Calcs'!D$141</f>
+        <v>1.5566899544590238</v>
+      </c>
+      <c r="F130">
+        <f>'Energy Data'!B152/'Energy Data'!B$141</f>
+        <v>1.245219020840683</v>
+      </c>
+      <c r="G130">
+        <f>'Energy Data'!C152/'Energy Data'!C$141</f>
+        <v>1.2441693403898308</v>
       </c>
       <c r="H130" t="s">
         <v>1423</v>
       </c>
       <c r="I130" s="4" t="str">
-        <f>'PWT Calcs'!H130</f>
+        <f>'PWT Calcs'!H152</f>
         <v>ZA</v>
       </c>
       <c r="J130" s="4" t="s">
@@ -39179,36 +39203,38 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="4" t="str">
-        <f>'PWT Calcs'!A131</f>
-        <v>1981</v>
+        <f>'PWT Calcs'!A153</f>
+        <v>2003</v>
       </c>
       <c r="B131" s="4">
-        <f t="shared" ref="B131:B194" si="2">A131-$A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="C131">
-        <f>'PWT Calcs'!B131/'PWT Calcs'!B$141</f>
-        <v>0.91628812278485616</v>
+        <f>'PWT Calcs'!B153/'PWT Calcs'!B$141</f>
+        <v>1.3267133467740821</v>
       </c>
       <c r="D131">
-        <f>'PWT Calcs'!C131/'PWT Calcs'!C$141</f>
-        <v>0.79567480766179899</v>
+        <f>'PWT Calcs'!C153/'PWT Calcs'!C$141</f>
+        <v>1.2574473797954906</v>
       </c>
       <c r="E131">
-        <f>'PWT Calcs'!D131/'PWT Calcs'!D$141</f>
-        <v>0.73826890158514502</v>
-      </c>
-      <c r="F131" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G131" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D153/'PWT Calcs'!D$141</f>
+        <v>1.5992388752582827</v>
+      </c>
+      <c r="F131">
+        <f>'Energy Data'!B153/'Energy Data'!B$141</f>
+        <v>1.3360197031591734</v>
+      </c>
+      <c r="G131">
+        <f>'Energy Data'!C153/'Energy Data'!C$141</f>
+        <v>1.335564396361262</v>
       </c>
       <c r="H131" t="s">
         <v>1423</v>
       </c>
       <c r="I131" s="4" t="str">
-        <f>'PWT Calcs'!H131</f>
+        <f>'PWT Calcs'!H153</f>
         <v>ZA</v>
       </c>
       <c r="J131" s="4" t="s">
@@ -39217,36 +39243,38 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="4" t="str">
-        <f>'PWT Calcs'!A132</f>
-        <v>1982</v>
+        <f>'PWT Calcs'!A154</f>
+        <v>2004</v>
       </c>
       <c r="B132" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C132">
-        <f>'PWT Calcs'!B132/'PWT Calcs'!B$141</f>
-        <v>0.91277549582509809</v>
+        <f>'PWT Calcs'!B154/'PWT Calcs'!B$141</f>
+        <v>1.3871390819950693</v>
       </c>
       <c r="D132">
-        <f>'PWT Calcs'!C132/'PWT Calcs'!C$141</f>
-        <v>0.83561313563982065</v>
+        <f>'PWT Calcs'!C154/'PWT Calcs'!C$141</f>
+        <v>1.3018975888635034</v>
       </c>
       <c r="E132">
-        <f>'PWT Calcs'!D132/'PWT Calcs'!D$141</f>
-        <v>0.75842097368980022</v>
-      </c>
-      <c r="F132" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G132" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D154/'PWT Calcs'!D$141</f>
+        <v>1.6348323033111214</v>
+      </c>
+      <c r="F132">
+        <f>'Energy Data'!B154/'Energy Data'!B$141</f>
+        <v>1.4170622080665702</v>
+      </c>
+      <c r="G132">
+        <f>'Energy Data'!C154/'Energy Data'!C$141</f>
+        <v>1.4166109887896972</v>
       </c>
       <c r="H132" t="s">
         <v>1423</v>
       </c>
       <c r="I132" s="4" t="str">
-        <f>'PWT Calcs'!H132</f>
+        <f>'PWT Calcs'!H154</f>
         <v>ZA</v>
       </c>
       <c r="J132" s="4" t="s">
@@ -39255,36 +39283,38 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="4" t="str">
-        <f>'PWT Calcs'!A133</f>
-        <v>1983</v>
+        <f>'PWT Calcs'!A155</f>
+        <v>2005</v>
       </c>
       <c r="B133" s="4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C133">
-        <f>'PWT Calcs'!B133/'PWT Calcs'!B$141</f>
-        <v>0.89592064939446903</v>
+        <f>'PWT Calcs'!B155/'PWT Calcs'!B$141</f>
+        <v>1.4603400341874644</v>
       </c>
       <c r="D133">
-        <f>'PWT Calcs'!C133/'PWT Calcs'!C$141</f>
-        <v>0.87292306696401734</v>
+        <f>'PWT Calcs'!C155/'PWT Calcs'!C$141</f>
+        <v>1.3563995058961587</v>
       </c>
       <c r="E133">
-        <f>'PWT Calcs'!D133/'PWT Calcs'!D$141</f>
-        <v>0.78141759575219738</v>
-      </c>
-      <c r="F133" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G133" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D155/'PWT Calcs'!D$141</f>
+        <v>1.6726056874978181</v>
+      </c>
+      <c r="F133">
+        <f>'Energy Data'!B155/'Energy Data'!B$141</f>
+        <v>1.3995427520911294</v>
+      </c>
+      <c r="G133">
+        <f>'Energy Data'!C155/'Energy Data'!C$141</f>
+        <v>1.3991382079428147</v>
       </c>
       <c r="H133" t="s">
         <v>1423</v>
       </c>
       <c r="I133" s="4" t="str">
-        <f>'PWT Calcs'!H133</f>
+        <f>'PWT Calcs'!H155</f>
         <v>ZA</v>
       </c>
       <c r="J133" s="4" t="s">
@@ -39293,36 +39323,38 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="4" t="str">
-        <f>'PWT Calcs'!A134</f>
-        <v>1984</v>
+        <f>'PWT Calcs'!A156</f>
+        <v>2006</v>
       </c>
       <c r="B134" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C134">
-        <f>'PWT Calcs'!B134/'PWT Calcs'!B$141</f>
-        <v>0.94160431962953706</v>
+        <f>'PWT Calcs'!B156/'PWT Calcs'!B$141</f>
+        <v>1.5421733670560427</v>
       </c>
       <c r="D134">
-        <f>'PWT Calcs'!C134/'PWT Calcs'!C$141</f>
-        <v>0.90159864351792296</v>
+        <f>'PWT Calcs'!C156/'PWT Calcs'!C$141</f>
+        <v>1.4229212537063989</v>
       </c>
       <c r="E134">
-        <f>'PWT Calcs'!D134/'PWT Calcs'!D$141</f>
-        <v>0.80145466679200994</v>
-      </c>
-      <c r="F134" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G134" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D156/'PWT Calcs'!D$141</f>
+        <v>1.7130159015443582</v>
+      </c>
+      <c r="F134">
+        <f>'Energy Data'!B156/'Energy Data'!B$141</f>
+        <v>1.4384251849680523</v>
+      </c>
+      <c r="G134">
+        <f>'Energy Data'!C156/'Energy Data'!C$141</f>
+        <v>1.4374098991624733</v>
       </c>
       <c r="H134" t="s">
         <v>1423</v>
       </c>
       <c r="I134" s="4" t="str">
-        <f>'PWT Calcs'!H134</f>
+        <f>'PWT Calcs'!H156</f>
         <v>ZA</v>
       </c>
       <c r="J134" s="4" t="s">
@@ -39331,36 +39363,38 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="4" t="str">
-        <f>'PWT Calcs'!A135</f>
-        <v>1985</v>
+        <f>'PWT Calcs'!A157</f>
+        <v>2007</v>
       </c>
       <c r="B135" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C135">
-        <f>'PWT Calcs'!B135/'PWT Calcs'!B$141</f>
-        <v>0.93019734475518079</v>
+        <f>'PWT Calcs'!B157/'PWT Calcs'!B$141</f>
+        <v>1.6277293966628681</v>
       </c>
       <c r="D135">
-        <f>'PWT Calcs'!C135/'PWT Calcs'!C$141</f>
-        <v>0.92379533838045025</v>
+        <f>'PWT Calcs'!C157/'PWT Calcs'!C$141</f>
+        <v>1.504114913518243</v>
       </c>
       <c r="E135">
-        <f>'PWT Calcs'!D135/'PWT Calcs'!D$141</f>
-        <v>0.82284771916242672</v>
-      </c>
-      <c r="F135" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G135" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D157/'PWT Calcs'!D$141</f>
+        <v>1.7557909573438091</v>
+      </c>
+      <c r="F135">
+        <f>'Energy Data'!B157/'Energy Data'!B$141</f>
+        <v>1.4686791275267892</v>
+      </c>
+      <c r="G135">
+        <f>'Energy Data'!C157/'Energy Data'!C$141</f>
+        <v>1.4678514497746957</v>
       </c>
       <c r="H135" t="s">
         <v>1423</v>
       </c>
       <c r="I135" s="4" t="str">
-        <f>'PWT Calcs'!H135</f>
+        <f>'PWT Calcs'!H157</f>
         <v>ZA</v>
       </c>
       <c r="J135" s="4" t="s">
@@ -39369,36 +39403,38 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="4" t="str">
-        <f>'PWT Calcs'!A136</f>
-        <v>1986</v>
+        <f>'PWT Calcs'!A158</f>
+        <v>2008</v>
       </c>
       <c r="B136" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C136">
-        <f>'PWT Calcs'!B136/'PWT Calcs'!B$141</f>
-        <v>0.9303627979435487</v>
+        <f>'PWT Calcs'!B158/'PWT Calcs'!B$141</f>
+        <v>1.6866298022090815</v>
       </c>
       <c r="D136">
-        <f>'PWT Calcs'!C136/'PWT Calcs'!C$141</f>
-        <v>0.93298075808816261</v>
+        <f>'PWT Calcs'!C158/'PWT Calcs'!C$141</f>
+        <v>1.599100789599863</v>
       </c>
       <c r="E136">
-        <f>'PWT Calcs'!D136/'PWT Calcs'!D$141</f>
-        <v>0.84955282632380769</v>
-      </c>
-      <c r="F136" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G136" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D158/'PWT Calcs'!D$141</f>
+        <v>1.8252214000684421</v>
+      </c>
+      <c r="F136">
+        <f>'Energy Data'!B158/'Energy Data'!B$141</f>
+        <v>1.5369459119356834</v>
+      </c>
+      <c r="G136">
+        <f>'Energy Data'!C158/'Energy Data'!C$141</f>
+        <v>1.5366886035050733</v>
       </c>
       <c r="H136" t="s">
         <v>1423</v>
       </c>
       <c r="I136" s="4" t="str">
-        <f>'PWT Calcs'!H136</f>
+        <f>'PWT Calcs'!H158</f>
         <v>ZA</v>
       </c>
       <c r="J136" s="4" t="s">
@@ -39407,36 +39443,38 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="4" t="str">
-        <f>'PWT Calcs'!A137</f>
-        <v>1987</v>
+        <f>'PWT Calcs'!A159</f>
+        <v>2009</v>
       </c>
       <c r="B137" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C137">
-        <f>'PWT Calcs'!B137/'PWT Calcs'!B$141</f>
-        <v>0.94990765295357449</v>
+        <f>'PWT Calcs'!B159/'PWT Calcs'!B$141</f>
+        <v>1.6607010567625282</v>
       </c>
       <c r="D137">
-        <f>'PWT Calcs'!C137/'PWT Calcs'!C$141</f>
-        <v>0.94517577199590763</v>
+        <f>'PWT Calcs'!C159/'PWT Calcs'!C$141</f>
+        <v>1.6885847577446478</v>
       </c>
       <c r="E137">
-        <f>'PWT Calcs'!D137/'PWT Calcs'!D$141</f>
-        <v>0.8743084398535671</v>
-      </c>
-      <c r="F137" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G137" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D159/'PWT Calcs'!D$141</f>
+        <v>1.805033879276867</v>
+      </c>
+      <c r="F137">
+        <f>'Energy Data'!B159/'Energy Data'!B$141</f>
+        <v>1.5126247791683525</v>
+      </c>
+      <c r="G137">
+        <f>'Energy Data'!C159/'Energy Data'!C$141</f>
+        <v>1.5119984749397057</v>
       </c>
       <c r="H137" t="s">
         <v>1423</v>
       </c>
       <c r="I137" s="4" t="str">
-        <f>'PWT Calcs'!H137</f>
+        <f>'PWT Calcs'!H159</f>
         <v>ZA</v>
       </c>
       <c r="J137" s="4" t="s">
@@ -39445,36 +39483,38 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="4" t="str">
-        <f>'PWT Calcs'!A138</f>
-        <v>1988</v>
+        <f>'PWT Calcs'!A160</f>
+        <v>2010</v>
       </c>
       <c r="B138" s="4">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C138">
-        <f>'PWT Calcs'!B138/'PWT Calcs'!B$141</f>
-        <v>0.98980417964498302</v>
+        <f>'PWT Calcs'!B160/'PWT Calcs'!B$141</f>
+        <v>1.7086880584626101</v>
       </c>
       <c r="D138">
-        <f>'PWT Calcs'!C138/'PWT Calcs'!C$141</f>
-        <v>0.96007897770543649</v>
+        <f>'PWT Calcs'!C160/'PWT Calcs'!C$141</f>
+        <v>1.7667143075003777</v>
       </c>
       <c r="E138">
-        <f>'PWT Calcs'!D138/'PWT Calcs'!D$141</f>
-        <v>0.89943704722934337</v>
-      </c>
-      <c r="F138" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G138" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D160/'PWT Calcs'!D$141</f>
+        <v>1.7901419319387011</v>
+      </c>
+      <c r="F138">
+        <f>'Energy Data'!B160/'Energy Data'!B$141</f>
+        <v>1.5133785482256334</v>
+      </c>
+      <c r="G138">
+        <f>'Energy Data'!C160/'Energy Data'!C$141</f>
+        <v>1.5123668013800988</v>
       </c>
       <c r="H138" t="s">
         <v>1423</v>
       </c>
       <c r="I138" s="4" t="str">
-        <f>'PWT Calcs'!H138</f>
+        <f>'PWT Calcs'!H160</f>
         <v>ZA</v>
       </c>
       <c r="J138" s="4" t="s">
@@ -39483,36 +39523,38 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="4" t="str">
-        <f>'PWT Calcs'!A139</f>
-        <v>1989</v>
+        <f>'PWT Calcs'!A161</f>
+        <v>2011</v>
       </c>
       <c r="B139" s="4">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C139">
-        <f>'PWT Calcs'!B139/'PWT Calcs'!B$141</f>
-        <v>1.0135086021715274</v>
+        <f>'PWT Calcs'!B161/'PWT Calcs'!B$141</f>
+        <v>1.7620467117108345</v>
       </c>
       <c r="D139">
-        <f>'PWT Calcs'!C139/'PWT Calcs'!C$141</f>
-        <v>0.97667323810127948</v>
+        <f>'PWT Calcs'!C161/'PWT Calcs'!C$141</f>
+        <v>1.8495441517598581</v>
       </c>
       <c r="E139">
-        <f>'PWT Calcs'!D139/'PWT Calcs'!D$141</f>
-        <v>0.92793889640779503</v>
-      </c>
-      <c r="F139" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G139" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D161/'PWT Calcs'!D$141</f>
+        <v>1.8007658573716034</v>
+      </c>
+      <c r="F139">
+        <f>'Energy Data'!B161/'Energy Data'!B$141</f>
+        <v>1.5052918416080747</v>
+      </c>
+      <c r="G139">
+        <f>'Energy Data'!C161/'Energy Data'!C$141</f>
+        <v>1.50370993668744</v>
       </c>
       <c r="H139" t="s">
         <v>1423</v>
       </c>
       <c r="I139" s="4" t="str">
-        <f>'PWT Calcs'!H139</f>
+        <f>'PWT Calcs'!H161</f>
         <v>ZA</v>
       </c>
       <c r="J139" s="4" t="s">
@@ -39521,37 +39563,39 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="4" t="str">
-        <f>'PWT Calcs'!A140</f>
-        <v>1990</v>
+        <f>'PWT Calcs'!A173</f>
+        <v>1991</v>
       </c>
       <c r="B140" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <f>'PWT Calcs'!B140/'PWT Calcs'!B$141</f>
-        <v>1.0102878420721428</v>
+        <f>'PWT Calcs'!B173/'PWT Calcs'!B$173</f>
+        <v>1</v>
       </c>
       <c r="D140">
-        <f>'PWT Calcs'!C140/'PWT Calcs'!C$141</f>
-        <v>0.99063012415085505</v>
+        <f>'PWT Calcs'!C173/'PWT Calcs'!C$173</f>
+        <v>1</v>
       </c>
       <c r="E140">
-        <f>'PWT Calcs'!D140/'PWT Calcs'!D$141</f>
-        <v>0.96049469425231238</v>
-      </c>
-      <c r="F140" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G140" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D173/'PWT Calcs'!D$173</f>
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <f>'Energy Data'!B173/'Energy Data'!B$173</f>
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <f>'Energy Data'!C173/'Energy Data'!C$173</f>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>1423</v>
       </c>
       <c r="I140" s="4" t="str">
-        <f>'PWT Calcs'!H140</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H173</f>
+        <v>SA</v>
       </c>
       <c r="J140" s="4" t="s">
         <v>1588</v>
@@ -39559,39 +39603,39 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="4" t="str">
-        <f>'PWT Calcs'!A141</f>
-        <v>1991</v>
+        <f>'PWT Calcs'!A174</f>
+        <v>1992</v>
       </c>
       <c r="B141" s="4">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <f>'PWT Calcs'!B141/'PWT Calcs'!B$141</f>
-        <v>1</v>
+        <f>'PWT Calcs'!B174/'PWT Calcs'!B$173</f>
+        <v>1.0462855325288063</v>
       </c>
       <c r="D141">
-        <f>'PWT Calcs'!C141/'PWT Calcs'!C$141</f>
-        <v>1</v>
+        <f>'PWT Calcs'!C174/'PWT Calcs'!C$173</f>
+        <v>1.0370589223427853</v>
       </c>
       <c r="E141">
-        <f>'PWT Calcs'!D141/'PWT Calcs'!D$141</f>
-        <v>1</v>
+        <f>'PWT Calcs'!D174/'PWT Calcs'!D$173</f>
+        <v>1.0226952985026159</v>
       </c>
       <c r="F141">
-        <f>'Energy Data'!B141/'Energy Data'!B$141</f>
-        <v>1</v>
+        <f>'Energy Data'!B174/'Energy Data'!B$173</f>
+        <v>1.0553504171748396</v>
       </c>
       <c r="G141">
-        <f>'Energy Data'!C141/'Energy Data'!C$141</f>
-        <v>1</v>
+        <f>'Energy Data'!C174/'Energy Data'!C$173</f>
+        <v>1.0552790562169541</v>
       </c>
       <c r="H141" t="s">
         <v>1423</v>
       </c>
       <c r="I141" s="4" t="str">
-        <f>'PWT Calcs'!H141</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H174</f>
+        <v>SA</v>
       </c>
       <c r="J141" s="4" t="s">
         <v>1588</v>
@@ -39599,39 +39643,39 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="4" t="str">
-        <f>'PWT Calcs'!A142</f>
-        <v>1992</v>
+        <f>'PWT Calcs'!A175</f>
+        <v>1993</v>
       </c>
       <c r="B142" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C142">
-        <f>'PWT Calcs'!B142/'PWT Calcs'!B$141</f>
-        <v>0.97862958284418067</v>
+        <f>'PWT Calcs'!B175/'PWT Calcs'!B$173</f>
+        <v>1.046558167890369</v>
       </c>
       <c r="D142">
-        <f>'PWT Calcs'!C142/'PWT Calcs'!C$141</f>
-        <v>1.0093900756571406</v>
+        <f>'PWT Calcs'!C175/'PWT Calcs'!C$173</f>
+        <v>1.0775615213088452</v>
       </c>
       <c r="E142">
-        <f>'PWT Calcs'!D142/'PWT Calcs'!D$141</f>
-        <v>1.0466386864502881</v>
+        <f>'PWT Calcs'!D175/'PWT Calcs'!D$173</f>
+        <v>1.0483500285934768</v>
       </c>
       <c r="F142">
-        <f>'Energy Data'!B142/'Energy Data'!B$141</f>
-        <v>1.0229231762314899</v>
+        <f>'Energy Data'!B175/'Energy Data'!B$173</f>
+        <v>1.0984891078023766</v>
       </c>
       <c r="G142">
-        <f>'Energy Data'!C142/'Energy Data'!C$141</f>
-        <v>1.0232287138610123</v>
+        <f>'Energy Data'!C175/'Energy Data'!C$173</f>
+        <v>1.0982563709593873</v>
       </c>
       <c r="H142" t="s">
         <v>1423</v>
       </c>
       <c r="I142" s="4" t="str">
-        <f>'PWT Calcs'!H142</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H175</f>
+        <v>SA</v>
       </c>
       <c r="J142" s="4" t="s">
         <v>1588</v>
@@ -39639,39 +39683,39 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="4" t="str">
-        <f>'PWT Calcs'!A143</f>
-        <v>1993</v>
+        <f>'PWT Calcs'!A176</f>
+        <v>1994</v>
       </c>
       <c r="B143" s="4">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C143">
-        <f>'PWT Calcs'!B143/'PWT Calcs'!B$141</f>
-        <v>0.99070208852117714</v>
+        <f>'PWT Calcs'!B176/'PWT Calcs'!B$173</f>
+        <v>1.0535236227180975</v>
       </c>
       <c r="D143">
-        <f>'PWT Calcs'!C143/'PWT Calcs'!C$141</f>
-        <v>1.0167647774884834</v>
+        <f>'PWT Calcs'!C176/'PWT Calcs'!C$173</f>
+        <v>1.1027987732432896</v>
       </c>
       <c r="E143">
-        <f>'PWT Calcs'!D143/'PWT Calcs'!D$141</f>
-        <v>1.0925130623807584</v>
+        <f>'PWT Calcs'!D176/'PWT Calcs'!D$173</f>
+        <v>1.0629599356210948</v>
       </c>
       <c r="F143">
-        <f>'Energy Data'!B143/'Energy Data'!B$141</f>
-        <v>1.0226100561442151</v>
+        <f>'Energy Data'!B176/'Energy Data'!B$173</f>
+        <v>1.131822084103818</v>
       </c>
       <c r="G143">
-        <f>'Energy Data'!C143/'Energy Data'!C$141</f>
-        <v>1.0228038028047062</v>
+        <f>'Energy Data'!C176/'Energy Data'!C$173</f>
+        <v>1.1313612367896</v>
       </c>
       <c r="H143" t="s">
         <v>1423</v>
       </c>
       <c r="I143" s="4" t="str">
-        <f>'PWT Calcs'!H143</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H176</f>
+        <v>SA</v>
       </c>
       <c r="J143" s="4" t="s">
         <v>1588</v>
@@ -39679,39 +39723,39 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="4" t="str">
-        <f>'PWT Calcs'!A144</f>
-        <v>1994</v>
+        <f>'PWT Calcs'!A177</f>
+        <v>1995</v>
       </c>
       <c r="B144" s="4">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C144">
-        <f>'PWT Calcs'!B144/'PWT Calcs'!B$141</f>
-        <v>1.0227423773020567</v>
+        <f>'PWT Calcs'!B177/'PWT Calcs'!B$173</f>
+        <v>1.0556403333724615</v>
       </c>
       <c r="D144">
-        <f>'PWT Calcs'!C144/'PWT Calcs'!C$141</f>
-        <v>1.0293685126574241</v>
+        <f>'PWT Calcs'!C177/'PWT Calcs'!C$173</f>
+        <v>1.1295256880066253</v>
       </c>
       <c r="E144">
-        <f>'PWT Calcs'!D144/'PWT Calcs'!D$141</f>
-        <v>1.1448756529118707</v>
+        <f>'PWT Calcs'!D177/'PWT Calcs'!D$173</f>
+        <v>1.066949292398399</v>
       </c>
       <c r="F144">
-        <f>'Energy Data'!B144/'Energy Data'!B$141</f>
-        <v>1.1102322464387493</v>
+        <f>'Energy Data'!B177/'Energy Data'!B$173</f>
+        <v>1.1166623512315266</v>
       </c>
       <c r="G144">
-        <f>'Energy Data'!C144/'Energy Data'!C$141</f>
-        <v>1.1100923370478673</v>
+        <f>'Energy Data'!C177/'Energy Data'!C$173</f>
+        <v>1.1159446508252393</v>
       </c>
       <c r="H144" t="s">
         <v>1423</v>
       </c>
       <c r="I144" s="4" t="str">
-        <f>'PWT Calcs'!H144</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H177</f>
+        <v>SA</v>
       </c>
       <c r="J144" s="4" t="s">
         <v>1588</v>
@@ -39719,39 +39763,39 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="4" t="str">
-        <f>'PWT Calcs'!A145</f>
-        <v>1995</v>
+        <f>'PWT Calcs'!A178</f>
+        <v>1996</v>
       </c>
       <c r="B145" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C145">
-        <f>'PWT Calcs'!B145/'PWT Calcs'!B$141</f>
-        <v>1.0546079177716243</v>
+        <f>'PWT Calcs'!B178/'PWT Calcs'!B$173</f>
+        <v>1.091361245640674</v>
       </c>
       <c r="D145">
-        <f>'PWT Calcs'!C145/'PWT Calcs'!C$141</f>
-        <v>1.0483859821837693</v>
+        <f>'PWT Calcs'!C178/'PWT Calcs'!C$173</f>
+        <v>1.1558411092311249</v>
       </c>
       <c r="E145">
-        <f>'PWT Calcs'!D145/'PWT Calcs'!D$141</f>
-        <v>1.1963464097247638</v>
+        <f>'PWT Calcs'!D178/'PWT Calcs'!D$173</f>
+        <v>1.0564888041929037</v>
       </c>
       <c r="F145">
-        <f>'Energy Data'!B145/'Energy Data'!B$141</f>
-        <v>1.1270287190833779</v>
+        <f>'Energy Data'!B178/'Energy Data'!B$173</f>
+        <v>1.1949625842195228</v>
       </c>
       <c r="G145">
-        <f>'Energy Data'!C145/'Energy Data'!C$141</f>
-        <v>1.1266800229104592</v>
+        <f>'Energy Data'!C178/'Energy Data'!C$173</f>
+        <v>1.1939977426931474</v>
       </c>
       <c r="H145" t="s">
         <v>1423</v>
       </c>
       <c r="I145" s="4" t="str">
-        <f>'PWT Calcs'!H145</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H178</f>
+        <v>SA</v>
       </c>
       <c r="J145" s="4" t="s">
         <v>1588</v>
@@ -39759,39 +39803,39 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="4" t="str">
-        <f>'PWT Calcs'!A146</f>
-        <v>1996</v>
+        <f>'PWT Calcs'!A179</f>
+        <v>1997</v>
       </c>
       <c r="B146" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C146">
-        <f>'PWT Calcs'!B146/'PWT Calcs'!B$141</f>
-        <v>1.1000266770028451</v>
+        <f>'PWT Calcs'!B179/'PWT Calcs'!B$173</f>
+        <v>1.119656630908519</v>
       </c>
       <c r="D146">
-        <f>'PWT Calcs'!C146/'PWT Calcs'!C$141</f>
-        <v>1.0716841572197127</v>
+        <f>'PWT Calcs'!C179/'PWT Calcs'!C$173</f>
+        <v>1.1893605394072893</v>
       </c>
       <c r="E146">
-        <f>'PWT Calcs'!D146/'PWT Calcs'!D$141</f>
-        <v>1.2494812291836805</v>
+        <f>'PWT Calcs'!D179/'PWT Calcs'!D$173</f>
+        <v>1.0343413478470711</v>
       </c>
       <c r="F146">
-        <f>'Energy Data'!B146/'Energy Data'!B$141</f>
-        <v>1.1424144339714173</v>
+        <f>'Energy Data'!B179/'Energy Data'!B$173</f>
+        <v>1.265522909688287</v>
       </c>
       <c r="G146">
-        <f>'Energy Data'!C146/'Energy Data'!C$141</f>
-        <v>1.141875633777123</v>
+        <f>'Energy Data'!C179/'Energy Data'!C$173</f>
+        <v>1.264015804467999</v>
       </c>
       <c r="H146" t="s">
         <v>1423</v>
       </c>
       <c r="I146" s="4" t="str">
-        <f>'PWT Calcs'!H146</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H179</f>
+        <v>SA</v>
       </c>
       <c r="J146" s="4" t="s">
         <v>1588</v>
@@ -39799,39 +39843,39 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="4" t="str">
-        <f>'PWT Calcs'!A147</f>
-        <v>1997</v>
+        <f>'PWT Calcs'!A180</f>
+        <v>1998</v>
       </c>
       <c r="B147" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C147">
-        <f>'PWT Calcs'!B147/'PWT Calcs'!B$141</f>
-        <v>1.1291417905938947</v>
+        <f>'PWT Calcs'!B180/'PWT Calcs'!B$173</f>
+        <v>1.1513940376161067</v>
       </c>
       <c r="D147">
-        <f>'PWT Calcs'!C147/'PWT Calcs'!C$141</f>
-        <v>1.0989262561711299</v>
+        <f>'PWT Calcs'!C180/'PWT Calcs'!C$173</f>
+        <v>1.2267516997023546</v>
       </c>
       <c r="E147">
-        <f>'PWT Calcs'!D147/'PWT Calcs'!D$141</f>
-        <v>1.3000730427099625</v>
+        <f>'PWT Calcs'!D180/'PWT Calcs'!D$173</f>
+        <v>1.0126248486207796</v>
       </c>
       <c r="F147">
-        <f>'Energy Data'!B147/'Energy Data'!B$141</f>
-        <v>1.2324433362558471</v>
+        <f>'Energy Data'!B180/'Energy Data'!B$173</f>
+        <v>1.3130381249218592</v>
       </c>
       <c r="G147">
-        <f>'Energy Data'!C147/'Energy Data'!C$141</f>
-        <v>1.2320056938569433</v>
+        <f>'Energy Data'!C180/'Energy Data'!C$173</f>
+        <v>1.311544166131015</v>
       </c>
       <c r="H147" t="s">
         <v>1423</v>
       </c>
       <c r="I147" s="4" t="str">
-        <f>'PWT Calcs'!H147</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H180</f>
+        <v>SA</v>
       </c>
       <c r="J147" s="4" t="s">
         <v>1588</v>
@@ -39839,39 +39883,39 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="4" t="str">
-        <f>'PWT Calcs'!A148</f>
-        <v>1998</v>
+        <f>'PWT Calcs'!A181</f>
+        <v>1999</v>
       </c>
       <c r="B148" s="4">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C148">
-        <f>'PWT Calcs'!B148/'PWT Calcs'!B$141</f>
-        <v>1.1349837753629082</v>
+        <f>'PWT Calcs'!B181/'PWT Calcs'!B$173</f>
+        <v>1.1427757309088991</v>
       </c>
       <c r="D148">
-        <f>'PWT Calcs'!C148/'PWT Calcs'!C$141</f>
-        <v>1.1283016202254181</v>
+        <f>'PWT Calcs'!C181/'PWT Calcs'!C$173</f>
+        <v>1.2697595573712981</v>
       </c>
       <c r="E148">
-        <f>'PWT Calcs'!D148/'PWT Calcs'!D$141</f>
-        <v>1.3495602383219809</v>
+        <f>'PWT Calcs'!D181/'PWT Calcs'!D$173</f>
+        <v>1.0113754252551366</v>
       </c>
       <c r="F148">
-        <f>'Energy Data'!B148/'Energy Data'!B$141</f>
-        <v>1.1758332441525656</v>
+        <f>'Energy Data'!B181/'Energy Data'!B$173</f>
+        <v>1.3301716683831304</v>
       </c>
       <c r="G148">
-        <f>'Energy Data'!C148/'Energy Data'!C$141</f>
-        <v>1.1748229536074084</v>
+        <f>'Energy Data'!C181/'Energy Data'!C$173</f>
+        <v>1.3290428808142796</v>
       </c>
       <c r="H148" t="s">
         <v>1423</v>
       </c>
       <c r="I148" s="4" t="str">
-        <f>'PWT Calcs'!H148</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H181</f>
+        <v>SA</v>
       </c>
       <c r="J148" s="4" t="s">
         <v>1588</v>
@@ -39879,39 +39923,39 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="4" t="str">
-        <f>'PWT Calcs'!A149</f>
-        <v>1999</v>
+        <f>'PWT Calcs'!A182</f>
+        <v>2000</v>
       </c>
       <c r="B149" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C149">
-        <f>'PWT Calcs'!B149/'PWT Calcs'!B$141</f>
-        <v>1.1617481523619395</v>
+        <f>'PWT Calcs'!B182/'PWT Calcs'!B$173</f>
+        <v>1.1983668384521884</v>
       </c>
       <c r="D149">
-        <f>'PWT Calcs'!C149/'PWT Calcs'!C$141</f>
-        <v>1.1491034061246999</v>
+        <f>'PWT Calcs'!C182/'PWT Calcs'!C$173</f>
+        <v>1.3154236076666368</v>
       </c>
       <c r="E149">
-        <f>'PWT Calcs'!D149/'PWT Calcs'!D$141</f>
-        <v>1.4047218019276486</v>
+        <f>'PWT Calcs'!D182/'PWT Calcs'!D$173</f>
+        <v>1.0628136035033717</v>
       </c>
       <c r="F149">
-        <f>'Energy Data'!B149/'Energy Data'!B$141</f>
-        <v>1.2236660554393917</v>
+        <f>'Energy Data'!B182/'Energy Data'!B$173</f>
+        <v>1.400309878998776</v>
       </c>
       <c r="G149">
-        <f>'Energy Data'!C149/'Energy Data'!C$141</f>
-        <v>1.2231897482509246</v>
+        <f>'Energy Data'!C182/'Energy Data'!C$173</f>
+        <v>1.3987563364795679</v>
       </c>
       <c r="H149" t="s">
         <v>1423</v>
       </c>
       <c r="I149" s="4" t="str">
-        <f>'PWT Calcs'!H149</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H182</f>
+        <v>SA</v>
       </c>
       <c r="J149" s="4" t="s">
         <v>1588</v>
@@ -39919,39 +39963,39 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="4" t="str">
-        <f>'PWT Calcs'!A150</f>
-        <v>2000</v>
+        <f>'PWT Calcs'!A183</f>
+        <v>2001</v>
       </c>
       <c r="B150" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C150">
-        <f>'PWT Calcs'!B150/'PWT Calcs'!B$141</f>
-        <v>1.2100140077502739</v>
+        <f>'PWT Calcs'!B183/'PWT Calcs'!B$173</f>
+        <v>1.2049290201409364</v>
       </c>
       <c r="D150">
-        <f>'PWT Calcs'!C150/'PWT Calcs'!C$141</f>
-        <v>1.1716930522228826</v>
+        <f>'PWT Calcs'!C183/'PWT Calcs'!C$173</f>
+        <v>1.360819643310752</v>
       </c>
       <c r="E150">
-        <f>'PWT Calcs'!D150/'PWT Calcs'!D$141</f>
-        <v>1.4607723449416898</v>
+        <f>'PWT Calcs'!D183/'PWT Calcs'!D$173</f>
+        <v>1.1215233137323579</v>
       </c>
       <c r="F150">
-        <f>'Energy Data'!B150/'Energy Data'!B$141</f>
-        <v>1.2563636877417368</v>
+        <f>'Energy Data'!B183/'Energy Data'!B$173</f>
+        <v>1.4797842836205422</v>
       </c>
       <c r="G150">
-        <f>'Energy Data'!C150/'Energy Data'!C$141</f>
-        <v>1.2557758192071538</v>
+        <f>'Energy Data'!C183/'Energy Data'!C$173</f>
+        <v>1.4778147393883445</v>
       </c>
       <c r="H150" t="s">
         <v>1423</v>
       </c>
       <c r="I150" s="4" t="str">
-        <f>'PWT Calcs'!H150</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H183</f>
+        <v>SA</v>
       </c>
       <c r="J150" s="4" t="s">
         <v>1588</v>
@@ -39959,39 +40003,39 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="4" t="str">
-        <f>'PWT Calcs'!A151</f>
-        <v>2001</v>
+        <f>'PWT Calcs'!A184</f>
+        <v>2002</v>
       </c>
       <c r="B151" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C151">
-        <f>'PWT Calcs'!B151/'PWT Calcs'!B$141</f>
-        <v>1.2431130110342412</v>
+        <f>'PWT Calcs'!B184/'PWT Calcs'!B$173</f>
+        <v>1.206468273953099</v>
       </c>
       <c r="D151">
-        <f>'PWT Calcs'!C151/'PWT Calcs'!C$141</f>
-        <v>1.1960442160802993</v>
+        <f>'PWT Calcs'!C184/'PWT Calcs'!C$173</f>
+        <v>1.4073801311194158</v>
       </c>
       <c r="E151">
-        <f>'PWT Calcs'!D151/'PWT Calcs'!D$141</f>
-        <v>1.5131544552692384</v>
+        <f>'PWT Calcs'!D184/'PWT Calcs'!D$173</f>
+        <v>1.2124252769041775</v>
       </c>
       <c r="F151">
-        <f>'Energy Data'!B151/'Energy Data'!B$141</f>
-        <v>1.2722882753220093</v>
+        <f>'Energy Data'!B184/'Energy Data'!B$173</f>
+        <v>1.5509657059675972</v>
       </c>
       <c r="G151">
-        <f>'Energy Data'!C151/'Energy Data'!C$141</f>
-        <v>1.2719159283492358</v>
+        <f>'Energy Data'!C184/'Energy Data'!C$173</f>
+        <v>1.5487686632302125</v>
       </c>
       <c r="H151" t="s">
         <v>1423</v>
       </c>
       <c r="I151" s="4" t="str">
-        <f>'PWT Calcs'!H151</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H184</f>
+        <v>SA</v>
       </c>
       <c r="J151" s="4" t="s">
         <v>1588</v>
@@ -39999,39 +40043,39 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="4" t="str">
-        <f>'PWT Calcs'!A152</f>
-        <v>2002</v>
+        <f>'PWT Calcs'!A185</f>
+        <v>2003</v>
       </c>
       <c r="B152" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C152">
-        <f>'PWT Calcs'!B152/'PWT Calcs'!B$141</f>
-        <v>1.2887083776013601</v>
+        <f>'PWT Calcs'!B185/'PWT Calcs'!B$173</f>
+        <v>1.2988746218130998</v>
       </c>
       <c r="D152">
-        <f>'PWT Calcs'!C152/'PWT Calcs'!C$141</f>
-        <v>1.2221053940929383</v>
+        <f>'PWT Calcs'!C185/'PWT Calcs'!C$173</f>
+        <v>1.4658299346211683</v>
       </c>
       <c r="E152">
-        <f>'PWT Calcs'!D152/'PWT Calcs'!D$141</f>
-        <v>1.5566899544590238</v>
+        <f>'PWT Calcs'!D185/'PWT Calcs'!D$173</f>
+        <v>1.3322239492021613</v>
       </c>
       <c r="F152">
-        <f>'Energy Data'!B152/'Energy Data'!B$141</f>
-        <v>1.245219020840683</v>
+        <f>'Energy Data'!B185/'Energy Data'!B$173</f>
+        <v>1.642287298330382</v>
       </c>
       <c r="G152">
-        <f>'Energy Data'!C152/'Energy Data'!C$141</f>
-        <v>1.2441693403898308</v>
+        <f>'Energy Data'!C185/'Energy Data'!C$173</f>
+        <v>1.6399546541763821</v>
       </c>
       <c r="H152" t="s">
         <v>1423</v>
       </c>
       <c r="I152" s="4" t="str">
-        <f>'PWT Calcs'!H152</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H185</f>
+        <v>SA</v>
       </c>
       <c r="J152" s="4" t="s">
         <v>1588</v>
@@ -40039,39 +40083,39 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="4" t="str">
-        <f>'PWT Calcs'!A153</f>
-        <v>2003</v>
+        <f>'PWT Calcs'!A186</f>
+        <v>2004</v>
       </c>
       <c r="B153" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C153">
-        <f>'PWT Calcs'!B153/'PWT Calcs'!B$141</f>
-        <v>1.3267133467740821</v>
+        <f>'PWT Calcs'!B186/'PWT Calcs'!B$173</f>
+        <v>1.3672909511566176</v>
       </c>
       <c r="D153">
-        <f>'PWT Calcs'!C153/'PWT Calcs'!C$141</f>
-        <v>1.2574473797954906</v>
+        <f>'PWT Calcs'!C186/'PWT Calcs'!C$173</f>
+        <v>1.52440537380986</v>
       </c>
       <c r="E153">
-        <f>'PWT Calcs'!D153/'PWT Calcs'!D$141</f>
-        <v>1.5992388752582827</v>
+        <f>'PWT Calcs'!D186/'PWT Calcs'!D$173</f>
+        <v>1.4536012018021982</v>
       </c>
       <c r="F153">
-        <f>'Energy Data'!B153/'Energy Data'!B$141</f>
-        <v>1.3360197031591734</v>
+        <f>'Energy Data'!B186/'Energy Data'!B$173</f>
+        <v>1.7630182123296265</v>
       </c>
       <c r="G153">
-        <f>'Energy Data'!C153/'Energy Data'!C$141</f>
-        <v>1.335564396361262</v>
+        <f>'Energy Data'!C186/'Energy Data'!C$173</f>
+        <v>1.7601388721877216</v>
       </c>
       <c r="H153" t="s">
         <v>1423</v>
       </c>
       <c r="I153" s="4" t="str">
-        <f>'PWT Calcs'!H153</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H186</f>
+        <v>SA</v>
       </c>
       <c r="J153" s="4" t="s">
         <v>1588</v>
@@ -40079,39 +40123,39 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="4" t="str">
-        <f>'PWT Calcs'!A154</f>
-        <v>2004</v>
+        <f>'PWT Calcs'!A187</f>
+        <v>2005</v>
       </c>
       <c r="B154" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C154">
-        <f>'PWT Calcs'!B154/'PWT Calcs'!B$141</f>
-        <v>1.3871390819950693</v>
+        <f>'PWT Calcs'!B187/'PWT Calcs'!B$173</f>
+        <v>1.4432198993521119</v>
       </c>
       <c r="D154">
-        <f>'PWT Calcs'!C154/'PWT Calcs'!C$141</f>
-        <v>1.3018975888635034</v>
+        <f>'PWT Calcs'!C187/'PWT Calcs'!C$173</f>
+        <v>1.6008005486417567</v>
       </c>
       <c r="E154">
-        <f>'PWT Calcs'!D154/'PWT Calcs'!D$141</f>
-        <v>1.6348323033111214</v>
+        <f>'PWT Calcs'!D187/'PWT Calcs'!D$173</f>
+        <v>1.5636985063374911</v>
       </c>
       <c r="F154">
-        <f>'Energy Data'!B154/'Energy Data'!B$141</f>
-        <v>1.4170622080665702</v>
+        <f>'Energy Data'!B187/'Energy Data'!B$173</f>
+        <v>1.8467910217842849</v>
       </c>
       <c r="G154">
-        <f>'Energy Data'!C154/'Energy Data'!C$141</f>
-        <v>1.4166109887896972</v>
+        <f>'Energy Data'!C187/'Energy Data'!C$173</f>
+        <v>1.843587651273858</v>
       </c>
       <c r="H154" t="s">
         <v>1423</v>
       </c>
       <c r="I154" s="4" t="str">
-        <f>'PWT Calcs'!H154</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H187</f>
+        <v>SA</v>
       </c>
       <c r="J154" s="4" t="s">
         <v>1588</v>
@@ -40119,39 +40163,39 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="4" t="str">
-        <f>'PWT Calcs'!A155</f>
-        <v>2005</v>
+        <f>'PWT Calcs'!A188</f>
+        <v>2006</v>
       </c>
       <c r="B155" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C155">
-        <f>'PWT Calcs'!B155/'PWT Calcs'!B$141</f>
-        <v>1.4603400341874644</v>
+        <f>'PWT Calcs'!B188/'PWT Calcs'!B$173</f>
+        <v>1.4887935506590584</v>
       </c>
       <c r="D155">
-        <f>'PWT Calcs'!C155/'PWT Calcs'!C$141</f>
-        <v>1.3563995058961587</v>
+        <f>'PWT Calcs'!C188/'PWT Calcs'!C$173</f>
+        <v>1.6948765021362651</v>
       </c>
       <c r="E155">
-        <f>'PWT Calcs'!D155/'PWT Calcs'!D$141</f>
-        <v>1.6726056874978181</v>
+        <f>'PWT Calcs'!D188/'PWT Calcs'!D$173</f>
+        <v>1.6573761729941916</v>
       </c>
       <c r="F155">
-        <f>'Energy Data'!B155/'Energy Data'!B$141</f>
-        <v>1.3995427520911294</v>
+        <f>'Energy Data'!B188/'Energy Data'!B$173</f>
+        <v>1.9015211202007152</v>
       </c>
       <c r="G155">
-        <f>'Energy Data'!C155/'Energy Data'!C$141</f>
-        <v>1.3991382079428147</v>
+        <f>'Energy Data'!C188/'Energy Data'!C$173</f>
+        <v>1.8981902172270901</v>
       </c>
       <c r="H155" t="s">
         <v>1423</v>
       </c>
       <c r="I155" s="4" t="str">
-        <f>'PWT Calcs'!H155</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H188</f>
+        <v>SA</v>
       </c>
       <c r="J155" s="4" t="s">
         <v>1588</v>
@@ -40159,39 +40203,39 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="4" t="str">
-        <f>'PWT Calcs'!A156</f>
-        <v>2006</v>
+        <f>'PWT Calcs'!A189</f>
+        <v>2007</v>
       </c>
       <c r="B156" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C156">
-        <f>'PWT Calcs'!B156/'PWT Calcs'!B$141</f>
-        <v>1.5421733670560427</v>
+        <f>'PWT Calcs'!B189/'PWT Calcs'!B$173</f>
+        <v>1.5188269863568715</v>
       </c>
       <c r="D156">
-        <f>'PWT Calcs'!C156/'PWT Calcs'!C$141</f>
-        <v>1.4229212537063989</v>
+        <f>'PWT Calcs'!C189/'PWT Calcs'!C$173</f>
+        <v>1.8163429908027466</v>
       </c>
       <c r="E156">
-        <f>'PWT Calcs'!D156/'PWT Calcs'!D$141</f>
-        <v>1.7130159015443582</v>
+        <f>'PWT Calcs'!D189/'PWT Calcs'!D$173</f>
+        <v>1.7376490950397312</v>
       </c>
       <c r="F156">
-        <f>'Energy Data'!B156/'Energy Data'!B$141</f>
-        <v>1.4384251849680523</v>
+        <f>'Energy Data'!B189/'Energy Data'!B$173</f>
+        <v>1.9837804334929643</v>
       </c>
       <c r="G156">
-        <f>'Energy Data'!C156/'Energy Data'!C$141</f>
-        <v>1.4374098991624733</v>
+        <f>'Energy Data'!C189/'Energy Data'!C$173</f>
+        <v>1.9809794698054117</v>
       </c>
       <c r="H156" t="s">
         <v>1423</v>
       </c>
       <c r="I156" s="4" t="str">
-        <f>'PWT Calcs'!H156</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H189</f>
+        <v>SA</v>
       </c>
       <c r="J156" s="4" t="s">
         <v>1588</v>
@@ -40199,39 +40243,39 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="4" t="str">
-        <f>'PWT Calcs'!A157</f>
-        <v>2007</v>
+        <f>'PWT Calcs'!A190</f>
+        <v>2008</v>
       </c>
       <c r="B157" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C157">
-        <f>'PWT Calcs'!B157/'PWT Calcs'!B$141</f>
-        <v>1.6277293966628681</v>
+        <f>'PWT Calcs'!B190/'PWT Calcs'!B$173</f>
+        <v>1.5830515470163471</v>
       </c>
       <c r="D157">
-        <f>'PWT Calcs'!C157/'PWT Calcs'!C$141</f>
-        <v>1.504114913518243</v>
+        <f>'PWT Calcs'!C190/'PWT Calcs'!C$173</f>
+        <v>1.9497964439112125</v>
       </c>
       <c r="E157">
-        <f>'PWT Calcs'!D157/'PWT Calcs'!D$141</f>
-        <v>1.7557909573438091</v>
+        <f>'PWT Calcs'!D190/'PWT Calcs'!D$173</f>
+        <v>1.8009008819400611</v>
       </c>
       <c r="F157">
-        <f>'Energy Data'!B157/'Energy Data'!B$141</f>
-        <v>1.4686791275267892</v>
+        <f>'Energy Data'!B190/'Energy Data'!B$173</f>
+        <v>1.9462941711455051</v>
       </c>
       <c r="G157">
-        <f>'Energy Data'!C157/'Energy Data'!C$141</f>
-        <v>1.4678514497746957</v>
+        <f>'Energy Data'!C190/'Energy Data'!C$173</f>
+        <v>1.9412911764709122</v>
       </c>
       <c r="H157" t="s">
         <v>1423</v>
       </c>
       <c r="I157" s="4" t="str">
-        <f>'PWT Calcs'!H157</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H190</f>
+        <v>SA</v>
       </c>
       <c r="J157" s="4" t="s">
         <v>1588</v>
@@ -40239,39 +40283,39 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="4" t="str">
-        <f>'PWT Calcs'!A158</f>
-        <v>2008</v>
+        <f>'PWT Calcs'!A191</f>
+        <v>2009</v>
       </c>
       <c r="B158" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C158">
-        <f>'PWT Calcs'!B158/'PWT Calcs'!B$141</f>
-        <v>1.6866298022090815</v>
+        <f>'PWT Calcs'!B191/'PWT Calcs'!B$173</f>
+        <v>1.5845756544195315</v>
       </c>
       <c r="D158">
-        <f>'PWT Calcs'!C158/'PWT Calcs'!C$141</f>
-        <v>1.599100789599863</v>
+        <f>'PWT Calcs'!C191/'PWT Calcs'!C$173</f>
+        <v>2.0653700322344752</v>
       </c>
       <c r="E158">
-        <f>'PWT Calcs'!D158/'PWT Calcs'!D$141</f>
-        <v>1.8252214000684421</v>
+        <f>'PWT Calcs'!D191/'PWT Calcs'!D$173</f>
+        <v>1.8559279005396874</v>
       </c>
       <c r="F158">
-        <f>'Energy Data'!B158/'Energy Data'!B$141</f>
-        <v>1.5369459119356834</v>
+        <f>'Energy Data'!B191/'Energy Data'!B$173</f>
+        <v>2.0525375507856669</v>
       </c>
       <c r="G158">
-        <f>'Energy Data'!C158/'Energy Data'!C$141</f>
-        <v>1.5366886035050733</v>
+        <f>'Energy Data'!C191/'Energy Data'!C$173</f>
+        <v>2.0491999247201949</v>
       </c>
       <c r="H158" t="s">
         <v>1423</v>
       </c>
       <c r="I158" s="4" t="str">
-        <f>'PWT Calcs'!H158</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H191</f>
+        <v>SA</v>
       </c>
       <c r="J158" s="4" t="s">
         <v>1588</v>
@@ -40279,39 +40323,39 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="4" t="str">
-        <f>'PWT Calcs'!A159</f>
-        <v>2009</v>
+        <f>'PWT Calcs'!A192</f>
+        <v>2010</v>
       </c>
       <c r="B159" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C159">
-        <f>'PWT Calcs'!B159/'PWT Calcs'!B$141</f>
-        <v>1.6607010567625282</v>
+        <f>'PWT Calcs'!B192/'PWT Calcs'!B$173</f>
+        <v>1.6656966611672563</v>
       </c>
       <c r="D159">
-        <f>'PWT Calcs'!C159/'PWT Calcs'!C$141</f>
-        <v>1.6885847577446478</v>
+        <f>'PWT Calcs'!C192/'PWT Calcs'!C$173</f>
+        <v>2.1941197243323267</v>
       </c>
       <c r="E159">
-        <f>'PWT Calcs'!D159/'PWT Calcs'!D$141</f>
-        <v>1.805033879276867</v>
+        <f>'PWT Calcs'!D192/'PWT Calcs'!D$173</f>
+        <v>1.9315274083218024</v>
       </c>
       <c r="F159">
-        <f>'Energy Data'!B159/'Energy Data'!B$141</f>
-        <v>1.5126247791683525</v>
+        <f>'Energy Data'!B192/'Energy Data'!B$173</f>
+        <v>2.2461628284231305</v>
       </c>
       <c r="G159">
-        <f>'Energy Data'!C159/'Energy Data'!C$141</f>
-        <v>1.5119984749397057</v>
+        <f>'Energy Data'!C192/'Energy Data'!C$173</f>
+        <v>2.2419607843072238</v>
       </c>
       <c r="H159" t="s">
         <v>1423</v>
       </c>
       <c r="I159" s="4" t="str">
-        <f>'PWT Calcs'!H159</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H192</f>
+        <v>SA</v>
       </c>
       <c r="J159" s="4" t="s">
         <v>1588</v>
@@ -40319,39 +40363,39 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="4" t="str">
-        <f>'PWT Calcs'!A160</f>
-        <v>2010</v>
+        <f>'PWT Calcs'!A193</f>
+        <v>2011</v>
       </c>
       <c r="B160" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C160">
-        <f>'PWT Calcs'!B160/'PWT Calcs'!B$141</f>
-        <v>1.7086880584626101</v>
+        <f>'PWT Calcs'!B193/'PWT Calcs'!B$173</f>
+        <v>1.7832040334413763</v>
       </c>
       <c r="D160">
-        <f>'PWT Calcs'!C160/'PWT Calcs'!C$141</f>
-        <v>1.7667143075003777</v>
+        <f>'PWT Calcs'!C193/'PWT Calcs'!C$173</f>
+        <v>2.3328860515483956</v>
       </c>
       <c r="E160">
-        <f>'PWT Calcs'!D160/'PWT Calcs'!D$141</f>
-        <v>1.7901419319387011</v>
+        <f>'PWT Calcs'!D193/'PWT Calcs'!D$173</f>
+        <v>1.9944894214976441</v>
       </c>
       <c r="F160">
-        <f>'Energy Data'!B160/'Energy Data'!B$141</f>
-        <v>1.5133785482256334</v>
+        <f>'Energy Data'!B193/'Energy Data'!B$173</f>
+        <v>2.7192170244508747</v>
       </c>
       <c r="G160">
-        <f>'Energy Data'!C160/'Energy Data'!C$141</f>
-        <v>1.5123668013800988</v>
+        <f>'Energy Data'!C193/'Energy Data'!C$173</f>
+        <v>2.716221819477203</v>
       </c>
       <c r="H160" t="s">
         <v>1423</v>
       </c>
       <c r="I160" s="4" t="str">
-        <f>'PWT Calcs'!H160</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H193</f>
+        <v>SA</v>
       </c>
       <c r="J160" s="4" t="s">
         <v>1588</v>
@@ -40359,39 +40403,39 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="4" t="str">
-        <f>'PWT Calcs'!A161</f>
-        <v>2011</v>
+        <f>'PWT Calcs'!A205</f>
+        <v>1991</v>
       </c>
       <c r="B161" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <f>'PWT Calcs'!B161/'PWT Calcs'!B$141</f>
-        <v>1.7620467117108345</v>
+        <f>'PWT Calcs'!B205/'PWT Calcs'!B$205</f>
+        <v>1</v>
       </c>
       <c r="D161">
-        <f>'PWT Calcs'!C161/'PWT Calcs'!C$141</f>
-        <v>1.8495441517598581</v>
+        <f>'PWT Calcs'!C205/'PWT Calcs'!C$205</f>
+        <v>1</v>
       </c>
       <c r="E161">
-        <f>'PWT Calcs'!D161/'PWT Calcs'!D$141</f>
-        <v>1.8007658573716034</v>
+        <f>'PWT Calcs'!D205/'PWT Calcs'!D$205</f>
+        <v>1</v>
       </c>
       <c r="F161">
-        <f>'Energy Data'!B161/'Energy Data'!B$141</f>
-        <v>1.5052918416080747</v>
+        <f>'Energy Data'!B205/'Energy Data'!B$205</f>
+        <v>1</v>
       </c>
       <c r="G161">
-        <f>'Energy Data'!C161/'Energy Data'!C$141</f>
-        <v>1.50370993668744</v>
+        <f>'Energy Data'!C205/'Energy Data'!C$205</f>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
         <v>1423</v>
       </c>
       <c r="I161" s="4" t="str">
-        <f>'PWT Calcs'!H161</f>
-        <v>ZA</v>
+        <f>'PWT Calcs'!H205</f>
+        <v>IR</v>
       </c>
       <c r="J161" s="4" t="s">
         <v>1588</v>
@@ -40399,37 +40443,39 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="4" t="str">
-        <f>'PWT Calcs'!A162</f>
-        <v>1980</v>
+        <f>'PWT Calcs'!A206</f>
+        <v>1992</v>
       </c>
       <c r="B162" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162">
-        <f>'PWT Calcs'!B162/'PWT Calcs'!B$173</f>
-        <v>0.9793724842761341</v>
+        <f>'PWT Calcs'!B206/'PWT Calcs'!B$205</f>
+        <v>1.0610132158590357</v>
       </c>
       <c r="D162">
-        <f>'PWT Calcs'!C162/'PWT Calcs'!C$173</f>
-        <v>0.63593332191449969</v>
+        <f>'PWT Calcs'!C206/'PWT Calcs'!C$205</f>
+        <v>1.0337636559772483</v>
       </c>
       <c r="E162">
-        <f>'PWT Calcs'!D162/'PWT Calcs'!D$173</f>
-        <v>0.47277445785531153</v>
-      </c>
-      <c r="F162" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G162" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D206/'PWT Calcs'!D$205</f>
+        <v>1.0040170466321636</v>
+      </c>
+      <c r="F162">
+        <f>'Energy Data'!B206/'Energy Data'!B$205</f>
+        <v>1.03577726673788</v>
+      </c>
+      <c r="G162">
+        <f>'Energy Data'!C206/'Energy Data'!C$205</f>
+        <v>1.0352412697060405</v>
       </c>
       <c r="H162" t="s">
         <v>1423</v>
       </c>
       <c r="I162" s="4" t="str">
-        <f>'PWT Calcs'!H162</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H206</f>
+        <v>IR</v>
       </c>
       <c r="J162" s="4" t="s">
         <v>1588</v>
@@ -40437,37 +40483,39 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="4" t="str">
-        <f>'PWT Calcs'!A163</f>
-        <v>1981</v>
+        <f>'PWT Calcs'!A207</f>
+        <v>1993</v>
       </c>
       <c r="B163" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" ref="B163:B223" si="3">A163-$A$98</f>
+        <v>2</v>
       </c>
       <c r="C163">
-        <f>'PWT Calcs'!B163/'PWT Calcs'!B$173</f>
-        <v>1.0263452851122157</v>
+        <f>'PWT Calcs'!B207/'PWT Calcs'!B$205</f>
+        <v>1.0388135308854245</v>
       </c>
       <c r="D163">
-        <f>'PWT Calcs'!C163/'PWT Calcs'!C$173</f>
-        <v>0.6860818818368255</v>
+        <f>'PWT Calcs'!C207/'PWT Calcs'!C$205</f>
+        <v>1.0562935068048336</v>
       </c>
       <c r="E163">
-        <f>'PWT Calcs'!D163/'PWT Calcs'!D$173</f>
-        <v>0.5164303418020193</v>
-      </c>
-      <c r="F163" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G163" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D207/'PWT Calcs'!D$205</f>
+        <v>1.0231255186091435</v>
+      </c>
+      <c r="F163">
+        <f>'Energy Data'!B207/'Energy Data'!B$205</f>
+        <v>1.0670517918372191</v>
+      </c>
+      <c r="G163">
+        <f>'Energy Data'!C207/'Energy Data'!C$205</f>
+        <v>1.0665616469821457</v>
       </c>
       <c r="H163" t="s">
         <v>1423</v>
       </c>
       <c r="I163" s="4" t="str">
-        <f>'PWT Calcs'!H163</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H207</f>
+        <v>IR</v>
       </c>
       <c r="J163" s="4" t="s">
         <v>1588</v>
@@ -40475,37 +40523,39 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="4" t="str">
-        <f>'PWT Calcs'!A164</f>
-        <v>1982</v>
+        <f>'PWT Calcs'!A208</f>
+        <v>1994</v>
       </c>
       <c r="B164" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C164">
-        <f>'PWT Calcs'!B164/'PWT Calcs'!B$173</f>
-        <v>0.91933022579509205</v>
+        <f>'PWT Calcs'!B208/'PWT Calcs'!B$205</f>
+        <v>1.0567359990683061</v>
       </c>
       <c r="D164">
-        <f>'PWT Calcs'!C164/'PWT Calcs'!C$173</f>
-        <v>0.73808332371409646</v>
+        <f>'PWT Calcs'!C208/'PWT Calcs'!C$205</f>
+        <v>1.0670286031839429</v>
       </c>
       <c r="E164">
-        <f>'PWT Calcs'!D164/'PWT Calcs'!D$173</f>
-        <v>0.57456294345067704</v>
-      </c>
-      <c r="F164" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G164" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D208/'PWT Calcs'!D$205</f>
+        <v>1.0521093339758636</v>
+      </c>
+      <c r="F164">
+        <f>'Energy Data'!B208/'Energy Data'!B$205</f>
+        <v>1.1384492952767526</v>
+      </c>
+      <c r="G164">
+        <f>'Energy Data'!C208/'Energy Data'!C$205</f>
+        <v>1.1373943384611491</v>
       </c>
       <c r="H164" t="s">
         <v>1423</v>
       </c>
       <c r="I164" s="4" t="str">
-        <f>'PWT Calcs'!H164</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H208</f>
+        <v>IR</v>
       </c>
       <c r="J164" s="4" t="s">
         <v>1588</v>
@@ -40513,37 +40563,39 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="4" t="str">
-        <f>'PWT Calcs'!A165</f>
-        <v>1983</v>
+        <f>'PWT Calcs'!A209</f>
+        <v>1995</v>
       </c>
       <c r="B165" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="C165">
-        <f>'PWT Calcs'!B165/'PWT Calcs'!B$173</f>
-        <v>0.84713865401436728</v>
+        <f>'PWT Calcs'!B209/'PWT Calcs'!B$205</f>
+        <v>1.0874680659482239</v>
       </c>
       <c r="D165">
-        <f>'PWT Calcs'!C165/'PWT Calcs'!C$173</f>
-        <v>0.78753495999364975</v>
+        <f>'PWT Calcs'!C209/'PWT Calcs'!C$205</f>
+        <v>1.0753753718413912</v>
       </c>
       <c r="E165">
-        <f>'PWT Calcs'!D165/'PWT Calcs'!D$173</f>
-        <v>0.63570379922438602</v>
-      </c>
-      <c r="F165" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G165" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D209/'PWT Calcs'!D$205</f>
+        <v>1.0805213152477158</v>
+      </c>
+      <c r="F165">
+        <f>'Energy Data'!B209/'Energy Data'!B$205</f>
+        <v>1.1811177098520949</v>
+      </c>
+      <c r="G165">
+        <f>'Energy Data'!C209/'Energy Data'!C$205</f>
+        <v>1.1793376231829138</v>
       </c>
       <c r="H165" t="s">
         <v>1423</v>
       </c>
       <c r="I165" s="4" t="str">
-        <f>'PWT Calcs'!H165</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H209</f>
+        <v>IR</v>
       </c>
       <c r="J165" s="4" t="s">
         <v>1588</v>
@@ -40551,37 +40603,39 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="4" t="str">
-        <f>'PWT Calcs'!A166</f>
-        <v>1984</v>
+        <f>'PWT Calcs'!A210</f>
+        <v>1996</v>
       </c>
       <c r="B166" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="C166">
-        <f>'PWT Calcs'!B166/'PWT Calcs'!B$173</f>
-        <v>0.81940747248086876</v>
+        <f>'PWT Calcs'!B210/'PWT Calcs'!B$205</f>
+        <v>1.1544904322012239</v>
       </c>
       <c r="D166">
-        <f>'PWT Calcs'!C166/'PWT Calcs'!C$173</f>
-        <v>0.82735181787078427</v>
+        <f>'PWT Calcs'!C210/'PWT Calcs'!C$205</f>
+        <v>1.0954545672474476</v>
       </c>
       <c r="E166">
-        <f>'PWT Calcs'!D166/'PWT Calcs'!D$173</f>
-        <v>0.69222372157442258</v>
-      </c>
-      <c r="F166" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G166" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D210/'PWT Calcs'!D$205</f>
+        <v>1.1131029689526624</v>
+      </c>
+      <c r="F166">
+        <f>'Energy Data'!B210/'Energy Data'!B$205</f>
+        <v>1.2237451216322293</v>
+      </c>
+      <c r="G166">
+        <f>'Energy Data'!C210/'Energy Data'!C$205</f>
+        <v>1.2206824784460704</v>
       </c>
       <c r="H166" t="s">
         <v>1423</v>
       </c>
       <c r="I166" s="4" t="str">
-        <f>'PWT Calcs'!H166</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H210</f>
+        <v>IR</v>
       </c>
       <c r="J166" s="4" t="s">
         <v>1588</v>
@@ -40589,37 +40643,39 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="4" t="str">
-        <f>'PWT Calcs'!A167</f>
-        <v>1985</v>
+        <f>'PWT Calcs'!A211</f>
+        <v>1997</v>
       </c>
       <c r="B167" s="4">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="C167">
-        <f>'PWT Calcs'!B167/'PWT Calcs'!B$173</f>
-        <v>0.77431093305665954</v>
+        <f>'PWT Calcs'!B211/'PWT Calcs'!B$205</f>
+        <v>1.2002774070455073</v>
       </c>
       <c r="D167">
-        <f>'PWT Calcs'!C167/'PWT Calcs'!C$173</f>
-        <v>0.854308127755117</v>
+        <f>'PWT Calcs'!C211/'PWT Calcs'!C$205</f>
+        <v>1.1219588332080241</v>
       </c>
       <c r="E167">
-        <f>'PWT Calcs'!D167/'PWT Calcs'!D$173</f>
-        <v>0.74327673923625781</v>
-      </c>
-      <c r="F167" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G167" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D211/'PWT Calcs'!D$205</f>
+        <v>1.1697524078477819</v>
+      </c>
+      <c r="F167">
+        <f>'Energy Data'!B211/'Energy Data'!B$205</f>
+        <v>1.3683060315565108</v>
+      </c>
+      <c r="G167">
+        <f>'Energy Data'!C211/'Energy Data'!C$205</f>
+        <v>1.3644729652258847</v>
       </c>
       <c r="H167" t="s">
         <v>1423</v>
       </c>
       <c r="I167" s="4" t="str">
-        <f>'PWT Calcs'!H167</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H211</f>
+        <v>IR</v>
       </c>
       <c r="J167" s="4" t="s">
         <v>1588</v>
@@ -40627,37 +40683,39 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="4" t="str">
-        <f>'PWT Calcs'!A168</f>
-        <v>1986</v>
+        <f>'PWT Calcs'!A212</f>
+        <v>1998</v>
       </c>
       <c r="B168" s="4">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="C168">
-        <f>'PWT Calcs'!B168/'PWT Calcs'!B$173</f>
-        <v>0.81183237469186498</v>
+        <f>'PWT Calcs'!B212/'PWT Calcs'!B$205</f>
+        <v>1.2386582995010649</v>
       </c>
       <c r="D168">
-        <f>'PWT Calcs'!C168/'PWT Calcs'!C$173</f>
-        <v>0.88454428679352004</v>
+        <f>'PWT Calcs'!C212/'PWT Calcs'!C$205</f>
+        <v>1.149604175520033</v>
       </c>
       <c r="E168">
-        <f>'PWT Calcs'!D168/'PWT Calcs'!D$173</f>
-        <v>0.78566508895954068</v>
-      </c>
-      <c r="F168" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G168" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D212/'PWT Calcs'!D$205</f>
+        <v>1.235243230891935</v>
+      </c>
+      <c r="F168">
+        <f>'Energy Data'!B212/'Energy Data'!B$205</f>
+        <v>1.4185152398016532</v>
+      </c>
+      <c r="G168">
+        <f>'Energy Data'!C212/'Energy Data'!C$205</f>
+        <v>1.4137036508417438</v>
       </c>
       <c r="H168" t="s">
         <v>1423</v>
       </c>
       <c r="I168" s="4" t="str">
-        <f>'PWT Calcs'!H168</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H212</f>
+        <v>IR</v>
       </c>
       <c r="J168" s="4" t="s">
         <v>1588</v>
@@ -40665,37 +40723,39 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="4" t="str">
-        <f>'PWT Calcs'!A169</f>
-        <v>1987</v>
+        <f>'PWT Calcs'!A213</f>
+        <v>1999</v>
       </c>
       <c r="B169" s="4">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="C169">
-        <f>'PWT Calcs'!B169/'PWT Calcs'!B$173</f>
-        <v>0.78130857400346188</v>
+        <f>'PWT Calcs'!B213/'PWT Calcs'!B$205</f>
+        <v>1.2881262816338968</v>
       </c>
       <c r="D169">
-        <f>'PWT Calcs'!C169/'PWT Calcs'!C$173</f>
-        <v>0.90875054392736299</v>
+        <f>'PWT Calcs'!C213/'PWT Calcs'!C$205</f>
+        <v>1.1794765780785199</v>
       </c>
       <c r="E169">
-        <f>'PWT Calcs'!D169/'PWT Calcs'!D$173</f>
-        <v>0.83098053267962024</v>
-      </c>
-      <c r="F169" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G169" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D213/'PWT Calcs'!D$205</f>
+        <v>1.3058074703152365</v>
+      </c>
+      <c r="F169">
+        <f>'Energy Data'!B213/'Energy Data'!B$205</f>
+        <v>1.4965058998303231</v>
+      </c>
+      <c r="G169">
+        <f>'Energy Data'!C213/'Energy Data'!C$205</f>
+        <v>1.4901502749727695</v>
       </c>
       <c r="H169" t="s">
         <v>1423</v>
       </c>
       <c r="I169" s="4" t="str">
-        <f>'PWT Calcs'!H169</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H213</f>
+        <v>IR</v>
       </c>
       <c r="J169" s="4" t="s">
         <v>1588</v>
@@ -40703,37 +40763,39 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170" s="4" t="str">
-        <f>'PWT Calcs'!A170</f>
-        <v>1988</v>
+        <f>'PWT Calcs'!A214</f>
+        <v>2000</v>
       </c>
       <c r="B170" s="4">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="C170">
-        <f>'PWT Calcs'!B170/'PWT Calcs'!B$173</f>
-        <v>0.84556342748088797</v>
+        <f>'PWT Calcs'!B214/'PWT Calcs'!B$205</f>
+        <v>1.3306229591701768</v>
       </c>
       <c r="D170">
-        <f>'PWT Calcs'!C170/'PWT Calcs'!C$173</f>
-        <v>0.92155988437850389</v>
+        <f>'PWT Calcs'!C214/'PWT Calcs'!C$205</f>
+        <v>1.2087380820066904</v>
       </c>
       <c r="E170">
-        <f>'PWT Calcs'!D170/'PWT Calcs'!D$173</f>
-        <v>0.86391239511622941</v>
-      </c>
-      <c r="F170" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G170" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D214/'PWT Calcs'!D$205</f>
+        <v>1.3852374817914666</v>
+      </c>
+      <c r="F170">
+        <f>'Energy Data'!B214/'Energy Data'!B$205</f>
+        <v>1.5560989999636801</v>
+      </c>
+      <c r="G170">
+        <f>'Energy Data'!C214/'Energy Data'!C$205</f>
+        <v>1.5494051805105273</v>
       </c>
       <c r="H170" t="s">
         <v>1423</v>
       </c>
       <c r="I170" s="4" t="str">
-        <f>'PWT Calcs'!H170</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H214</f>
+        <v>IR</v>
       </c>
       <c r="J170" s="4" t="s">
         <v>1588</v>
@@ -40741,37 +40803,39 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171" s="4" t="str">
-        <f>'PWT Calcs'!A171</f>
-        <v>1989</v>
+        <f>'PWT Calcs'!A215</f>
+        <v>2001</v>
       </c>
       <c r="B171" s="4">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="C171">
-        <f>'PWT Calcs'!B171/'PWT Calcs'!B$173</f>
-        <v>0.84609165849391743</v>
+        <f>'PWT Calcs'!B215/'PWT Calcs'!B$205</f>
+        <v>1.3666476597354391</v>
       </c>
       <c r="D171">
-        <f>'PWT Calcs'!C171/'PWT Calcs'!C$173</f>
-        <v>0.9378117404227384</v>
+        <f>'PWT Calcs'!C215/'PWT Calcs'!C$205</f>
+        <v>1.2468551752694148</v>
       </c>
       <c r="E171">
-        <f>'PWT Calcs'!D171/'PWT Calcs'!D$173</f>
-        <v>0.90099774115600739</v>
-      </c>
-      <c r="F171" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G171" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D215/'PWT Calcs'!D$205</f>
+        <v>1.4688566467291286</v>
+      </c>
+      <c r="F171">
+        <f>'Energy Data'!B215/'Energy Data'!B$205</f>
+        <v>1.6635605320156388</v>
+      </c>
+      <c r="G171">
+        <f>'Energy Data'!C215/'Energy Data'!C$205</f>
+        <v>1.6551196721661519</v>
       </c>
       <c r="H171" t="s">
         <v>1423</v>
       </c>
       <c r="I171" s="4" t="str">
-        <f>'PWT Calcs'!H171</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H215</f>
+        <v>IR</v>
       </c>
       <c r="J171" s="4" t="s">
         <v>1588</v>
@@ -40779,37 +40843,39 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172" s="4" t="str">
-        <f>'PWT Calcs'!A172</f>
-        <v>1990</v>
+        <f>'PWT Calcs'!A216</f>
+        <v>2002</v>
       </c>
       <c r="B172" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="C172">
-        <f>'PWT Calcs'!B172/'PWT Calcs'!B$173</f>
-        <v>0.91655843295252626</v>
+        <f>'PWT Calcs'!B216/'PWT Calcs'!B$205</f>
+        <v>1.4749704209647752</v>
       </c>
       <c r="D172">
-        <f>'PWT Calcs'!C172/'PWT Calcs'!C$173</f>
-        <v>0.96337194206801591</v>
+        <f>'PWT Calcs'!C216/'PWT Calcs'!C$205</f>
+        <v>1.2935677377878025</v>
       </c>
       <c r="E172">
-        <f>'PWT Calcs'!D172/'PWT Calcs'!D$173</f>
-        <v>0.95207785735816164</v>
-      </c>
-      <c r="F172" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G172" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D216/'PWT Calcs'!D$205</f>
+        <v>1.5614729708055606</v>
+      </c>
+      <c r="F172">
+        <f>'Energy Data'!B216/'Energy Data'!B$205</f>
+        <v>1.8190034559936956</v>
+      </c>
+      <c r="G172">
+        <f>'Energy Data'!C216/'Energy Data'!C$205</f>
+        <v>1.8085005699296726</v>
       </c>
       <c r="H172" t="s">
         <v>1423</v>
       </c>
       <c r="I172" s="4" t="str">
-        <f>'PWT Calcs'!H172</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H216</f>
+        <v>IR</v>
       </c>
       <c r="J172" s="4" t="s">
         <v>1588</v>
@@ -40817,39 +40883,39 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173" s="4" t="str">
-        <f>'PWT Calcs'!A173</f>
-        <v>1991</v>
+        <f>'PWT Calcs'!A217</f>
+        <v>2003</v>
       </c>
       <c r="B173" s="4">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="C173">
-        <f>'PWT Calcs'!B173/'PWT Calcs'!B$173</f>
-        <v>1</v>
+        <f>'PWT Calcs'!B217/'PWT Calcs'!B$205</f>
+        <v>1.5913619631164555</v>
       </c>
       <c r="D173">
-        <f>'PWT Calcs'!C173/'PWT Calcs'!C$173</f>
-        <v>1</v>
+        <f>'PWT Calcs'!C217/'PWT Calcs'!C$205</f>
+        <v>1.3494036808211565</v>
       </c>
       <c r="E173">
-        <f>'PWT Calcs'!D173/'PWT Calcs'!D$173</f>
-        <v>1</v>
+        <f>'PWT Calcs'!D217/'PWT Calcs'!D$205</f>
+        <v>1.6635720149901427</v>
       </c>
       <c r="F173">
-        <f>'Energy Data'!B173/'Energy Data'!B$173</f>
-        <v>1</v>
+        <f>'Energy Data'!B217/'Energy Data'!B$205</f>
+        <v>1.9151848972041365</v>
       </c>
       <c r="G173">
-        <f>'Energy Data'!C173/'Energy Data'!C$173</f>
-        <v>1</v>
+        <f>'Energy Data'!C217/'Energy Data'!C$205</f>
+        <v>1.9040005312156616</v>
       </c>
       <c r="H173" t="s">
         <v>1423</v>
       </c>
       <c r="I173" s="4" t="str">
-        <f>'PWT Calcs'!H173</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H217</f>
+        <v>IR</v>
       </c>
       <c r="J173" s="4" t="s">
         <v>1588</v>
@@ -40857,39 +40923,39 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="4" t="str">
-        <f>'PWT Calcs'!A174</f>
-        <v>1992</v>
+        <f>'PWT Calcs'!A218</f>
+        <v>2004</v>
       </c>
       <c r="B174" s="4">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="C174">
-        <f>'PWT Calcs'!B174/'PWT Calcs'!B$173</f>
-        <v>1.0462855325288063</v>
+        <f>'PWT Calcs'!B218/'PWT Calcs'!B$205</f>
+        <v>1.672330167096618</v>
       </c>
       <c r="D174">
-        <f>'PWT Calcs'!C174/'PWT Calcs'!C$173</f>
-        <v>1.0370589223427853</v>
+        <f>'PWT Calcs'!C218/'PWT Calcs'!C$205</f>
+        <v>1.4103611301799004</v>
       </c>
       <c r="E174">
-        <f>'PWT Calcs'!D174/'PWT Calcs'!D$173</f>
-        <v>1.0226952985026159</v>
+        <f>'PWT Calcs'!D218/'PWT Calcs'!D$205</f>
+        <v>1.7618218716288125</v>
       </c>
       <c r="F174">
-        <f>'Energy Data'!B174/'Energy Data'!B$173</f>
-        <v>1.0553504171748396</v>
+        <f>'Energy Data'!B218/'Energy Data'!B$205</f>
+        <v>1.988985776194522</v>
       </c>
       <c r="G174">
-        <f>'Energy Data'!C174/'Energy Data'!C$173</f>
-        <v>1.0552790562169541</v>
+        <f>'Energy Data'!C218/'Energy Data'!C$205</f>
+        <v>1.9776961335304841</v>
       </c>
       <c r="H174" t="s">
         <v>1423</v>
       </c>
       <c r="I174" s="4" t="str">
-        <f>'PWT Calcs'!H174</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H218</f>
+        <v>IR</v>
       </c>
       <c r="J174" s="4" t="s">
         <v>1588</v>
@@ -40897,39 +40963,39 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="4" t="str">
-        <f>'PWT Calcs'!A175</f>
-        <v>1993</v>
+        <f>'PWT Calcs'!A219</f>
+        <v>2005</v>
       </c>
       <c r="B175" s="4">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="C175">
-        <f>'PWT Calcs'!B175/'PWT Calcs'!B$173</f>
-        <v>1.046558167890369</v>
+        <f>'PWT Calcs'!B219/'PWT Calcs'!B$205</f>
+        <v>1.7601945555880736</v>
       </c>
       <c r="D175">
-        <f>'PWT Calcs'!C175/'PWT Calcs'!C$173</f>
-        <v>1.0775615213088452</v>
+        <f>'PWT Calcs'!C219/'PWT Calcs'!C$205</f>
+        <v>1.476867488259074</v>
       </c>
       <c r="E175">
-        <f>'PWT Calcs'!D175/'PWT Calcs'!D$173</f>
-        <v>1.0483500285934768</v>
+        <f>'PWT Calcs'!D219/'PWT Calcs'!D$205</f>
+        <v>1.8506979847388876</v>
       </c>
       <c r="F175">
-        <f>'Energy Data'!B175/'Energy Data'!B$173</f>
-        <v>1.0984891078023766</v>
+        <f>'Energy Data'!B219/'Energy Data'!B$205</f>
+        <v>2.2734187837172928</v>
       </c>
       <c r="G175">
-        <f>'Energy Data'!C175/'Energy Data'!C$173</f>
-        <v>1.0982563709593873</v>
+        <f>'Energy Data'!C219/'Energy Data'!C$205</f>
+        <v>2.2573379344636728</v>
       </c>
       <c r="H175" t="s">
         <v>1423</v>
       </c>
       <c r="I175" s="4" t="str">
-        <f>'PWT Calcs'!H175</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H219</f>
+        <v>IR</v>
       </c>
       <c r="J175" s="4" t="s">
         <v>1588</v>
@@ -40937,39 +41003,39 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="4" t="str">
-        <f>'PWT Calcs'!A176</f>
-        <v>1994</v>
+        <f>'PWT Calcs'!A220</f>
+        <v>2006</v>
       </c>
       <c r="B176" s="4">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="C176">
-        <f>'PWT Calcs'!B176/'PWT Calcs'!B$173</f>
-        <v>1.0535236227180975</v>
+        <f>'PWT Calcs'!B220/'PWT Calcs'!B$205</f>
+        <v>1.8676476110175066</v>
       </c>
       <c r="D176">
-        <f>'PWT Calcs'!C176/'PWT Calcs'!C$173</f>
-        <v>1.1027987732432896</v>
+        <f>'PWT Calcs'!C220/'PWT Calcs'!C$205</f>
+        <v>1.542293267082911</v>
       </c>
       <c r="E176">
-        <f>'PWT Calcs'!D176/'PWT Calcs'!D$173</f>
-        <v>1.0629599356210948</v>
+        <f>'PWT Calcs'!D220/'PWT Calcs'!D$205</f>
+        <v>1.8599198348360333</v>
       </c>
       <c r="F176">
-        <f>'Energy Data'!B176/'Energy Data'!B$173</f>
-        <v>1.131822084103818</v>
+        <f>'Energy Data'!B220/'Energy Data'!B$205</f>
+        <v>2.3782745936048397</v>
       </c>
       <c r="G176">
-        <f>'Energy Data'!C176/'Energy Data'!C$173</f>
-        <v>1.1313612367896</v>
+        <f>'Energy Data'!C220/'Energy Data'!C$205</f>
+        <v>2.3616059698059657</v>
       </c>
       <c r="H176" t="s">
         <v>1423</v>
       </c>
       <c r="I176" s="4" t="str">
-        <f>'PWT Calcs'!H176</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H220</f>
+        <v>IR</v>
       </c>
       <c r="J176" s="4" t="s">
         <v>1588</v>
@@ -40977,39 +41043,39 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="4" t="str">
-        <f>'PWT Calcs'!A177</f>
-        <v>1995</v>
+        <f>'PWT Calcs'!A221</f>
+        <v>2007</v>
       </c>
       <c r="B177" s="4">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="C177">
-        <f>'PWT Calcs'!B177/'PWT Calcs'!B$173</f>
-        <v>1.0556403333724615</v>
+        <f>'PWT Calcs'!B221/'PWT Calcs'!B$205</f>
+        <v>2.0221278483764382</v>
       </c>
       <c r="D177">
-        <f>'PWT Calcs'!C177/'PWT Calcs'!C$173</f>
-        <v>1.1295256880066253</v>
+        <f>'PWT Calcs'!C221/'PWT Calcs'!C$205</f>
+        <v>1.6127779630174452</v>
       </c>
       <c r="E177">
-        <f>'PWT Calcs'!D177/'PWT Calcs'!D$173</f>
-        <v>1.066949292398399</v>
+        <f>'PWT Calcs'!D221/'PWT Calcs'!D$205</f>
+        <v>1.8640905325864137</v>
       </c>
       <c r="F177">
-        <f>'Energy Data'!B177/'Energy Data'!B$173</f>
-        <v>1.1166623512315266</v>
+        <f>'Energy Data'!B221/'Energy Data'!B$205</f>
+        <v>2.4357701852027778</v>
       </c>
       <c r="G177">
-        <f>'Energy Data'!C177/'Energy Data'!C$173</f>
-        <v>1.1159446508252393</v>
+        <f>'Energy Data'!C221/'Energy Data'!C$205</f>
+        <v>2.418292934837758</v>
       </c>
       <c r="H177" t="s">
         <v>1423</v>
       </c>
       <c r="I177" s="4" t="str">
-        <f>'PWT Calcs'!H177</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H221</f>
+        <v>IR</v>
       </c>
       <c r="J177" s="4" t="s">
         <v>1588</v>
@@ -41017,39 +41083,39 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="4" t="str">
-        <f>'PWT Calcs'!A178</f>
-        <v>1996</v>
+        <f>'PWT Calcs'!A222</f>
+        <v>2008</v>
       </c>
       <c r="B178" s="4">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="C178">
-        <f>'PWT Calcs'!B178/'PWT Calcs'!B$173</f>
-        <v>1.091361245640674</v>
+        <f>'PWT Calcs'!B222/'PWT Calcs'!B$205</f>
+        <v>2.0337766829876376</v>
       </c>
       <c r="D178">
-        <f>'PWT Calcs'!C178/'PWT Calcs'!C$173</f>
-        <v>1.1558411092311249</v>
+        <f>'PWT Calcs'!C222/'PWT Calcs'!C$205</f>
+        <v>1.6958749959138308</v>
       </c>
       <c r="E178">
-        <f>'PWT Calcs'!D178/'PWT Calcs'!D$173</f>
-        <v>1.0564888041929037</v>
+        <f>'PWT Calcs'!D222/'PWT Calcs'!D$205</f>
+        <v>1.8101506410796291</v>
       </c>
       <c r="F178">
-        <f>'Energy Data'!B178/'Energy Data'!B$173</f>
-        <v>1.1949625842195228</v>
+        <f>'Energy Data'!B222/'Energy Data'!B$205</f>
+        <v>2.5228589645233384</v>
       </c>
       <c r="G178">
-        <f>'Energy Data'!C178/'Energy Data'!C$173</f>
-        <v>1.1939977426931474</v>
+        <f>'Energy Data'!C222/'Energy Data'!C$205</f>
+        <v>2.5067656309120383</v>
       </c>
       <c r="H178" t="s">
         <v>1423</v>
       </c>
       <c r="I178" s="4" t="str">
-        <f>'PWT Calcs'!H178</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H222</f>
+        <v>IR</v>
       </c>
       <c r="J178" s="4" t="s">
         <v>1588</v>
@@ -41057,39 +41123,39 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="4" t="str">
-        <f>'PWT Calcs'!A179</f>
-        <v>1997</v>
+        <f>'PWT Calcs'!A223</f>
+        <v>2009</v>
       </c>
       <c r="B179" s="4">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="C179">
-        <f>'PWT Calcs'!B179/'PWT Calcs'!B$173</f>
-        <v>1.119656630908519</v>
+        <f>'PWT Calcs'!B223/'PWT Calcs'!B$205</f>
+        <v>2.1141127614565849</v>
       </c>
       <c r="D179">
-        <f>'PWT Calcs'!C179/'PWT Calcs'!C$173</f>
-        <v>1.1893605394072893</v>
+        <f>'PWT Calcs'!C223/'PWT Calcs'!C$205</f>
+        <v>1.7719243786298802</v>
       </c>
       <c r="E179">
-        <f>'PWT Calcs'!D179/'PWT Calcs'!D$173</f>
-        <v>1.0343413478470711</v>
+        <f>'PWT Calcs'!D223/'PWT Calcs'!D$205</f>
+        <v>1.8599302344827435</v>
       </c>
       <c r="F179">
-        <f>'Energy Data'!B179/'Energy Data'!B$173</f>
-        <v>1.265522909688287</v>
+        <f>'Energy Data'!B223/'Energy Data'!B$205</f>
+        <v>2.7902337269664645</v>
       </c>
       <c r="G179">
-        <f>'Energy Data'!C179/'Energy Data'!C$173</f>
-        <v>1.264015804467999</v>
+        <f>'Energy Data'!C223/'Energy Data'!C$205</f>
+        <v>2.7687835848208988</v>
       </c>
       <c r="H179" t="s">
         <v>1423</v>
       </c>
       <c r="I179" s="4" t="str">
-        <f>'PWT Calcs'!H179</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H223</f>
+        <v>IR</v>
       </c>
       <c r="J179" s="4" t="s">
         <v>1588</v>
@@ -41097,39 +41163,39 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="4" t="str">
-        <f>'PWT Calcs'!A180</f>
-        <v>1998</v>
+        <f>'PWT Calcs'!A224</f>
+        <v>2010</v>
       </c>
       <c r="B180" s="4">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="C180">
-        <f>'PWT Calcs'!B180/'PWT Calcs'!B$173</f>
-        <v>1.1513940376161067</v>
+        <f>'PWT Calcs'!B224/'PWT Calcs'!B$205</f>
+        <v>2.2388143411884571</v>
       </c>
       <c r="D180">
-        <f>'PWT Calcs'!C180/'PWT Calcs'!C$173</f>
-        <v>1.2267516997023546</v>
+        <f>'PWT Calcs'!C224/'PWT Calcs'!C$205</f>
+        <v>1.8548116766369194</v>
       </c>
       <c r="E180">
-        <f>'PWT Calcs'!D180/'PWT Calcs'!D$173</f>
-        <v>1.0126248486207796</v>
+        <f>'PWT Calcs'!D224/'PWT Calcs'!D$205</f>
+        <v>1.9119330086983537</v>
       </c>
       <c r="F180">
-        <f>'Energy Data'!B180/'Energy Data'!B$173</f>
-        <v>1.3130381249218592</v>
+        <f>'Energy Data'!B224/'Energy Data'!B$205</f>
+        <v>2.809955102096009</v>
       </c>
       <c r="G180">
-        <f>'Energy Data'!C180/'Energy Data'!C$173</f>
-        <v>1.311544166131015</v>
+        <f>'Energy Data'!C224/'Energy Data'!C$205</f>
+        <v>2.7871947529624541</v>
       </c>
       <c r="H180" t="s">
         <v>1423</v>
       </c>
       <c r="I180" s="4" t="str">
-        <f>'PWT Calcs'!H180</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H224</f>
+        <v>IR</v>
       </c>
       <c r="J180" s="4" t="s">
         <v>1588</v>
@@ -41137,39 +41203,39 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="4" t="str">
-        <f>'PWT Calcs'!A181</f>
-        <v>1999</v>
+        <f>'PWT Calcs'!A225</f>
+        <v>2011</v>
       </c>
       <c r="B181" s="4">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="C181">
-        <f>'PWT Calcs'!B181/'PWT Calcs'!B$173</f>
-        <v>1.1427757309088991</v>
+        <f>'PWT Calcs'!B225/'PWT Calcs'!B$205</f>
+        <v>2.2830939035259803</v>
       </c>
       <c r="D181">
-        <f>'PWT Calcs'!C181/'PWT Calcs'!C$173</f>
-        <v>1.2697595573712981</v>
+        <f>'PWT Calcs'!C225/'PWT Calcs'!C$205</f>
+        <v>1.9603290728209821</v>
       </c>
       <c r="E181">
-        <f>'PWT Calcs'!D181/'PWT Calcs'!D$173</f>
-        <v>1.0113754252551366</v>
+        <f>'PWT Calcs'!D225/'PWT Calcs'!D$205</f>
+        <v>1.9406124513065883</v>
       </c>
       <c r="F181">
-        <f>'Energy Data'!B181/'Energy Data'!B$173</f>
-        <v>1.3301716683831304</v>
+        <f>'Energy Data'!B225/'Energy Data'!B$205</f>
+        <v>3.107350258445607</v>
       </c>
       <c r="G181">
-        <f>'Energy Data'!C181/'Energy Data'!C$173</f>
-        <v>1.3290428808142796</v>
+        <f>'Energy Data'!C225/'Energy Data'!C$205</f>
+        <v>3.0848022772986505</v>
       </c>
       <c r="H181" t="s">
         <v>1423</v>
       </c>
       <c r="I181" s="4" t="str">
-        <f>'PWT Calcs'!H181</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H225</f>
+        <v>IR</v>
       </c>
       <c r="J181" s="4" t="s">
         <v>1588</v>
@@ -41177,39 +41243,39 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="4" t="str">
-        <f>'PWT Calcs'!A182</f>
-        <v>2000</v>
+        <f>'PWT Calcs'!A237</f>
+        <v>1991</v>
       </c>
       <c r="B182" s="4">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="C182">
-        <f>'PWT Calcs'!B182/'PWT Calcs'!B$173</f>
-        <v>1.1983668384521884</v>
+        <f>'PWT Calcs'!B237/'PWT Calcs'!B$237</f>
+        <v>1</v>
       </c>
       <c r="D182">
-        <f>'PWT Calcs'!C182/'PWT Calcs'!C$173</f>
-        <v>1.3154236076666368</v>
+        <f>'PWT Calcs'!C237/'PWT Calcs'!C$237</f>
+        <v>1</v>
       </c>
       <c r="E182">
-        <f>'PWT Calcs'!D182/'PWT Calcs'!D$173</f>
-        <v>1.0628136035033717</v>
+        <f>'PWT Calcs'!D237/'PWT Calcs'!D$237</f>
+        <v>1</v>
       </c>
       <c r="F182">
-        <f>'Energy Data'!B182/'Energy Data'!B$173</f>
-        <v>1.400309878998776</v>
+        <f>'Energy Data'!B237/'Energy Data'!B$237</f>
+        <v>1</v>
       </c>
       <c r="G182">
-        <f>'Energy Data'!C182/'Energy Data'!C$173</f>
-        <v>1.3987563364795679</v>
+        <f>'Energy Data'!C237/'Energy Data'!C$237</f>
+        <v>1</v>
       </c>
       <c r="H182" t="s">
         <v>1423</v>
       </c>
       <c r="I182" s="4" t="str">
-        <f>'PWT Calcs'!H182</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H237</f>
+        <v>TZ</v>
       </c>
       <c r="J182" s="4" t="s">
         <v>1588</v>
@@ -41217,39 +41283,39 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="4" t="str">
-        <f>'PWT Calcs'!A183</f>
-        <v>2001</v>
+        <f>'PWT Calcs'!A238</f>
+        <v>1992</v>
       </c>
       <c r="B183" s="4">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="C183">
-        <f>'PWT Calcs'!B183/'PWT Calcs'!B$173</f>
-        <v>1.2049290201409364</v>
+        <f>'PWT Calcs'!B238/'PWT Calcs'!B$237</f>
+        <v>1.0352747635167798</v>
       </c>
       <c r="D183">
-        <f>'PWT Calcs'!C183/'PWT Calcs'!C$173</f>
-        <v>1.360819643310752</v>
+        <f>'PWT Calcs'!C238/'PWT Calcs'!C$237</f>
+        <v>1.0430071642253333</v>
       </c>
       <c r="E183">
-        <f>'PWT Calcs'!D183/'PWT Calcs'!D$173</f>
-        <v>1.1215233137323579</v>
+        <f>'PWT Calcs'!D238/'PWT Calcs'!D$237</f>
+        <v>1.0422802191785521</v>
       </c>
       <c r="F183">
-        <f>'Energy Data'!B183/'Energy Data'!B$173</f>
-        <v>1.4797842836205422</v>
+        <f>'Energy Data'!B238/'Energy Data'!B$237</f>
+        <v>1.0340047944777087</v>
       </c>
       <c r="G183">
-        <f>'Energy Data'!C183/'Energy Data'!C$173</f>
-        <v>1.4778147393883445</v>
+        <f>'Energy Data'!C238/'Energy Data'!C$237</f>
+        <v>1.0344820563552726</v>
       </c>
       <c r="H183" t="s">
         <v>1423</v>
       </c>
       <c r="I183" s="4" t="str">
-        <f>'PWT Calcs'!H183</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H238</f>
+        <v>TZ</v>
       </c>
       <c r="J183" s="4" t="s">
         <v>1588</v>
@@ -41257,39 +41323,39 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="4" t="str">
-        <f>'PWT Calcs'!A184</f>
-        <v>2002</v>
+        <f>'PWT Calcs'!A239</f>
+        <v>1993</v>
       </c>
       <c r="B184" s="4">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="C184">
-        <f>'PWT Calcs'!B184/'PWT Calcs'!B$173</f>
-        <v>1.206468273953099</v>
+        <f>'PWT Calcs'!B239/'PWT Calcs'!B$237</f>
+        <v>1.0784270302762675</v>
       </c>
       <c r="D184">
-        <f>'PWT Calcs'!C184/'PWT Calcs'!C$173</f>
-        <v>1.4073801311194158</v>
+        <f>'PWT Calcs'!C239/'PWT Calcs'!C$237</f>
+        <v>1.0710464387725389</v>
       </c>
       <c r="E184">
-        <f>'PWT Calcs'!D184/'PWT Calcs'!D$173</f>
-        <v>1.2124252769041775</v>
+        <f>'PWT Calcs'!D239/'PWT Calcs'!D$237</f>
+        <v>1.0812118180479824</v>
       </c>
       <c r="F184">
-        <f>'Energy Data'!B184/'Energy Data'!B$173</f>
-        <v>1.5509657059675972</v>
+        <f>'Energy Data'!B239/'Energy Data'!B$237</f>
+        <v>1.0692739180023667</v>
       </c>
       <c r="G184">
-        <f>'Energy Data'!C184/'Energy Data'!C$173</f>
-        <v>1.5487686632302125</v>
+        <f>'Energy Data'!C239/'Energy Data'!C$237</f>
+        <v>1.0693733370552967</v>
       </c>
       <c r="H184" t="s">
         <v>1423</v>
       </c>
       <c r="I184" s="4" t="str">
-        <f>'PWT Calcs'!H184</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H239</f>
+        <v>TZ</v>
       </c>
       <c r="J184" s="4" t="s">
         <v>1588</v>
@@ -41297,39 +41363,39 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="4" t="str">
-        <f>'PWT Calcs'!A185</f>
-        <v>2003</v>
+        <f>'PWT Calcs'!A240</f>
+        <v>1994</v>
       </c>
       <c r="B185" s="4">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C185">
-        <f>'PWT Calcs'!B185/'PWT Calcs'!B$173</f>
-        <v>1.2988746218130998</v>
+        <f>'PWT Calcs'!B240/'PWT Calcs'!B$237</f>
+        <v>1.111139232497107</v>
       </c>
       <c r="D185">
-        <f>'PWT Calcs'!C185/'PWT Calcs'!C$173</f>
-        <v>1.4658299346211683</v>
+        <f>'PWT Calcs'!C240/'PWT Calcs'!C$237</f>
+        <v>1.0971217951025012</v>
       </c>
       <c r="E185">
-        <f>'PWT Calcs'!D185/'PWT Calcs'!D$173</f>
-        <v>1.3322239492021613</v>
+        <f>'PWT Calcs'!D240/'PWT Calcs'!D$237</f>
+        <v>1.111483923580741</v>
       </c>
       <c r="F185">
-        <f>'Energy Data'!B185/'Energy Data'!B$173</f>
-        <v>1.642287298330382</v>
+        <f>'Energy Data'!B240/'Energy Data'!B$237</f>
+        <v>1.0375743391680856</v>
       </c>
       <c r="G185">
-        <f>'Energy Data'!C185/'Energy Data'!C$173</f>
-        <v>1.6399546541763821</v>
+        <f>'Energy Data'!C240/'Energy Data'!C$237</f>
+        <v>1.0405127723952854</v>
       </c>
       <c r="H185" t="s">
         <v>1423</v>
       </c>
       <c r="I185" s="4" t="str">
-        <f>'PWT Calcs'!H185</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H240</f>
+        <v>TZ</v>
       </c>
       <c r="J185" s="4" t="s">
         <v>1588</v>
@@ -41337,39 +41403,39 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="4" t="str">
-        <f>'PWT Calcs'!A186</f>
-        <v>2004</v>
+        <f>'PWT Calcs'!A241</f>
+        <v>1995</v>
       </c>
       <c r="B186" s="4">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="C186">
-        <f>'PWT Calcs'!B186/'PWT Calcs'!B$173</f>
-        <v>1.3672909511566176</v>
+        <f>'PWT Calcs'!B241/'PWT Calcs'!B$237</f>
+        <v>1.1508059238383712</v>
       </c>
       <c r="D186">
-        <f>'PWT Calcs'!C186/'PWT Calcs'!C$173</f>
-        <v>1.52440537380986</v>
+        <f>'PWT Calcs'!C241/'PWT Calcs'!C$237</f>
+        <v>1.1078484339367685</v>
       </c>
       <c r="E186">
-        <f>'PWT Calcs'!D186/'PWT Calcs'!D$173</f>
-        <v>1.4536012018021982</v>
+        <f>'PWT Calcs'!D241/'PWT Calcs'!D$237</f>
+        <v>1.1461073724246782</v>
       </c>
       <c r="F186">
-        <f>'Energy Data'!B186/'Energy Data'!B$173</f>
-        <v>1.7630182123296265</v>
+        <f>'Energy Data'!B241/'Energy Data'!B$237</f>
+        <v>1.0429279831211073</v>
       </c>
       <c r="G186">
-        <f>'Energy Data'!C186/'Energy Data'!C$173</f>
-        <v>1.7601388721877216</v>
+        <f>'Energy Data'!C241/'Energy Data'!C$237</f>
+        <v>1.0460601934523612</v>
       </c>
       <c r="H186" t="s">
         <v>1423</v>
       </c>
       <c r="I186" s="4" t="str">
-        <f>'PWT Calcs'!H186</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H241</f>
+        <v>TZ</v>
       </c>
       <c r="J186" s="4" t="s">
         <v>1588</v>
@@ -41377,39 +41443,39 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="4" t="str">
-        <f>'PWT Calcs'!A187</f>
-        <v>2005</v>
+        <f>'PWT Calcs'!A242</f>
+        <v>1996</v>
       </c>
       <c r="B187" s="4">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="C187">
-        <f>'PWT Calcs'!B187/'PWT Calcs'!B$173</f>
-        <v>1.4432198993521119</v>
+        <f>'PWT Calcs'!B242/'PWT Calcs'!B$237</f>
+        <v>1.2031027661993081</v>
       </c>
       <c r="D187">
-        <f>'PWT Calcs'!C187/'PWT Calcs'!C$173</f>
-        <v>1.6008005486417567</v>
+        <f>'PWT Calcs'!C242/'PWT Calcs'!C$237</f>
+        <v>1.1151616640328406</v>
       </c>
       <c r="E187">
-        <f>'PWT Calcs'!D187/'PWT Calcs'!D$173</f>
-        <v>1.5636985063374911</v>
+        <f>'PWT Calcs'!D242/'PWT Calcs'!D$237</f>
+        <v>1.1893165514237394</v>
       </c>
       <c r="F187">
-        <f>'Energy Data'!B187/'Energy Data'!B$173</f>
-        <v>1.8467910217842849</v>
+        <f>'Energy Data'!B242/'Energy Data'!B$237</f>
+        <v>1.067160388810108</v>
       </c>
       <c r="G187">
-        <f>'Energy Data'!C187/'Energy Data'!C$173</f>
-        <v>1.843587651273858</v>
+        <f>'Energy Data'!C242/'Energy Data'!C$237</f>
+        <v>1.068758392331653</v>
       </c>
       <c r="H187" t="s">
         <v>1423</v>
       </c>
       <c r="I187" s="4" t="str">
-        <f>'PWT Calcs'!H187</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H242</f>
+        <v>TZ</v>
       </c>
       <c r="J187" s="4" t="s">
         <v>1588</v>
@@ -41417,39 +41483,39 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="4" t="str">
-        <f>'PWT Calcs'!A188</f>
-        <v>2006</v>
+        <f>'PWT Calcs'!A243</f>
+        <v>1997</v>
       </c>
       <c r="B188" s="4">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="C188">
-        <f>'PWT Calcs'!B188/'PWT Calcs'!B$173</f>
-        <v>1.4887935506590584</v>
+        <f>'PWT Calcs'!B243/'PWT Calcs'!B$237</f>
+        <v>1.2455154856268036</v>
       </c>
       <c r="D188">
-        <f>'PWT Calcs'!C188/'PWT Calcs'!C$173</f>
-        <v>1.6948765021362651</v>
+        <f>'PWT Calcs'!C243/'PWT Calcs'!C$237</f>
+        <v>1.1222096711043639</v>
       </c>
       <c r="E188">
-        <f>'PWT Calcs'!D188/'PWT Calcs'!D$173</f>
-        <v>1.6573761729941916</v>
+        <f>'PWT Calcs'!D243/'PWT Calcs'!D$237</f>
+        <v>1.2332372789690109</v>
       </c>
       <c r="F188">
-        <f>'Energy Data'!B188/'Energy Data'!B$173</f>
-        <v>1.9015211202007152</v>
+        <f>'Energy Data'!B243/'Energy Data'!B$237</f>
+        <v>1.0436917895936202</v>
       </c>
       <c r="G188">
-        <f>'Energy Data'!C188/'Energy Data'!C$173</f>
-        <v>1.8981902172270901</v>
+        <f>'Energy Data'!C243/'Energy Data'!C$237</f>
+        <v>1.0478510045500919</v>
       </c>
       <c r="H188" t="s">
         <v>1423</v>
       </c>
       <c r="I188" s="4" t="str">
-        <f>'PWT Calcs'!H188</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H243</f>
+        <v>TZ</v>
       </c>
       <c r="J188" s="4" t="s">
         <v>1588</v>
@@ -41457,39 +41523,39 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="4" t="str">
-        <f>'PWT Calcs'!A189</f>
-        <v>2007</v>
+        <f>'PWT Calcs'!A244</f>
+        <v>1998</v>
       </c>
       <c r="B189" s="4">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="C189">
-        <f>'PWT Calcs'!B189/'PWT Calcs'!B$173</f>
-        <v>1.5188269863568715</v>
+        <f>'PWT Calcs'!B244/'PWT Calcs'!B$237</f>
+        <v>1.291807844617372</v>
       </c>
       <c r="D189">
-        <f>'PWT Calcs'!C189/'PWT Calcs'!C$173</f>
-        <v>1.8163429908027466</v>
+        <f>'PWT Calcs'!C244/'PWT Calcs'!C$237</f>
+        <v>1.1390660904967407</v>
       </c>
       <c r="E189">
-        <f>'PWT Calcs'!D189/'PWT Calcs'!D$173</f>
-        <v>1.7376490950397312</v>
+        <f>'PWT Calcs'!D244/'PWT Calcs'!D$237</f>
+        <v>1.2537994122063065</v>
       </c>
       <c r="F189">
-        <f>'Energy Data'!B189/'Energy Data'!B$173</f>
-        <v>1.9837804334929643</v>
+        <f>'Energy Data'!B244/'Energy Data'!B$237</f>
+        <v>1.0961258261618216</v>
       </c>
       <c r="G189">
-        <f>'Energy Data'!C189/'Energy Data'!C$173</f>
-        <v>1.9809794698054117</v>
+        <f>'Energy Data'!C244/'Energy Data'!C$237</f>
+        <v>1.0953552002642089</v>
       </c>
       <c r="H189" t="s">
         <v>1423</v>
       </c>
       <c r="I189" s="4" t="str">
-        <f>'PWT Calcs'!H189</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H244</f>
+        <v>TZ</v>
       </c>
       <c r="J189" s="4" t="s">
         <v>1588</v>
@@ -41497,39 +41563,39 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="4" t="str">
-        <f>'PWT Calcs'!A190</f>
-        <v>2008</v>
+        <f>'PWT Calcs'!A245</f>
+        <v>1999</v>
       </c>
       <c r="B190" s="4">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="C190">
-        <f>'PWT Calcs'!B190/'PWT Calcs'!B$173</f>
-        <v>1.5830515470163471</v>
+        <f>'PWT Calcs'!B245/'PWT Calcs'!B$237</f>
+        <v>1.3543362832059034</v>
       </c>
       <c r="D190">
-        <f>'PWT Calcs'!C190/'PWT Calcs'!C$173</f>
-        <v>1.9497964439112125</v>
+        <f>'PWT Calcs'!C245/'PWT Calcs'!C$237</f>
+        <v>1.1597197456258308</v>
       </c>
       <c r="E190">
-        <f>'PWT Calcs'!D190/'PWT Calcs'!D$173</f>
-        <v>1.8009008819400611</v>
+        <f>'PWT Calcs'!D245/'PWT Calcs'!D$237</f>
+        <v>1.2818279763519833</v>
       </c>
       <c r="F190">
-        <f>'Energy Data'!B190/'Energy Data'!B$173</f>
-        <v>1.9462941711455051</v>
+        <f>'Energy Data'!B245/'Energy Data'!B$237</f>
+        <v>1.1225864050460994</v>
       </c>
       <c r="G190">
-        <f>'Energy Data'!C190/'Energy Data'!C$173</f>
-        <v>1.9412911764709122</v>
+        <f>'Energy Data'!C245/'Energy Data'!C$237</f>
+        <v>1.1206691738507866</v>
       </c>
       <c r="H190" t="s">
         <v>1423</v>
       </c>
       <c r="I190" s="4" t="str">
-        <f>'PWT Calcs'!H190</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H245</f>
+        <v>TZ</v>
       </c>
       <c r="J190" s="4" t="s">
         <v>1588</v>
@@ -41537,39 +41603,39 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="4" t="str">
-        <f>'PWT Calcs'!A191</f>
-        <v>2009</v>
+        <f>'PWT Calcs'!A246</f>
+        <v>2000</v>
       </c>
       <c r="B191" s="4">
-        <f t="shared" si="2"/>
-        <v>29</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="C191">
-        <f>'PWT Calcs'!B191/'PWT Calcs'!B$173</f>
-        <v>1.5845756544195315</v>
+        <f>'PWT Calcs'!B246/'PWT Calcs'!B$237</f>
+        <v>1.4211571582349491</v>
       </c>
       <c r="D191">
-        <f>'PWT Calcs'!C191/'PWT Calcs'!C$173</f>
-        <v>2.0653700322344752</v>
+        <f>'PWT Calcs'!C246/'PWT Calcs'!C$237</f>
+        <v>1.1844340872728938</v>
       </c>
       <c r="E191">
-        <f>'PWT Calcs'!D191/'PWT Calcs'!D$173</f>
-        <v>1.8559279005396874</v>
+        <f>'PWT Calcs'!D246/'PWT Calcs'!D$237</f>
+        <v>1.3073693524778958</v>
       </c>
       <c r="F191">
-        <f>'Energy Data'!B191/'Energy Data'!B$173</f>
-        <v>2.0525375507856669</v>
+        <f>'Energy Data'!B246/'Energy Data'!B$237</f>
+        <v>1.124068541404684</v>
       </c>
       <c r="G191">
-        <f>'Energy Data'!C191/'Energy Data'!C$173</f>
-        <v>2.0491999247201949</v>
+        <f>'Energy Data'!C246/'Energy Data'!C$237</f>
+        <v>1.1223339346363344</v>
       </c>
       <c r="H191" t="s">
         <v>1423</v>
       </c>
       <c r="I191" s="4" t="str">
-        <f>'PWT Calcs'!H191</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H246</f>
+        <v>TZ</v>
       </c>
       <c r="J191" s="4" t="s">
         <v>1588</v>
@@ -41577,39 +41643,39 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="4" t="str">
-        <f>'PWT Calcs'!A192</f>
-        <v>2010</v>
+        <f>'PWT Calcs'!A247</f>
+        <v>2001</v>
       </c>
       <c r="B192" s="4">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="C192">
-        <f>'PWT Calcs'!B192/'PWT Calcs'!B$173</f>
-        <v>1.6656966611672563</v>
+        <f>'PWT Calcs'!B247/'PWT Calcs'!B$237</f>
+        <v>1.5063957323762849</v>
       </c>
       <c r="D192">
-        <f>'PWT Calcs'!C192/'PWT Calcs'!C$173</f>
-        <v>2.1941197243323267</v>
+        <f>'PWT Calcs'!C247/'PWT Calcs'!C$237</f>
+        <v>1.2186565141664949</v>
       </c>
       <c r="E192">
-        <f>'PWT Calcs'!D192/'PWT Calcs'!D$173</f>
-        <v>1.9315274083218024</v>
+        <f>'PWT Calcs'!D247/'PWT Calcs'!D$237</f>
+        <v>1.3374134765484815</v>
       </c>
       <c r="F192">
-        <f>'Energy Data'!B192/'Energy Data'!B$173</f>
-        <v>2.2461628284231305</v>
+        <f>'Energy Data'!B247/'Energy Data'!B$237</f>
+        <v>1.2116332758164539</v>
       </c>
       <c r="G192">
-        <f>'Energy Data'!C192/'Energy Data'!C$173</f>
-        <v>2.2419607843072238</v>
+        <f>'Energy Data'!C247/'Energy Data'!C$237</f>
+        <v>1.2048224167667096</v>
       </c>
       <c r="H192" t="s">
         <v>1423</v>
       </c>
       <c r="I192" s="4" t="str">
-        <f>'PWT Calcs'!H192</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H247</f>
+        <v>TZ</v>
       </c>
       <c r="J192" s="4" t="s">
         <v>1588</v>
@@ -41617,39 +41683,39 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193" s="4" t="str">
-        <f>'PWT Calcs'!A193</f>
-        <v>2011</v>
+        <f>'PWT Calcs'!A248</f>
+        <v>2002</v>
       </c>
       <c r="B193" s="4">
-        <f t="shared" si="2"/>
-        <v>31</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="C193">
-        <f>'PWT Calcs'!B193/'PWT Calcs'!B$173</f>
-        <v>1.7832040334413763</v>
+        <f>'PWT Calcs'!B248/'PWT Calcs'!B$237</f>
+        <v>1.6143071971435317</v>
       </c>
       <c r="D193">
-        <f>'PWT Calcs'!C193/'PWT Calcs'!C$173</f>
-        <v>2.3328860515483956</v>
+        <f>'PWT Calcs'!C248/'PWT Calcs'!C$237</f>
+        <v>1.2587592442936493</v>
       </c>
       <c r="E193">
-        <f>'PWT Calcs'!D193/'PWT Calcs'!D$173</f>
-        <v>1.9944894214976441</v>
+        <f>'PWT Calcs'!D248/'PWT Calcs'!D$237</f>
+        <v>1.3727391965075546</v>
       </c>
       <c r="F193">
-        <f>'Energy Data'!B193/'Energy Data'!B$173</f>
-        <v>2.7192170244508747</v>
+        <f>'Energy Data'!B248/'Energy Data'!B$237</f>
+        <v>1.2681756403645339</v>
       </c>
       <c r="G193">
-        <f>'Energy Data'!C193/'Energy Data'!C$173</f>
-        <v>2.716221819477203</v>
+        <f>'Energy Data'!C248/'Energy Data'!C$237</f>
+        <v>1.2594571866322002</v>
       </c>
       <c r="H193" t="s">
         <v>1423</v>
       </c>
       <c r="I193" s="4" t="str">
-        <f>'PWT Calcs'!H193</f>
-        <v>SA</v>
+        <f>'PWT Calcs'!H248</f>
+        <v>TZ</v>
       </c>
       <c r="J193" s="4" t="s">
         <v>1588</v>
@@ -41657,37 +41723,39 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194" s="4" t="str">
-        <f>'PWT Calcs'!A194</f>
-        <v>1980</v>
+        <f>'PWT Calcs'!A249</f>
+        <v>2003</v>
       </c>
       <c r="B194" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="C194">
-        <f>'PWT Calcs'!B194/'PWT Calcs'!B$205</f>
-        <v>0.69464023494860772</v>
+        <f>'PWT Calcs'!B249/'PWT Calcs'!B$237</f>
+        <v>1.7254720476576391</v>
       </c>
       <c r="D194">
-        <f>'PWT Calcs'!C194/'PWT Calcs'!C$205</f>
-        <v>0.72173811469604354</v>
+        <f>'PWT Calcs'!C249/'PWT Calcs'!C$237</f>
+        <v>1.3128051666617588</v>
       </c>
       <c r="E194">
-        <f>'PWT Calcs'!D194/'PWT Calcs'!D$205</f>
-        <v>0.71384090444702197</v>
-      </c>
-      <c r="F194" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G194" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D249/'PWT Calcs'!D$237</f>
+        <v>1.4081508467709123</v>
+      </c>
+      <c r="F194">
+        <f>'Energy Data'!B249/'Energy Data'!B$237</f>
+        <v>1.2817801916504126</v>
+      </c>
+      <c r="G194">
+        <f>'Energy Data'!C249/'Energy Data'!C$237</f>
+        <v>1.2737285686323188</v>
       </c>
       <c r="H194" t="s">
         <v>1423</v>
       </c>
       <c r="I194" s="4" t="str">
-        <f>'PWT Calcs'!H194</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H249</f>
+        <v>TZ</v>
       </c>
       <c r="J194" s="4" t="s">
         <v>1588</v>
@@ -41695,37 +41763,39 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195" s="4" t="str">
-        <f>'PWT Calcs'!A195</f>
-        <v>1981</v>
+        <f>'PWT Calcs'!A250</f>
+        <v>2004</v>
       </c>
       <c r="B195" s="4">
-        <f t="shared" ref="B195:B258" si="3">A195-$A$2</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="C195">
-        <f>'PWT Calcs'!B195/'PWT Calcs'!B$205</f>
-        <v>0.67378854625550888</v>
+        <f>'PWT Calcs'!B250/'PWT Calcs'!B$237</f>
+        <v>1.8605471480353619</v>
       </c>
       <c r="D195">
-        <f>'PWT Calcs'!C195/'PWT Calcs'!C$205</f>
-        <v>0.74711560044893377</v>
+        <f>'PWT Calcs'!C250/'PWT Calcs'!C$237</f>
+        <v>1.3782114411664306</v>
       </c>
       <c r="E195">
-        <f>'PWT Calcs'!D195/'PWT Calcs'!D$205</f>
-        <v>0.73972093793095473</v>
-      </c>
-      <c r="F195" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G195" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D250/'PWT Calcs'!D$237</f>
+        <v>1.445116086517984</v>
+      </c>
+      <c r="F195">
+        <f>'Energy Data'!B250/'Energy Data'!B$237</f>
+        <v>1.3303358394122207</v>
+      </c>
+      <c r="G195">
+        <f>'Energy Data'!C250/'Energy Data'!C$237</f>
+        <v>1.3213471031927486</v>
       </c>
       <c r="H195" t="s">
         <v>1423</v>
       </c>
       <c r="I195" s="4" t="str">
-        <f>'PWT Calcs'!H195</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H250</f>
+        <v>TZ</v>
       </c>
       <c r="J195" s="4" t="s">
         <v>1588</v>
@@ -41733,37 +41803,39 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" s="4" t="str">
-        <f>'PWT Calcs'!A196</f>
-        <v>1982</v>
+        <f>'PWT Calcs'!A251</f>
+        <v>2005</v>
       </c>
       <c r="B196" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C196">
-        <f>'PWT Calcs'!B196/'PWT Calcs'!B$205</f>
-        <v>0.77386196769456617</v>
+        <f>'PWT Calcs'!B251/'PWT Calcs'!B$237</f>
+        <v>1.9976672431987119</v>
       </c>
       <c r="D196">
-        <f>'PWT Calcs'!C196/'PWT Calcs'!C$205</f>
-        <v>0.77619805389384677</v>
+        <f>'PWT Calcs'!C251/'PWT Calcs'!C$237</f>
+        <v>1.4668282407240787</v>
       </c>
       <c r="E196">
-        <f>'PWT Calcs'!D196/'PWT Calcs'!D$205</f>
-        <v>0.75224130695729197</v>
-      </c>
-      <c r="F196" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G196" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D251/'PWT Calcs'!D$237</f>
+        <v>1.4840212218954749</v>
+      </c>
+      <c r="F196">
+        <f>'Energy Data'!B251/'Energy Data'!B$237</f>
+        <v>1.4046100612284109</v>
+      </c>
+      <c r="G196">
+        <f>'Energy Data'!C251/'Energy Data'!C$237</f>
+        <v>1.3941566621454999</v>
       </c>
       <c r="H196" t="s">
         <v>1423</v>
       </c>
       <c r="I196" s="4" t="str">
-        <f>'PWT Calcs'!H196</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H251</f>
+        <v>TZ</v>
       </c>
       <c r="J196" s="4" t="s">
         <v>1588</v>
@@ -41771,37 +41843,39 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197" s="4" t="str">
-        <f>'PWT Calcs'!A197</f>
-        <v>1983</v>
+        <f>'PWT Calcs'!A252</f>
+        <v>2006</v>
       </c>
       <c r="B197" s="4">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C197">
-        <f>'PWT Calcs'!B197/'PWT Calcs'!B$205</f>
-        <v>0.87488986784141143</v>
+        <f>'PWT Calcs'!B252/'PWT Calcs'!B$237</f>
+        <v>2.1322576629278731</v>
       </c>
       <c r="D197">
-        <f>'PWT Calcs'!C197/'PWT Calcs'!C$205</f>
-        <v>0.82841715973107555</v>
+        <f>'PWT Calcs'!C252/'PWT Calcs'!C$237</f>
+        <v>1.5774913378201081</v>
       </c>
       <c r="E197">
-        <f>'PWT Calcs'!D197/'PWT Calcs'!D$205</f>
-        <v>0.76622634171920956</v>
-      </c>
-      <c r="F197" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G197" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D252/'PWT Calcs'!D$237</f>
+        <v>1.5236527345000046</v>
+      </c>
+      <c r="F197">
+        <f>'Energy Data'!B252/'Energy Data'!B$237</f>
+        <v>1.4330854124506951</v>
+      </c>
+      <c r="G197">
+        <f>'Energy Data'!C252/'Energy Data'!C$237</f>
+        <v>1.4230840793074782</v>
       </c>
       <c r="H197" t="s">
         <v>1423</v>
       </c>
       <c r="I197" s="4" t="str">
-        <f>'PWT Calcs'!H197</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H252</f>
+        <v>TZ</v>
       </c>
       <c r="J197" s="4" t="s">
         <v>1588</v>
@@ -41809,37 +41883,39 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198" s="4" t="str">
-        <f>'PWT Calcs'!A198</f>
-        <v>1984</v>
+        <f>'PWT Calcs'!A253</f>
+        <v>2007</v>
       </c>
       <c r="B198" s="4">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C198">
-        <f>'PWT Calcs'!B198/'PWT Calcs'!B$205</f>
-        <v>0.87951541850220394</v>
+        <f>'PWT Calcs'!B253/'PWT Calcs'!B$237</f>
+        <v>2.2846735046653133</v>
       </c>
       <c r="D198">
-        <f>'PWT Calcs'!C198/'PWT Calcs'!C$205</f>
-        <v>0.88019299794057071</v>
+        <f>'PWT Calcs'!C253/'PWT Calcs'!C$237</f>
+        <v>1.7085544547652622</v>
       </c>
       <c r="E198">
-        <f>'PWT Calcs'!D198/'PWT Calcs'!D$205</f>
-        <v>0.79419860835150247</v>
-      </c>
-      <c r="F198" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G198" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D253/'PWT Calcs'!D$237</f>
+        <v>1.564944451001179</v>
+      </c>
+      <c r="F198">
+        <f>'Energy Data'!B253/'Energy Data'!B$237</f>
+        <v>1.5627634799051398</v>
+      </c>
+      <c r="G198">
+        <f>'Energy Data'!C253/'Energy Data'!C$237</f>
+        <v>1.5434349909975213</v>
       </c>
       <c r="H198" t="s">
         <v>1423</v>
       </c>
       <c r="I198" s="4" t="str">
-        <f>'PWT Calcs'!H198</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H253</f>
+        <v>TZ</v>
       </c>
       <c r="J198" s="4" t="s">
         <v>1588</v>
@@ -41847,37 +41923,39 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199" s="4" t="str">
-        <f>'PWT Calcs'!A199</f>
-        <v>1985</v>
+        <f>'PWT Calcs'!A254</f>
+        <v>2008</v>
       </c>
       <c r="B199" s="4">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C199">
-        <f>'PWT Calcs'!B199/'PWT Calcs'!B$205</f>
-        <v>0.89493392070484745</v>
+        <f>'PWT Calcs'!B254/'PWT Calcs'!B$237</f>
+        <v>2.4545805572670889</v>
       </c>
       <c r="D199">
-        <f>'PWT Calcs'!C199/'PWT Calcs'!C$205</f>
-        <v>0.91760548309415624</v>
+        <f>'PWT Calcs'!C254/'PWT Calcs'!C$237</f>
+        <v>1.8486087072221369</v>
       </c>
       <c r="E199">
-        <f>'PWT Calcs'!D199/'PWT Calcs'!D$205</f>
-        <v>0.82141785267802336</v>
-      </c>
-      <c r="F199" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G199" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D254/'PWT Calcs'!D$237</f>
+        <v>1.6079617696836754</v>
+      </c>
+      <c r="F199">
+        <f>'Energy Data'!B254/'Energy Data'!B$237</f>
+        <v>1.6284782451239013</v>
+      </c>
+      <c r="G199">
+        <f>'Energy Data'!C254/'Energy Data'!C$237</f>
+        <v>1.6065378027322621</v>
       </c>
       <c r="H199" t="s">
         <v>1423</v>
       </c>
       <c r="I199" s="4" t="str">
-        <f>'PWT Calcs'!H199</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H254</f>
+        <v>TZ</v>
       </c>
       <c r="J199" s="4" t="s">
         <v>1588</v>
@@ -41885,37 +41963,39 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200" s="4" t="str">
-        <f>'PWT Calcs'!A200</f>
-        <v>1986</v>
+        <f>'PWT Calcs'!A255</f>
+        <v>2009</v>
       </c>
       <c r="B200" s="4">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C200">
-        <f>'PWT Calcs'!B200/'PWT Calcs'!B$205</f>
-        <v>0.81350954478707782</v>
+        <f>'PWT Calcs'!B255/'PWT Calcs'!B$237</f>
+        <v>2.6023942503053199</v>
       </c>
       <c r="D200">
-        <f>'PWT Calcs'!C200/'PWT Calcs'!C$205</f>
-        <v>0.93733878155884631</v>
+        <f>'PWT Calcs'!C255/'PWT Calcs'!C$237</f>
+        <v>2.0024210206594488</v>
       </c>
       <c r="E200">
-        <f>'PWT Calcs'!D200/'PWT Calcs'!D$205</f>
-        <v>0.86330470012765459</v>
-      </c>
-      <c r="F200" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G200" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D255/'PWT Calcs'!D$237</f>
+        <v>1.6586822458561903</v>
+      </c>
+      <c r="F200">
+        <f>'Energy Data'!B255/'Energy Data'!B$237</f>
+        <v>1.6888896525810746</v>
+      </c>
+      <c r="G200">
+        <f>'Energy Data'!C255/'Energy Data'!C$237</f>
+        <v>1.6648975208649832</v>
       </c>
       <c r="H200" t="s">
         <v>1423</v>
       </c>
       <c r="I200" s="4" t="str">
-        <f>'PWT Calcs'!H200</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H255</f>
+        <v>TZ</v>
       </c>
       <c r="J200" s="4" t="s">
         <v>1588</v>
@@ -41923,37 +42003,39 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201" s="4" t="str">
-        <f>'PWT Calcs'!A201</f>
-        <v>1987</v>
+        <f>'PWT Calcs'!A256</f>
+        <v>2010</v>
       </c>
       <c r="B201" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C201">
-        <f>'PWT Calcs'!B201/'PWT Calcs'!B$205</f>
-        <v>0.81387665198238057</v>
+        <f>'PWT Calcs'!B256/'PWT Calcs'!B$237</f>
+        <v>2.7856826602391789</v>
       </c>
       <c r="D201">
-        <f>'PWT Calcs'!C201/'PWT Calcs'!C$205</f>
-        <v>0.94761945234437139</v>
+        <f>'PWT Calcs'!C256/'PWT Calcs'!C$237</f>
+        <v>2.1731192681562237</v>
       </c>
       <c r="E201">
-        <f>'PWT Calcs'!D201/'PWT Calcs'!D$205</f>
-        <v>0.8991032868010157</v>
-      </c>
-      <c r="F201" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G201" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D256/'PWT Calcs'!D$237</f>
+        <v>1.7091032587204893</v>
+      </c>
+      <c r="F201">
+        <f>'Energy Data'!B256/'Energy Data'!B$237</f>
+        <v>1.6680680933119416</v>
+      </c>
+      <c r="G201">
+        <f>'Energy Data'!C256/'Energy Data'!C$237</f>
+        <v>1.644653716355994</v>
       </c>
       <c r="H201" t="s">
         <v>1423</v>
       </c>
       <c r="I201" s="4" t="str">
-        <f>'PWT Calcs'!H201</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H256</f>
+        <v>TZ</v>
       </c>
       <c r="J201" s="4" t="s">
         <v>1588</v>
@@ -41961,37 +42043,39 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202" s="4" t="str">
-        <f>'PWT Calcs'!A202</f>
-        <v>1988</v>
+        <f>'PWT Calcs'!A257</f>
+        <v>2011</v>
       </c>
       <c r="B202" s="4">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C202">
-        <f>'PWT Calcs'!B202/'PWT Calcs'!B$205</f>
-        <v>0.7778267254038207</v>
+        <f>'PWT Calcs'!B257/'PWT Calcs'!B$237</f>
+        <v>2.9629435167386018</v>
       </c>
       <c r="D202">
-        <f>'PWT Calcs'!C202/'PWT Calcs'!C$205</f>
-        <v>0.9513391520381812</v>
+        <f>'PWT Calcs'!C257/'PWT Calcs'!C$237</f>
+        <v>2.3514077610078119</v>
       </c>
       <c r="E202">
-        <f>'PWT Calcs'!D202/'PWT Calcs'!D$205</f>
-        <v>0.93891115698998895</v>
-      </c>
-      <c r="F202" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G202" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D257/'PWT Calcs'!D$237</f>
+        <v>1.7622054491675907</v>
+      </c>
+      <c r="F202">
+        <f>'Energy Data'!B257/'Energy Data'!B$237</f>
+        <v>1.8858194322791211</v>
+      </c>
+      <c r="G202">
+        <f>'Energy Data'!C257/'Energy Data'!C$237</f>
+        <v>1.8543464410243797</v>
       </c>
       <c r="H202" t="s">
         <v>1423</v>
       </c>
       <c r="I202" s="4" t="str">
-        <f>'PWT Calcs'!H202</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H257</f>
+        <v>TZ</v>
       </c>
       <c r="J202" s="4" t="s">
         <v>1588</v>
@@ -41999,37 +42083,39 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203" s="4" t="str">
-        <f>'PWT Calcs'!A203</f>
-        <v>1989</v>
+        <f>'PWT Calcs'!A269</f>
+        <v>1991</v>
       </c>
       <c r="B203" s="4">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C203">
-        <f>'PWT Calcs'!B203/'PWT Calcs'!B$205</f>
-        <v>0.81255506607929484</v>
+        <f>'PWT Calcs'!B269/'PWT Calcs'!B$269</f>
+        <v>1</v>
       </c>
       <c r="D203">
-        <f>'PWT Calcs'!C203/'PWT Calcs'!C$205</f>
-        <v>0.95757349111394419</v>
+        <f>'PWT Calcs'!C269/'PWT Calcs'!C$269</f>
+        <v>1</v>
       </c>
       <c r="E203">
-        <f>'PWT Calcs'!D203/'PWT Calcs'!D$205</f>
-        <v>0.97301855604567156</v>
-      </c>
-      <c r="F203" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G203" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D269/'PWT Calcs'!D$269</f>
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <f>'Energy Data'!B269/'Energy Data'!B$269</f>
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <f>'Energy Data'!C269/'Energy Data'!C$269</f>
+        <v>1</v>
       </c>
       <c r="H203" t="s">
         <v>1423</v>
       </c>
       <c r="I203" s="4" t="str">
-        <f>'PWT Calcs'!H203</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H269</f>
+        <v>ZM</v>
       </c>
       <c r="J203" s="4" t="s">
         <v>1588</v>
@@ -42037,37 +42123,39 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204" s="4" t="str">
-        <f>'PWT Calcs'!A204</f>
-        <v>1990</v>
+        <f>'PWT Calcs'!A270</f>
+        <v>1992</v>
       </c>
       <c r="B204" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C204">
-        <f>'PWT Calcs'!B204/'PWT Calcs'!B$205</f>
-        <v>0.90389133627019225</v>
+        <f>'PWT Calcs'!B270/'PWT Calcs'!B$269</f>
+        <v>0.98269077911020464</v>
       </c>
       <c r="D204">
-        <f>'PWT Calcs'!C204/'PWT Calcs'!C$205</f>
-        <v>0.96938201867651708</v>
+        <f>'PWT Calcs'!C270/'PWT Calcs'!C$269</f>
+        <v>0.98401738656376014</v>
       </c>
       <c r="E204">
-        <f>'PWT Calcs'!D204/'PWT Calcs'!D$205</f>
-        <v>0.99032935388166643</v>
-      </c>
-      <c r="F204" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G204" t="s">
-        <v>1423</v>
+        <f>'PWT Calcs'!D270/'PWT Calcs'!D$269</f>
+        <v>1.0265315533255017</v>
+      </c>
+      <c r="F204">
+        <f>'Energy Data'!B270/'Energy Data'!B$269</f>
+        <v>1.0372902442435501</v>
+      </c>
+      <c r="G204">
+        <f>'Energy Data'!C270/'Energy Data'!C$269</f>
+        <v>1.0393729022278826</v>
       </c>
       <c r="H204" t="s">
         <v>1423</v>
       </c>
       <c r="I204" s="4" t="str">
-        <f>'PWT Calcs'!H204</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H270</f>
+        <v>ZM</v>
       </c>
       <c r="J204" s="4" t="s">
         <v>1588</v>
@@ -42075,39 +42163,39 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205" s="4" t="str">
-        <f>'PWT Calcs'!A205</f>
-        <v>1991</v>
+        <f>'PWT Calcs'!A271</f>
+        <v>1993</v>
       </c>
       <c r="B205" s="4">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C205">
-        <f>'PWT Calcs'!B205/'PWT Calcs'!B$205</f>
-        <v>1</v>
+        <f>'PWT Calcs'!B271/'PWT Calcs'!B$269</f>
+        <v>1.0494869639937192</v>
       </c>
       <c r="D205">
-        <f>'PWT Calcs'!C205/'PWT Calcs'!C$205</f>
-        <v>1</v>
+        <f>'PWT Calcs'!C271/'PWT Calcs'!C$269</f>
+        <v>0.97458394222629696</v>
       </c>
       <c r="E205">
-        <f>'PWT Calcs'!D205/'PWT Calcs'!D$205</f>
-        <v>1</v>
+        <f>'PWT Calcs'!D271/'PWT Calcs'!D$269</f>
+        <v>1.0506456366521002</v>
       </c>
       <c r="F205">
-        <f>'Energy Data'!B205/'Energy Data'!B$205</f>
-        <v>1</v>
+        <f>'Energy Data'!B271/'Energy Data'!B$269</f>
+        <v>0.99283416815065528</v>
       </c>
       <c r="G205">
-        <f>'Energy Data'!C205/'Energy Data'!C$205</f>
-        <v>1</v>
+        <f>'Energy Data'!C271/'Energy Data'!C$269</f>
+        <v>0.99400494936643435</v>
       </c>
       <c r="H205" t="s">
         <v>1423</v>
       </c>
       <c r="I205" s="4" t="str">
-        <f>'PWT Calcs'!H205</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H271</f>
+        <v>ZM</v>
       </c>
       <c r="J205" s="4" t="s">
         <v>1588</v>
@@ -42115,39 +42203,39 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206" s="4" t="str">
-        <f>'PWT Calcs'!A206</f>
-        <v>1992</v>
+        <f>'PWT Calcs'!A272</f>
+        <v>1994</v>
       </c>
       <c r="B206" s="4">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C206">
-        <f>'PWT Calcs'!B206/'PWT Calcs'!B$205</f>
-        <v>1.0610132158590357</v>
+        <f>'PWT Calcs'!B272/'PWT Calcs'!B$269</f>
+        <v>0.95922096981843963</v>
       </c>
       <c r="D206">
-        <f>'PWT Calcs'!C206/'PWT Calcs'!C$205</f>
-        <v>1.0337636559772483</v>
+        <f>'PWT Calcs'!C272/'PWT Calcs'!C$269</f>
+        <v>0.9595660133709859</v>
       </c>
       <c r="E206">
-        <f>'PWT Calcs'!D206/'PWT Calcs'!D$205</f>
-        <v>1.0040170466321636</v>
+        <f>'PWT Calcs'!D272/'PWT Calcs'!D$269</f>
+        <v>1.0803264885404056</v>
       </c>
       <c r="F206">
-        <f>'Energy Data'!B206/'Energy Data'!B$205</f>
-        <v>1.03577726673788</v>
+        <f>'Energy Data'!B272/'Energy Data'!B$269</f>
+        <v>0.96226552654774133</v>
       </c>
       <c r="G206">
-        <f>'Energy Data'!C206/'Energy Data'!C$205</f>
-        <v>1.0352412697060405</v>
+        <f>'Energy Data'!C272/'Energy Data'!C$269</f>
+        <v>0.96264062328063982</v>
       </c>
       <c r="H206" t="s">
         <v>1423</v>
       </c>
       <c r="I206" s="4" t="str">
-        <f>'PWT Calcs'!H206</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H272</f>
+        <v>ZM</v>
       </c>
       <c r="J206" s="4" t="s">
         <v>1588</v>
@@ -42155,39 +42243,39 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207" s="4" t="str">
-        <f>'PWT Calcs'!A207</f>
-        <v>1993</v>
+        <f>'PWT Calcs'!A273</f>
+        <v>1995</v>
       </c>
       <c r="B207" s="4">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C207">
-        <f>'PWT Calcs'!B207/'PWT Calcs'!B$205</f>
-        <v>1.0388135308854245</v>
+        <f>'PWT Calcs'!B273/'PWT Calcs'!B$269</f>
+        <v>0.93529074613260554</v>
       </c>
       <c r="D207">
-        <f>'PWT Calcs'!C207/'PWT Calcs'!C$205</f>
-        <v>1.0562935068048336</v>
+        <f>'PWT Calcs'!C273/'PWT Calcs'!C$269</f>
+        <v>0.95151919926194661</v>
       </c>
       <c r="E207">
-        <f>'PWT Calcs'!D207/'PWT Calcs'!D$205</f>
-        <v>1.0231255186091435</v>
+        <f>'PWT Calcs'!D273/'PWT Calcs'!D$269</f>
+        <v>1.1115687730633945</v>
       </c>
       <c r="F207">
-        <f>'Energy Data'!B207/'Energy Data'!B$205</f>
-        <v>1.0670517918372191</v>
+        <f>'Energy Data'!B273/'Energy Data'!B$269</f>
+        <v>0.97640745714480581</v>
       </c>
       <c r="G207">
-        <f>'Energy Data'!C207/'Energy Data'!C$205</f>
-        <v>1.0665616469821457</v>
+        <f>'Energy Data'!C273/'Energy Data'!C$269</f>
+        <v>0.97692629851626844</v>
       </c>
       <c r="H207" t="s">
         <v>1423</v>
       </c>
       <c r="I207" s="4" t="str">
-        <f>'PWT Calcs'!H207</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H273</f>
+        <v>ZM</v>
       </c>
       <c r="J207" s="4" t="s">
         <v>1588</v>
@@ -42195,39 +42283,39 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208" s="4" t="str">
-        <f>'PWT Calcs'!A208</f>
-        <v>1994</v>
+        <f>'PWT Calcs'!A274</f>
+        <v>1996</v>
       </c>
       <c r="B208" s="4">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C208">
-        <f>'PWT Calcs'!B208/'PWT Calcs'!B$205</f>
-        <v>1.0567359990683061</v>
+        <f>'PWT Calcs'!B274/'PWT Calcs'!B$269</f>
+        <v>0.99693568729110671</v>
       </c>
       <c r="D208">
-        <f>'PWT Calcs'!C208/'PWT Calcs'!C$205</f>
-        <v>1.0670286031839429</v>
+        <f>'PWT Calcs'!C274/'PWT Calcs'!C$269</f>
+        <v>0.95758065747977272</v>
       </c>
       <c r="E208">
-        <f>'PWT Calcs'!D208/'PWT Calcs'!D$205</f>
-        <v>1.0521093339758636</v>
+        <f>'PWT Calcs'!D274/'PWT Calcs'!D$269</f>
+        <v>1.1427515480775934</v>
       </c>
       <c r="F208">
-        <f>'Energy Data'!B208/'Energy Data'!B$205</f>
-        <v>1.1384492952767526</v>
+        <f>'Energy Data'!B274/'Energy Data'!B$269</f>
+        <v>0.94601991154713516</v>
       </c>
       <c r="G208">
-        <f>'Energy Data'!C208/'Energy Data'!C$205</f>
-        <v>1.1373943384611491</v>
+        <f>'Energy Data'!C274/'Energy Data'!C$269</f>
+        <v>0.94990195806053934</v>
       </c>
       <c r="H208" t="s">
         <v>1423</v>
       </c>
       <c r="I208" s="4" t="str">
-        <f>'PWT Calcs'!H208</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H274</f>
+        <v>ZM</v>
       </c>
       <c r="J208" s="4" t="s">
         <v>1588</v>
@@ -42235,39 +42323,39 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209" s="4" t="str">
-        <f>'PWT Calcs'!A209</f>
-        <v>1995</v>
+        <f>'PWT Calcs'!A275</f>
+        <v>1997</v>
       </c>
       <c r="B209" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C209">
-        <f>'PWT Calcs'!B209/'PWT Calcs'!B$205</f>
-        <v>1.0874680659482239</v>
+        <f>'PWT Calcs'!B275/'PWT Calcs'!B$269</f>
+        <v>1.0298129892423078</v>
       </c>
       <c r="D209">
-        <f>'PWT Calcs'!C209/'PWT Calcs'!C$205</f>
-        <v>1.0753753718413912</v>
+        <f>'PWT Calcs'!C275/'PWT Calcs'!C$269</f>
+        <v>0.96980340413375077</v>
       </c>
       <c r="E209">
-        <f>'PWT Calcs'!D209/'PWT Calcs'!D$205</f>
-        <v>1.0805213152477158</v>
+        <f>'PWT Calcs'!D275/'PWT Calcs'!D$269</f>
+        <v>1.1747071855379141</v>
       </c>
       <c r="F209">
-        <f>'Energy Data'!B209/'Energy Data'!B$205</f>
-        <v>1.1811177098520949</v>
+        <f>'Energy Data'!B275/'Energy Data'!B$269</f>
+        <v>1.0127519539095122</v>
       </c>
       <c r="G209">
-        <f>'Energy Data'!C209/'Energy Data'!C$205</f>
-        <v>1.1793376231829138</v>
+        <f>'Energy Data'!C275/'Energy Data'!C$269</f>
+        <v>1.0152765374757149</v>
       </c>
       <c r="H209" t="s">
         <v>1423</v>
       </c>
       <c r="I209" s="4" t="str">
-        <f>'PWT Calcs'!H209</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H275</f>
+        <v>ZM</v>
       </c>
       <c r="J209" s="4" t="s">
         <v>1588</v>
@@ -42275,39 +42363,39 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" s="4" t="str">
-        <f>'PWT Calcs'!A210</f>
-        <v>1996</v>
+        <f>'PWT Calcs'!A276</f>
+        <v>1998</v>
       </c>
       <c r="B210" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C210">
-        <f>'PWT Calcs'!B210/'PWT Calcs'!B$205</f>
-        <v>1.1544904322012239</v>
+        <f>'PWT Calcs'!B276/'PWT Calcs'!B$269</f>
+        <v>1.0106345631041074</v>
       </c>
       <c r="D210">
-        <f>'PWT Calcs'!C210/'PWT Calcs'!C$205</f>
-        <v>1.0954545672474476</v>
+        <f>'PWT Calcs'!C276/'PWT Calcs'!C$269</f>
+        <v>1.0018147753196949</v>
       </c>
       <c r="E210">
-        <f>'PWT Calcs'!D210/'PWT Calcs'!D$205</f>
-        <v>1.1131029689526624</v>
+        <f>'PWT Calcs'!D276/'PWT Calcs'!D$269</f>
+        <v>1.2088484827012762</v>
       </c>
       <c r="F210">
-        <f>'Energy Data'!B210/'Energy Data'!B$205</f>
-        <v>1.2237451216322293</v>
+        <f>'Energy Data'!B276/'Energy Data'!B$269</f>
+        <v>0.98049396767421726</v>
       </c>
       <c r="G210">
-        <f>'Energy Data'!C210/'Energy Data'!C$205</f>
-        <v>1.2206824784460704</v>
+        <f>'Energy Data'!C276/'Energy Data'!C$269</f>
+        <v>0.98403678650194581</v>
       </c>
       <c r="H210" t="s">
         <v>1423</v>
       </c>
       <c r="I210" s="4" t="str">
-        <f>'PWT Calcs'!H210</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H276</f>
+        <v>ZM</v>
       </c>
       <c r="J210" s="4" t="s">
         <v>1588</v>
@@ -42315,39 +42403,39 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" s="4" t="str">
-        <f>'PWT Calcs'!A211</f>
-        <v>1997</v>
+        <f>'PWT Calcs'!A277</f>
+        <v>1999</v>
       </c>
       <c r="B211" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C211">
-        <f>'PWT Calcs'!B211/'PWT Calcs'!B$205</f>
-        <v>1.2002774070455073</v>
+        <f>'PWT Calcs'!B277/'PWT Calcs'!B$269</f>
+        <v>1.0331092812348117</v>
       </c>
       <c r="D211">
-        <f>'PWT Calcs'!C211/'PWT Calcs'!C$205</f>
-        <v>1.1219588332080241</v>
+        <f>'PWT Calcs'!C277/'PWT Calcs'!C$269</f>
+        <v>1.0601106377022689</v>
       </c>
       <c r="E211">
-        <f>'PWT Calcs'!D211/'PWT Calcs'!D$205</f>
-        <v>1.1697524078477819</v>
+        <f>'PWT Calcs'!D277/'PWT Calcs'!D$269</f>
+        <v>1.2399970051493714</v>
       </c>
       <c r="F211">
-        <f>'Energy Data'!B211/'Energy Data'!B$205</f>
-        <v>1.3683060315565108</v>
+        <f>'Energy Data'!B277/'Energy Data'!B$269</f>
+        <v>0.97569047936520592</v>
       </c>
       <c r="G211">
-        <f>'Energy Data'!C211/'Energy Data'!C$205</f>
-        <v>1.3644729652258847</v>
+        <f>'Energy Data'!C277/'Energy Data'!C$269</f>
+        <v>0.97825536550413794</v>
       </c>
       <c r="H211" t="s">
         <v>1423</v>
       </c>
       <c r="I211" s="4" t="str">
-        <f>'PWT Calcs'!H211</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H277</f>
+        <v>ZM</v>
       </c>
       <c r="J211" s="4" t="s">
         <v>1588</v>
@@ -42355,39 +42443,39 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" s="4" t="str">
-        <f>'PWT Calcs'!A212</f>
-        <v>1998</v>
+        <f>'PWT Calcs'!A278</f>
+        <v>2000</v>
       </c>
       <c r="B212" s="4">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C212">
-        <f>'PWT Calcs'!B212/'PWT Calcs'!B$205</f>
-        <v>1.2386582995010649</v>
+        <f>'PWT Calcs'!B278/'PWT Calcs'!B$269</f>
+        <v>1.069813706616269</v>
       </c>
       <c r="D212">
-        <f>'PWT Calcs'!C212/'PWT Calcs'!C$205</f>
-        <v>1.149604175520033</v>
+        <f>'PWT Calcs'!C278/'PWT Calcs'!C$269</f>
+        <v>1.0699278723477006</v>
       </c>
       <c r="E212">
-        <f>'PWT Calcs'!D212/'PWT Calcs'!D$205</f>
-        <v>1.235243230891935</v>
+        <f>'PWT Calcs'!D278/'PWT Calcs'!D$269</f>
+        <v>1.2651904248923551</v>
       </c>
       <c r="F212">
-        <f>'Energy Data'!B212/'Energy Data'!B$205</f>
-        <v>1.4185152398016532</v>
+        <f>'Energy Data'!B278/'Energy Data'!B$269</f>
+        <v>0.97545030108404673</v>
       </c>
       <c r="G212">
-        <f>'Energy Data'!C212/'Energy Data'!C$205</f>
-        <v>1.4137036508417438</v>
+        <f>'Energy Data'!C278/'Energy Data'!C$269</f>
+        <v>0.978235239476691</v>
       </c>
       <c r="H212" t="s">
         <v>1423</v>
       </c>
       <c r="I212" s="4" t="str">
-        <f>'PWT Calcs'!H212</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H278</f>
+        <v>ZM</v>
       </c>
       <c r="J212" s="4" t="s">
         <v>1588</v>
@@ -42395,39 +42483,39 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213" s="4" t="str">
-        <f>'PWT Calcs'!A213</f>
-        <v>1999</v>
+        <f>'PWT Calcs'!A279</f>
+        <v>2001</v>
       </c>
       <c r="B213" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C213">
-        <f>'PWT Calcs'!B213/'PWT Calcs'!B$205</f>
-        <v>1.2881262816338968</v>
+        <f>'PWT Calcs'!B279/'PWT Calcs'!B$269</f>
+        <v>1.1221562549180024</v>
       </c>
       <c r="D213">
-        <f>'PWT Calcs'!C213/'PWT Calcs'!C$205</f>
-        <v>1.1794765780785199</v>
+        <f>'PWT Calcs'!C279/'PWT Calcs'!C$269</f>
+        <v>1.0952750332101646</v>
       </c>
       <c r="E213">
-        <f>'PWT Calcs'!D213/'PWT Calcs'!D$205</f>
-        <v>1.3058074703152365</v>
+        <f>'PWT Calcs'!D279/'PWT Calcs'!D$269</f>
+        <v>1.2846771595308752</v>
       </c>
       <c r="F213">
-        <f>'Energy Data'!B213/'Energy Data'!B$205</f>
-        <v>1.4965058998303231</v>
+        <f>'Energy Data'!B279/'Energy Data'!B$269</f>
+        <v>1.0126536105257817</v>
       </c>
       <c r="G213">
-        <f>'Energy Data'!C213/'Energy Data'!C$205</f>
-        <v>1.4901502749727695</v>
+        <f>'Energy Data'!C279/'Energy Data'!C$269</f>
+        <v>1.0153905383962374</v>
       </c>
       <c r="H213" t="s">
         <v>1423</v>
       </c>
       <c r="I213" s="4" t="str">
-        <f>'PWT Calcs'!H213</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H279</f>
+        <v>ZM</v>
       </c>
       <c r="J213" s="4" t="s">
         <v>1588</v>
@@ -42435,39 +42523,39 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" s="4" t="str">
-        <f>'PWT Calcs'!A214</f>
-        <v>2000</v>
+        <f>'PWT Calcs'!A280</f>
+        <v>2002</v>
       </c>
       <c r="B214" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C214">
-        <f>'PWT Calcs'!B214/'PWT Calcs'!B$205</f>
-        <v>1.3306229591701768</v>
+        <f>'PWT Calcs'!B280/'PWT Calcs'!B$269</f>
+        <v>1.1592202757895509</v>
       </c>
       <c r="D214">
-        <f>'PWT Calcs'!C214/'PWT Calcs'!C$205</f>
-        <v>1.2087380820066904</v>
+        <f>'PWT Calcs'!C280/'PWT Calcs'!C$269</f>
+        <v>1.1258586149739576</v>
       </c>
       <c r="E214">
-        <f>'PWT Calcs'!D214/'PWT Calcs'!D$205</f>
-        <v>1.3852374817914666</v>
+        <f>'PWT Calcs'!D280/'PWT Calcs'!D$269</f>
+        <v>1.30718351736072</v>
       </c>
       <c r="F214">
-        <f>'Energy Data'!B214/'Energy Data'!B$205</f>
-        <v>1.5560989999636801</v>
+        <f>'Energy Data'!B280/'Energy Data'!B$269</f>
+        <v>1.0295376485352523</v>
       </c>
       <c r="G214">
-        <f>'Energy Data'!C214/'Energy Data'!C$205</f>
-        <v>1.5494051805105273</v>
+        <f>'Energy Data'!C280/'Energy Data'!C$269</f>
+        <v>1.032536365941823</v>
       </c>
       <c r="H214" t="s">
         <v>1423</v>
       </c>
       <c r="I214" s="4" t="str">
-        <f>'PWT Calcs'!H214</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H280</f>
+        <v>ZM</v>
       </c>
       <c r="J214" s="4" t="s">
         <v>1588</v>
@@ -42475,39 +42563,39 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" s="4" t="str">
-        <f>'PWT Calcs'!A215</f>
-        <v>2001</v>
+        <f>'PWT Calcs'!A281</f>
+        <v>2003</v>
       </c>
       <c r="B215" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C215">
-        <f>'PWT Calcs'!B215/'PWT Calcs'!B$205</f>
-        <v>1.3666476597354391</v>
+        <f>'PWT Calcs'!B281/'PWT Calcs'!B$269</f>
+        <v>1.2091954871148527</v>
       </c>
       <c r="D215">
-        <f>'PWT Calcs'!C215/'PWT Calcs'!C$205</f>
-        <v>1.2468551752694148</v>
+        <f>'PWT Calcs'!C281/'PWT Calcs'!C$269</f>
+        <v>1.1670588400712871</v>
       </c>
       <c r="E215">
-        <f>'PWT Calcs'!D215/'PWT Calcs'!D$205</f>
-        <v>1.4688566467291286</v>
+        <f>'PWT Calcs'!D281/'PWT Calcs'!D$269</f>
+        <v>1.3293665863242137</v>
       </c>
       <c r="F215">
-        <f>'Energy Data'!B215/'Energy Data'!B$205</f>
-        <v>1.6635605320156388</v>
+        <f>'Energy Data'!B281/'Energy Data'!B$269</f>
+        <v>1.0578078265415378</v>
       </c>
       <c r="G215">
-        <f>'Energy Data'!C215/'Energy Data'!C$205</f>
-        <v>1.6551196721661519</v>
+        <f>'Energy Data'!C281/'Energy Data'!C$269</f>
+        <v>1.06074192016828</v>
       </c>
       <c r="H215" t="s">
         <v>1423</v>
       </c>
       <c r="I215" s="4" t="str">
-        <f>'PWT Calcs'!H215</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H281</f>
+        <v>ZM</v>
       </c>
       <c r="J215" s="4" t="s">
         <v>1588</v>
@@ -42515,39 +42603,39 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216" s="4" t="str">
-        <f>'PWT Calcs'!A216</f>
-        <v>2002</v>
+        <f>'PWT Calcs'!A282</f>
+        <v>2004</v>
       </c>
       <c r="B216" s="4">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C216">
-        <f>'PWT Calcs'!B216/'PWT Calcs'!B$205</f>
-        <v>1.4749704209647752</v>
+        <f>'PWT Calcs'!B282/'PWT Calcs'!B$269</f>
+        <v>1.28393141647216</v>
       </c>
       <c r="D216">
-        <f>'PWT Calcs'!C216/'PWT Calcs'!C$205</f>
-        <v>1.2935677377878025</v>
+        <f>'PWT Calcs'!C282/'PWT Calcs'!C$269</f>
+        <v>1.2239646209886963</v>
       </c>
       <c r="E216">
-        <f>'PWT Calcs'!D216/'PWT Calcs'!D$205</f>
-        <v>1.5614729708055606</v>
+        <f>'PWT Calcs'!D282/'PWT Calcs'!D$269</f>
+        <v>1.3529485439268725</v>
       </c>
       <c r="F216">
-        <f>'Energy Data'!B216/'Energy Data'!B$205</f>
-        <v>1.8190034559936956</v>
+        <f>'Energy Data'!B282/'Energy Data'!B$269</f>
+        <v>1.0648635894119554</v>
       </c>
       <c r="G216">
-        <f>'Energy Data'!C216/'Energy Data'!C$205</f>
-        <v>1.8085005699296726</v>
+        <f>'Energy Data'!C282/'Energy Data'!C$269</f>
+        <v>1.0680501390479304</v>
       </c>
       <c r="H216" t="s">
         <v>1423</v>
       </c>
       <c r="I216" s="4" t="str">
-        <f>'PWT Calcs'!H216</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H282</f>
+        <v>ZM</v>
       </c>
       <c r="J216" s="4" t="s">
         <v>1588</v>
@@ -42555,39 +42643,39 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" s="4" t="str">
-        <f>'PWT Calcs'!A217</f>
-        <v>2003</v>
+        <f>'PWT Calcs'!A283</f>
+        <v>2005</v>
       </c>
       <c r="B217" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C217">
-        <f>'PWT Calcs'!B217/'PWT Calcs'!B$205</f>
-        <v>1.5913619631164555</v>
+        <f>'PWT Calcs'!B283/'PWT Calcs'!B$269</f>
+        <v>1.3510088180702526</v>
       </c>
       <c r="D217">
-        <f>'PWT Calcs'!C217/'PWT Calcs'!C$205</f>
-        <v>1.3494036808211565</v>
+        <f>'PWT Calcs'!C283/'PWT Calcs'!C$269</f>
+        <v>1.2785149967420963</v>
       </c>
       <c r="E217">
-        <f>'PWT Calcs'!D217/'PWT Calcs'!D$205</f>
-        <v>1.6635720149901427</v>
+        <f>'PWT Calcs'!D283/'PWT Calcs'!D$269</f>
+        <v>1.3804430441411071</v>
       </c>
       <c r="F217">
-        <f>'Energy Data'!B217/'Energy Data'!B$205</f>
-        <v>1.9151848972041365</v>
+        <f>'Energy Data'!B283/'Energy Data'!B$269</f>
+        <v>1.1145715820582243</v>
       </c>
       <c r="G217">
-        <f>'Energy Data'!C217/'Energy Data'!C$205</f>
-        <v>1.9040005312156616</v>
+        <f>'Energy Data'!C283/'Energy Data'!C$269</f>
+        <v>1.1173484739058481</v>
       </c>
       <c r="H217" t="s">
         <v>1423</v>
       </c>
       <c r="I217" s="4" t="str">
-        <f>'PWT Calcs'!H217</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H283</f>
+        <v>ZM</v>
       </c>
       <c r="J217" s="4" t="s">
         <v>1588</v>
@@ -42595,39 +42683,39 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" s="4" t="str">
-        <f>'PWT Calcs'!A218</f>
-        <v>2004</v>
+        <f>'PWT Calcs'!A284</f>
+        <v>2006</v>
       </c>
       <c r="B218" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C218">
-        <f>'PWT Calcs'!B218/'PWT Calcs'!B$205</f>
-        <v>1.672330167096618</v>
+        <f>'PWT Calcs'!B284/'PWT Calcs'!B$269</f>
+        <v>1.4348288144510495</v>
       </c>
       <c r="D218">
-        <f>'PWT Calcs'!C218/'PWT Calcs'!C$205</f>
-        <v>1.4103611301799004</v>
+        <f>'PWT Calcs'!C284/'PWT Calcs'!C$269</f>
+        <v>1.3392905088113589</v>
       </c>
       <c r="E218">
-        <f>'PWT Calcs'!D218/'PWT Calcs'!D$205</f>
-        <v>1.7618218716288125</v>
+        <f>'PWT Calcs'!D284/'PWT Calcs'!D$269</f>
+        <v>1.4083538341284514</v>
       </c>
       <c r="F218">
-        <f>'Energy Data'!B218/'Energy Data'!B$205</f>
-        <v>1.988985776194522</v>
+        <f>'Energy Data'!B284/'Energy Data'!B$269</f>
+        <v>1.1729546519188956</v>
       </c>
       <c r="G218">
-        <f>'Energy Data'!C218/'Energy Data'!C$205</f>
-        <v>1.9776961335304841</v>
+        <f>'Energy Data'!C284/'Energy Data'!C$269</f>
+        <v>1.1729186553342772</v>
       </c>
       <c r="H218" t="s">
         <v>1423</v>
       </c>
       <c r="I218" s="4" t="str">
-        <f>'PWT Calcs'!H218</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H284</f>
+        <v>ZM</v>
       </c>
       <c r="J218" s="4" t="s">
         <v>1588</v>
@@ -42635,39 +42723,39 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219" s="4" t="str">
-        <f>'PWT Calcs'!A219</f>
-        <v>2005</v>
+        <f>'PWT Calcs'!A285</f>
+        <v>2007</v>
       </c>
       <c r="B219" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C219">
-        <f>'PWT Calcs'!B219/'PWT Calcs'!B$205</f>
-        <v>1.7601945555880736</v>
+        <f>'PWT Calcs'!B285/'PWT Calcs'!B$269</f>
+        <v>1.5253141700946087</v>
       </c>
       <c r="D219">
-        <f>'PWT Calcs'!C219/'PWT Calcs'!C$205</f>
-        <v>1.476867488259074</v>
+        <f>'PWT Calcs'!C285/'PWT Calcs'!C$269</f>
+        <v>1.4176095520007106</v>
       </c>
       <c r="E219">
-        <f>'PWT Calcs'!D219/'PWT Calcs'!D$205</f>
-        <v>1.8506979847388876</v>
+        <f>'PWT Calcs'!D285/'PWT Calcs'!D$269</f>
+        <v>1.4387641618791469</v>
       </c>
       <c r="F219">
-        <f>'Energy Data'!B219/'Energy Data'!B$205</f>
-        <v>2.2734187837172928</v>
+        <f>'Energy Data'!B285/'Energy Data'!B$269</f>
+        <v>1.1678285269002644</v>
       </c>
       <c r="G219">
-        <f>'Energy Data'!C219/'Energy Data'!C$205</f>
-        <v>2.2573379344636728</v>
+        <f>'Energy Data'!C285/'Energy Data'!C$269</f>
+        <v>1.1682366712021006</v>
       </c>
       <c r="H219" t="s">
         <v>1423</v>
       </c>
       <c r="I219" s="4" t="str">
-        <f>'PWT Calcs'!H219</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H285</f>
+        <v>ZM</v>
       </c>
       <c r="J219" s="4" t="s">
         <v>1588</v>
@@ -42675,39 +42763,39 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220" s="4" t="str">
-        <f>'PWT Calcs'!A220</f>
-        <v>2006</v>
+        <f>'PWT Calcs'!A286</f>
+        <v>2008</v>
       </c>
       <c r="B220" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C220">
-        <f>'PWT Calcs'!B220/'PWT Calcs'!B$205</f>
-        <v>1.8676476110175066</v>
+        <f>'PWT Calcs'!B286/'PWT Calcs'!B$269</f>
+        <v>1.6169767728783511</v>
       </c>
       <c r="D220">
-        <f>'PWT Calcs'!C220/'PWT Calcs'!C$205</f>
-        <v>1.542293267082911</v>
+        <f>'PWT Calcs'!C286/'PWT Calcs'!C$269</f>
+        <v>1.5089856463703055</v>
       </c>
       <c r="E220">
-        <f>'PWT Calcs'!D220/'PWT Calcs'!D$205</f>
-        <v>1.8599198348360333</v>
+        <f>'PWT Calcs'!D286/'PWT Calcs'!D$269</f>
+        <v>1.4737564450181935</v>
       </c>
       <c r="F220">
-        <f>'Energy Data'!B220/'Energy Data'!B$205</f>
-        <v>2.3782745936048397</v>
+        <f>'Energy Data'!B286/'Energy Data'!B$269</f>
+        <v>1.1142506951948152</v>
       </c>
       <c r="G220">
-        <f>'Energy Data'!C220/'Energy Data'!C$205</f>
-        <v>2.3616059698059657</v>
+        <f>'Energy Data'!C286/'Energy Data'!C$269</f>
+        <v>1.1144449707697175</v>
       </c>
       <c r="H220" t="s">
         <v>1423</v>
       </c>
       <c r="I220" s="4" t="str">
-        <f>'PWT Calcs'!H220</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H286</f>
+        <v>ZM</v>
       </c>
       <c r="J220" s="4" t="s">
         <v>1588</v>
@@ -42715,39 +42803,39 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221" s="4" t="str">
-        <f>'PWT Calcs'!A221</f>
-        <v>2007</v>
+        <f>'PWT Calcs'!A287</f>
+        <v>2009</v>
       </c>
       <c r="B221" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C221">
-        <f>'PWT Calcs'!B221/'PWT Calcs'!B$205</f>
-        <v>2.0221278483764382</v>
+        <f>'PWT Calcs'!B287/'PWT Calcs'!B$269</f>
+        <v>1.7156386450227872</v>
       </c>
       <c r="D221">
-        <f>'PWT Calcs'!C221/'PWT Calcs'!C$205</f>
-        <v>1.6127779630174452</v>
+        <f>'PWT Calcs'!C287/'PWT Calcs'!C$269</f>
+        <v>1.5939522828173469</v>
       </c>
       <c r="E221">
-        <f>'PWT Calcs'!D221/'PWT Calcs'!D$205</f>
-        <v>1.8640905325864137</v>
+        <f>'PWT Calcs'!D287/'PWT Calcs'!D$269</f>
+        <v>1.5107710826966245</v>
       </c>
       <c r="F221">
-        <f>'Energy Data'!B221/'Energy Data'!B$205</f>
-        <v>2.4357701852027778</v>
+        <f>'Energy Data'!B287/'Energy Data'!B$269</f>
+        <v>1.1775631819612329</v>
       </c>
       <c r="G221">
-        <f>'Energy Data'!C221/'Energy Data'!C$205</f>
-        <v>2.418292934837758</v>
+        <f>'Energy Data'!C287/'Energy Data'!C$269</f>
+        <v>1.1766170516561352</v>
       </c>
       <c r="H221" t="s">
         <v>1423</v>
       </c>
       <c r="I221" s="4" t="str">
-        <f>'PWT Calcs'!H221</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H287</f>
+        <v>ZM</v>
       </c>
       <c r="J221" s="4" t="s">
         <v>1588</v>
@@ -42755,39 +42843,39 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222" s="4" t="str">
-        <f>'PWT Calcs'!A222</f>
-        <v>2008</v>
+        <f>'PWT Calcs'!A288</f>
+        <v>2010</v>
       </c>
       <c r="B222" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C222">
-        <f>'PWT Calcs'!B222/'PWT Calcs'!B$205</f>
-        <v>2.0337766829876376</v>
+        <f>'PWT Calcs'!B288/'PWT Calcs'!B$269</f>
+        <v>1.8375723386343135</v>
       </c>
       <c r="D222">
-        <f>'PWT Calcs'!C222/'PWT Calcs'!C$205</f>
-        <v>1.6958749959138308</v>
+        <f>'PWT Calcs'!C288/'PWT Calcs'!C$269</f>
+        <v>1.6930436808334608</v>
       </c>
       <c r="E222">
-        <f>'PWT Calcs'!D222/'PWT Calcs'!D$205</f>
-        <v>1.8101506410796291</v>
+        <f>'PWT Calcs'!D288/'PWT Calcs'!D$269</f>
+        <v>1.5298643626061044</v>
       </c>
       <c r="F222">
-        <f>'Energy Data'!B222/'Energy Data'!B$205</f>
-        <v>2.5228589645233384</v>
+        <f>'Energy Data'!B288/'Energy Data'!B$269</f>
+        <v>1.2642839456164883</v>
       </c>
       <c r="G222">
-        <f>'Energy Data'!C222/'Energy Data'!C$205</f>
-        <v>2.5067656309120383</v>
+        <f>'Energy Data'!C288/'Energy Data'!C$269</f>
+        <v>1.261520376667437</v>
       </c>
       <c r="H222" t="s">
         <v>1423</v>
       </c>
       <c r="I222" s="4" t="str">
-        <f>'PWT Calcs'!H222</f>
-        <v>IR</v>
+        <f>'PWT Calcs'!H288</f>
+        <v>ZM</v>
       </c>
       <c r="J222" s="4" t="s">
         <v>1588</v>
@@ -42795,2637 +42883,41 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223" s="4" t="str">
-        <f>'PWT Calcs'!A223</f>
-        <v>2009</v>
+        <f>'PWT Calcs'!A289</f>
+        <v>2011</v>
       </c>
       <c r="B223" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C223">
-        <f>'PWT Calcs'!B223/'PWT Calcs'!B$205</f>
-        <v>2.1141127614565849</v>
-      </c>
-      <c r="D223">
-        <f>'PWT Calcs'!C223/'PWT Calcs'!C$205</f>
-        <v>1.7719243786298802</v>
-      </c>
-      <c r="E223">
-        <f>'PWT Calcs'!D223/'PWT Calcs'!D$205</f>
-        <v>1.8599302344827435</v>
-      </c>
-      <c r="F223">
-        <f>'Energy Data'!B223/'Energy Data'!B$205</f>
-        <v>2.7902337269664645</v>
-      </c>
-      <c r="G223">
-        <f>'Energy Data'!C223/'Energy Data'!C$205</f>
-        <v>2.7687835848208988</v>
-      </c>
-      <c r="H223" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I223" s="4" t="str">
-        <f>'PWT Calcs'!H223</f>
-        <v>IR</v>
-      </c>
-      <c r="J223" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10">
-      <c r="A224" s="4" t="str">
-        <f>'PWT Calcs'!A224</f>
-        <v>2010</v>
-      </c>
-      <c r="B224" s="4">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="C224">
-        <f>'PWT Calcs'!B224/'PWT Calcs'!B$205</f>
-        <v>2.2388143411884571</v>
-      </c>
-      <c r="D224">
-        <f>'PWT Calcs'!C224/'PWT Calcs'!C$205</f>
-        <v>1.8548116766369194</v>
-      </c>
-      <c r="E224">
-        <f>'PWT Calcs'!D224/'PWT Calcs'!D$205</f>
-        <v>1.9119330086983537</v>
-      </c>
-      <c r="F224">
-        <f>'Energy Data'!B224/'Energy Data'!B$205</f>
-        <v>2.809955102096009</v>
-      </c>
-      <c r="G224">
-        <f>'Energy Data'!C224/'Energy Data'!C$205</f>
-        <v>2.7871947529624541</v>
-      </c>
-      <c r="H224" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I224" s="4" t="str">
-        <f>'PWT Calcs'!H224</f>
-        <v>IR</v>
-      </c>
-      <c r="J224" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10">
-      <c r="A225" s="4" t="str">
-        <f>'PWT Calcs'!A225</f>
-        <v>2011</v>
-      </c>
-      <c r="B225" s="4">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="C225">
-        <f>'PWT Calcs'!B225/'PWT Calcs'!B$205</f>
-        <v>2.2830939035259803</v>
-      </c>
-      <c r="D225">
-        <f>'PWT Calcs'!C225/'PWT Calcs'!C$205</f>
-        <v>1.9603290728209821</v>
-      </c>
-      <c r="E225">
-        <f>'PWT Calcs'!D225/'PWT Calcs'!D$205</f>
-        <v>1.9406124513065883</v>
-      </c>
-      <c r="F225">
-        <f>'Energy Data'!B225/'Energy Data'!B$205</f>
-        <v>3.107350258445607</v>
-      </c>
-      <c r="G225">
-        <f>'Energy Data'!C225/'Energy Data'!C$205</f>
-        <v>3.0848022772986505</v>
-      </c>
-      <c r="H225" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I225" s="4" t="str">
-        <f>'PWT Calcs'!H225</f>
-        <v>IR</v>
-      </c>
-      <c r="J225" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10">
-      <c r="A226" s="4" t="str">
-        <f>'PWT Calcs'!A226</f>
-        <v>1980</v>
-      </c>
-      <c r="B226" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C226">
-        <f>'PWT Calcs'!B226/'PWT Calcs'!B$237</f>
-        <v>0.74089658008803627</v>
-      </c>
-      <c r="D226">
-        <f>'PWT Calcs'!C226/'PWT Calcs'!C$237</f>
-        <v>0.91596758485228214</v>
-      </c>
-      <c r="E226">
-        <f>'PWT Calcs'!D226/'PWT Calcs'!D$237</f>
-        <v>0.71132930986863352</v>
-      </c>
-      <c r="F226" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G226" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H226" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I226" s="4" t="str">
-        <f>'PWT Calcs'!H226</f>
-        <v>TZ</v>
-      </c>
-      <c r="J226" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10">
-      <c r="A227" s="4" t="str">
-        <f>'PWT Calcs'!A227</f>
-        <v>1981</v>
-      </c>
-      <c r="B227" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C227">
-        <f>'PWT Calcs'!B227/'PWT Calcs'!B$237</f>
-        <v>0.73716346610138084</v>
-      </c>
-      <c r="D227">
-        <f>'PWT Calcs'!C227/'PWT Calcs'!C$237</f>
-        <v>0.92568997521040619</v>
-      </c>
-      <c r="E227">
-        <f>'PWT Calcs'!D227/'PWT Calcs'!D$237</f>
-        <v>0.735838913986961</v>
-      </c>
-      <c r="F227" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G227" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H227" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I227" s="4" t="str">
-        <f>'PWT Calcs'!H227</f>
-        <v>TZ</v>
-      </c>
-      <c r="J227" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10">
-      <c r="A228" s="4" t="str">
-        <f>'PWT Calcs'!A228</f>
-        <v>1982</v>
-      </c>
-      <c r="B228" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="C228">
-        <f>'PWT Calcs'!B228/'PWT Calcs'!B$237</f>
-        <v>0.74152931127211141</v>
-      </c>
-      <c r="D228">
-        <f>'PWT Calcs'!C228/'PWT Calcs'!C$237</f>
-        <v>0.92794351887902615</v>
-      </c>
-      <c r="E228">
-        <f>'PWT Calcs'!D228/'PWT Calcs'!D$237</f>
-        <v>0.76229016275960315</v>
-      </c>
-      <c r="F228" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G228" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H228" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I228" s="4" t="str">
-        <f>'PWT Calcs'!H228</f>
-        <v>TZ</v>
-      </c>
-      <c r="J228" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10">
-      <c r="A229" s="4" t="str">
-        <f>'PWT Calcs'!A229</f>
-        <v>1983</v>
-      </c>
-      <c r="B229" s="4">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="C229">
-        <f>'PWT Calcs'!B229/'PWT Calcs'!B$237</f>
-        <v>0.72390774779329226</v>
-      </c>
-      <c r="D229">
-        <f>'PWT Calcs'!C229/'PWT Calcs'!C$237</f>
-        <v>0.91822467300748045</v>
-      </c>
-      <c r="E229">
-        <f>'PWT Calcs'!D229/'PWT Calcs'!D$237</f>
-        <v>0.78851434260427733</v>
-      </c>
-      <c r="F229" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G229" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H229" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I229" s="4" t="str">
-        <f>'PWT Calcs'!H229</f>
-        <v>TZ</v>
-      </c>
-      <c r="J229" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10">
-      <c r="A230" s="4" t="str">
-        <f>'PWT Calcs'!A230</f>
-        <v>1984</v>
-      </c>
-      <c r="B230" s="4">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="C230">
-        <f>'PWT Calcs'!B230/'PWT Calcs'!B$237</f>
-        <v>0.74839444462016358</v>
-      </c>
-      <c r="D230">
-        <f>'PWT Calcs'!C230/'PWT Calcs'!C$237</f>
-        <v>0.90243575754403071</v>
-      </c>
-      <c r="E230">
-        <f>'PWT Calcs'!D230/'PWT Calcs'!D$237</f>
-        <v>0.81520779316378444</v>
-      </c>
-      <c r="F230" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G230" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H230" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I230" s="4" t="str">
-        <f>'PWT Calcs'!H230</f>
-        <v>TZ</v>
-      </c>
-      <c r="J230" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10">
-      <c r="A231" s="4" t="str">
-        <f>'PWT Calcs'!A231</f>
-        <v>1985</v>
-      </c>
-      <c r="B231" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="C231">
-        <f>'PWT Calcs'!B231/'PWT Calcs'!B$237</f>
-        <v>0.78275174791989632</v>
-      </c>
-      <c r="D231">
-        <f>'PWT Calcs'!C231/'PWT Calcs'!C$237</f>
-        <v>0.88609744666093004</v>
-      </c>
-      <c r="E231">
-        <f>'PWT Calcs'!D231/'PWT Calcs'!D$237</f>
-        <v>0.84246382106055862</v>
-      </c>
-      <c r="F231" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G231" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H231" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I231" s="4" t="str">
-        <f>'PWT Calcs'!H231</f>
-        <v>TZ</v>
-      </c>
-      <c r="J231" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10">
-      <c r="A232" s="4" t="str">
-        <f>'PWT Calcs'!A232</f>
-        <v>1986</v>
-      </c>
-      <c r="B232" s="4">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="C232">
-        <f>'PWT Calcs'!B232/'PWT Calcs'!B$237</f>
-        <v>0.79755765762910702</v>
-      </c>
-      <c r="D232">
-        <f>'PWT Calcs'!C232/'PWT Calcs'!C$237</f>
-        <v>0.87680318938355384</v>
-      </c>
-      <c r="E232">
-        <f>'PWT Calcs'!D232/'PWT Calcs'!D$237</f>
-        <v>0.86947848366016289</v>
-      </c>
-      <c r="F232" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G232" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H232" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I232" s="4" t="str">
-        <f>'PWT Calcs'!H232</f>
-        <v>TZ</v>
-      </c>
-      <c r="J232" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10">
-      <c r="A233" s="4" t="str">
-        <f>'PWT Calcs'!A233</f>
-        <v>1987</v>
-      </c>
-      <c r="B233" s="4">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="C233">
-        <f>'PWT Calcs'!B233/'PWT Calcs'!B$237</f>
-        <v>0.83688190072450408</v>
-      </c>
-      <c r="D233">
-        <f>'PWT Calcs'!C233/'PWT Calcs'!C$237</f>
-        <v>0.88425683567869284</v>
-      </c>
-      <c r="E233">
-        <f>'PWT Calcs'!D233/'PWT Calcs'!D$237</f>
-        <v>0.89404884734763312</v>
-      </c>
-      <c r="F233" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G233" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H233" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I233" s="4" t="str">
-        <f>'PWT Calcs'!H233</f>
-        <v>TZ</v>
-      </c>
-      <c r="J233" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10">
-      <c r="A234" s="4" t="str">
-        <f>'PWT Calcs'!A234</f>
-        <v>1988</v>
-      </c>
-      <c r="B234" s="4">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="C234">
-        <f>'PWT Calcs'!B234/'PWT Calcs'!B$237</f>
-        <v>0.87085956531365616</v>
-      </c>
-      <c r="D234">
-        <f>'PWT Calcs'!C234/'PWT Calcs'!C$237</f>
-        <v>0.89215327014331725</v>
-      </c>
-      <c r="E234">
-        <f>'PWT Calcs'!D234/'PWT Calcs'!D$237</f>
-        <v>0.92112115169117248</v>
-      </c>
-      <c r="F234" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G234" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H234" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I234" s="4" t="str">
-        <f>'PWT Calcs'!H234</f>
-        <v>TZ</v>
-      </c>
-      <c r="J234" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10">
-      <c r="A235" s="4" t="str">
-        <f>'PWT Calcs'!A235</f>
-        <v>1989</v>
-      </c>
-      <c r="B235" s="4">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="C235">
-        <f>'PWT Calcs'!B235/'PWT Calcs'!B$237</f>
-        <v>0.9056281438831163</v>
-      </c>
-      <c r="D235">
-        <f>'PWT Calcs'!C235/'PWT Calcs'!C$237</f>
-        <v>0.90689165431549423</v>
-      </c>
-      <c r="E235">
-        <f>'PWT Calcs'!D235/'PWT Calcs'!D$237</f>
-        <v>0.9514766020146318</v>
-      </c>
-      <c r="F235" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G235" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H235" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I235" s="4" t="str">
-        <f>'PWT Calcs'!H235</f>
-        <v>TZ</v>
-      </c>
-      <c r="J235" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10">
-      <c r="A236" s="4" t="str">
-        <f>'PWT Calcs'!A236</f>
-        <v>1990</v>
-      </c>
-      <c r="B236" s="4">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="C236">
-        <f>'PWT Calcs'!B236/'PWT Calcs'!B$237</f>
-        <v>0.94605966655076656</v>
-      </c>
-      <c r="D236">
-        <f>'PWT Calcs'!C236/'PWT Calcs'!C$237</f>
-        <v>0.95038659442457718</v>
-      </c>
-      <c r="E236">
-        <f>'PWT Calcs'!D236/'PWT Calcs'!D$237</f>
-        <v>0.96032141583940911</v>
-      </c>
-      <c r="F236" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G236" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H236" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I236" s="4" t="str">
-        <f>'PWT Calcs'!H236</f>
-        <v>TZ</v>
-      </c>
-      <c r="J236" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10">
-      <c r="A237" s="4" t="str">
-        <f>'PWT Calcs'!A237</f>
-        <v>1991</v>
-      </c>
-      <c r="B237" s="4">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="C237">
-        <f>'PWT Calcs'!B237/'PWT Calcs'!B$237</f>
-        <v>1</v>
-      </c>
-      <c r="D237">
-        <f>'PWT Calcs'!C237/'PWT Calcs'!C$237</f>
-        <v>1</v>
-      </c>
-      <c r="E237">
-        <f>'PWT Calcs'!D237/'PWT Calcs'!D$237</f>
-        <v>1</v>
-      </c>
-      <c r="F237">
-        <f>'Energy Data'!B237/'Energy Data'!B$237</f>
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <f>'Energy Data'!C237/'Energy Data'!C$237</f>
-        <v>1</v>
-      </c>
-      <c r="H237" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I237" s="4" t="str">
-        <f>'PWT Calcs'!H237</f>
-        <v>TZ</v>
-      </c>
-      <c r="J237" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10">
-      <c r="A238" s="4" t="str">
-        <f>'PWT Calcs'!A238</f>
-        <v>1992</v>
-      </c>
-      <c r="B238" s="4">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="C238">
-        <f>'PWT Calcs'!B238/'PWT Calcs'!B$237</f>
-        <v>1.0352747635167798</v>
-      </c>
-      <c r="D238">
-        <f>'PWT Calcs'!C238/'PWT Calcs'!C$237</f>
-        <v>1.0430071642253333</v>
-      </c>
-      <c r="E238">
-        <f>'PWT Calcs'!D238/'PWT Calcs'!D$237</f>
-        <v>1.0422802191785521</v>
-      </c>
-      <c r="F238">
-        <f>'Energy Data'!B238/'Energy Data'!B$237</f>
-        <v>1.0340047944777087</v>
-      </c>
-      <c r="G238">
-        <f>'Energy Data'!C238/'Energy Data'!C$237</f>
-        <v>1.0344820563552726</v>
-      </c>
-      <c r="H238" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I238" s="4" t="str">
-        <f>'PWT Calcs'!H238</f>
-        <v>TZ</v>
-      </c>
-      <c r="J238" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10">
-      <c r="A239" s="4" t="str">
-        <f>'PWT Calcs'!A239</f>
-        <v>1993</v>
-      </c>
-      <c r="B239" s="4">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="C239">
-        <f>'PWT Calcs'!B239/'PWT Calcs'!B$237</f>
-        <v>1.0784270302762675</v>
-      </c>
-      <c r="D239">
-        <f>'PWT Calcs'!C239/'PWT Calcs'!C$237</f>
-        <v>1.0710464387725389</v>
-      </c>
-      <c r="E239">
-        <f>'PWT Calcs'!D239/'PWT Calcs'!D$237</f>
-        <v>1.0812118180479824</v>
-      </c>
-      <c r="F239">
-        <f>'Energy Data'!B239/'Energy Data'!B$237</f>
-        <v>1.0692739180023667</v>
-      </c>
-      <c r="G239">
-        <f>'Energy Data'!C239/'Energy Data'!C$237</f>
-        <v>1.0693733370552967</v>
-      </c>
-      <c r="H239" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I239" s="4" t="str">
-        <f>'PWT Calcs'!H239</f>
-        <v>TZ</v>
-      </c>
-      <c r="J239" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10">
-      <c r="A240" s="4" t="str">
-        <f>'PWT Calcs'!A240</f>
-        <v>1994</v>
-      </c>
-      <c r="B240" s="4">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="C240">
-        <f>'PWT Calcs'!B240/'PWT Calcs'!B$237</f>
-        <v>1.111139232497107</v>
-      </c>
-      <c r="D240">
-        <f>'PWT Calcs'!C240/'PWT Calcs'!C$237</f>
-        <v>1.0971217951025012</v>
-      </c>
-      <c r="E240">
-        <f>'PWT Calcs'!D240/'PWT Calcs'!D$237</f>
-        <v>1.111483923580741</v>
-      </c>
-      <c r="F240">
-        <f>'Energy Data'!B240/'Energy Data'!B$237</f>
-        <v>1.0375743391680856</v>
-      </c>
-      <c r="G240">
-        <f>'Energy Data'!C240/'Energy Data'!C$237</f>
-        <v>1.0405127723952854</v>
-      </c>
-      <c r="H240" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I240" s="4" t="str">
-        <f>'PWT Calcs'!H240</f>
-        <v>TZ</v>
-      </c>
-      <c r="J240" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10">
-      <c r="A241" s="4" t="str">
-        <f>'PWT Calcs'!A241</f>
-        <v>1995</v>
-      </c>
-      <c r="B241" s="4">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="C241">
-        <f>'PWT Calcs'!B241/'PWT Calcs'!B$237</f>
-        <v>1.1508059238383712</v>
-      </c>
-      <c r="D241">
-        <f>'PWT Calcs'!C241/'PWT Calcs'!C$237</f>
-        <v>1.1078484339367685</v>
-      </c>
-      <c r="E241">
-        <f>'PWT Calcs'!D241/'PWT Calcs'!D$237</f>
-        <v>1.1461073724246782</v>
-      </c>
-      <c r="F241">
-        <f>'Energy Data'!B241/'Energy Data'!B$237</f>
-        <v>1.0429279831211073</v>
-      </c>
-      <c r="G241">
-        <f>'Energy Data'!C241/'Energy Data'!C$237</f>
-        <v>1.0460601934523612</v>
-      </c>
-      <c r="H241" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I241" s="4" t="str">
-        <f>'PWT Calcs'!H241</f>
-        <v>TZ</v>
-      </c>
-      <c r="J241" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10">
-      <c r="A242" s="4" t="str">
-        <f>'PWT Calcs'!A242</f>
-        <v>1996</v>
-      </c>
-      <c r="B242" s="4">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="C242">
-        <f>'PWT Calcs'!B242/'PWT Calcs'!B$237</f>
-        <v>1.2031027661993081</v>
-      </c>
-      <c r="D242">
-        <f>'PWT Calcs'!C242/'PWT Calcs'!C$237</f>
-        <v>1.1151616640328406</v>
-      </c>
-      <c r="E242">
-        <f>'PWT Calcs'!D242/'PWT Calcs'!D$237</f>
-        <v>1.1893165514237394</v>
-      </c>
-      <c r="F242">
-        <f>'Energy Data'!B242/'Energy Data'!B$237</f>
-        <v>1.067160388810108</v>
-      </c>
-      <c r="G242">
-        <f>'Energy Data'!C242/'Energy Data'!C$237</f>
-        <v>1.068758392331653</v>
-      </c>
-      <c r="H242" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I242" s="4" t="str">
-        <f>'PWT Calcs'!H242</f>
-        <v>TZ</v>
-      </c>
-      <c r="J242" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10">
-      <c r="A243" s="4" t="str">
-        <f>'PWT Calcs'!A243</f>
-        <v>1997</v>
-      </c>
-      <c r="B243" s="4">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="C243">
-        <f>'PWT Calcs'!B243/'PWT Calcs'!B$237</f>
-        <v>1.2455154856268036</v>
-      </c>
-      <c r="D243">
-        <f>'PWT Calcs'!C243/'PWT Calcs'!C$237</f>
-        <v>1.1222096711043639</v>
-      </c>
-      <c r="E243">
-        <f>'PWT Calcs'!D243/'PWT Calcs'!D$237</f>
-        <v>1.2332372789690109</v>
-      </c>
-      <c r="F243">
-        <f>'Energy Data'!B243/'Energy Data'!B$237</f>
-        <v>1.0436917895936202</v>
-      </c>
-      <c r="G243">
-        <f>'Energy Data'!C243/'Energy Data'!C$237</f>
-        <v>1.0478510045500919</v>
-      </c>
-      <c r="H243" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I243" s="4" t="str">
-        <f>'PWT Calcs'!H243</f>
-        <v>TZ</v>
-      </c>
-      <c r="J243" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10">
-      <c r="A244" s="4" t="str">
-        <f>'PWT Calcs'!A244</f>
-        <v>1998</v>
-      </c>
-      <c r="B244" s="4">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="C244">
-        <f>'PWT Calcs'!B244/'PWT Calcs'!B$237</f>
-        <v>1.291807844617372</v>
-      </c>
-      <c r="D244">
-        <f>'PWT Calcs'!C244/'PWT Calcs'!C$237</f>
-        <v>1.1390660904967407</v>
-      </c>
-      <c r="E244">
-        <f>'PWT Calcs'!D244/'PWT Calcs'!D$237</f>
-        <v>1.2537994122063065</v>
-      </c>
-      <c r="F244">
-        <f>'Energy Data'!B244/'Energy Data'!B$237</f>
-        <v>1.0961258261618216</v>
-      </c>
-      <c r="G244">
-        <f>'Energy Data'!C244/'Energy Data'!C$237</f>
-        <v>1.0953552002642089</v>
-      </c>
-      <c r="H244" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I244" s="4" t="str">
-        <f>'PWT Calcs'!H244</f>
-        <v>TZ</v>
-      </c>
-      <c r="J244" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10">
-      <c r="A245" s="4" t="str">
-        <f>'PWT Calcs'!A245</f>
-        <v>1999</v>
-      </c>
-      <c r="B245" s="4">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="C245">
-        <f>'PWT Calcs'!B245/'PWT Calcs'!B$237</f>
-        <v>1.3543362832059034</v>
-      </c>
-      <c r="D245">
-        <f>'PWT Calcs'!C245/'PWT Calcs'!C$237</f>
-        <v>1.1597197456258308</v>
-      </c>
-      <c r="E245">
-        <f>'PWT Calcs'!D245/'PWT Calcs'!D$237</f>
-        <v>1.2818279763519833</v>
-      </c>
-      <c r="F245">
-        <f>'Energy Data'!B245/'Energy Data'!B$237</f>
-        <v>1.1225864050460994</v>
-      </c>
-      <c r="G245">
-        <f>'Energy Data'!C245/'Energy Data'!C$237</f>
-        <v>1.1206691738507866</v>
-      </c>
-      <c r="H245" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I245" s="4" t="str">
-        <f>'PWT Calcs'!H245</f>
-        <v>TZ</v>
-      </c>
-      <c r="J245" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10">
-      <c r="A246" s="4" t="str">
-        <f>'PWT Calcs'!A246</f>
-        <v>2000</v>
-      </c>
-      <c r="B246" s="4">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="C246">
-        <f>'PWT Calcs'!B246/'PWT Calcs'!B$237</f>
-        <v>1.4211571582349491</v>
-      </c>
-      <c r="D246">
-        <f>'PWT Calcs'!C246/'PWT Calcs'!C$237</f>
-        <v>1.1844340872728938</v>
-      </c>
-      <c r="E246">
-        <f>'PWT Calcs'!D246/'PWT Calcs'!D$237</f>
-        <v>1.3073693524778958</v>
-      </c>
-      <c r="F246">
-        <f>'Energy Data'!B246/'Energy Data'!B$237</f>
-        <v>1.124068541404684</v>
-      </c>
-      <c r="G246">
-        <f>'Energy Data'!C246/'Energy Data'!C$237</f>
-        <v>1.1223339346363344</v>
-      </c>
-      <c r="H246" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I246" s="4" t="str">
-        <f>'PWT Calcs'!H246</f>
-        <v>TZ</v>
-      </c>
-      <c r="J246" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10">
-      <c r="A247" s="4" t="str">
-        <f>'PWT Calcs'!A247</f>
-        <v>2001</v>
-      </c>
-      <c r="B247" s="4">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="C247">
-        <f>'PWT Calcs'!B247/'PWT Calcs'!B$237</f>
-        <v>1.5063957323762849</v>
-      </c>
-      <c r="D247">
-        <f>'PWT Calcs'!C247/'PWT Calcs'!C$237</f>
-        <v>1.2186565141664949</v>
-      </c>
-      <c r="E247">
-        <f>'PWT Calcs'!D247/'PWT Calcs'!D$237</f>
-        <v>1.3374134765484815</v>
-      </c>
-      <c r="F247">
-        <f>'Energy Data'!B247/'Energy Data'!B$237</f>
-        <v>1.2116332758164539</v>
-      </c>
-      <c r="G247">
-        <f>'Energy Data'!C247/'Energy Data'!C$237</f>
-        <v>1.2048224167667096</v>
-      </c>
-      <c r="H247" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I247" s="4" t="str">
-        <f>'PWT Calcs'!H247</f>
-        <v>TZ</v>
-      </c>
-      <c r="J247" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10">
-      <c r="A248" s="4" t="str">
-        <f>'PWT Calcs'!A248</f>
-        <v>2002</v>
-      </c>
-      <c r="B248" s="4">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="C248">
-        <f>'PWT Calcs'!B248/'PWT Calcs'!B$237</f>
-        <v>1.6143071971435317</v>
-      </c>
-      <c r="D248">
-        <f>'PWT Calcs'!C248/'PWT Calcs'!C$237</f>
-        <v>1.2587592442936493</v>
-      </c>
-      <c r="E248">
-        <f>'PWT Calcs'!D248/'PWT Calcs'!D$237</f>
-        <v>1.3727391965075546</v>
-      </c>
-      <c r="F248">
-        <f>'Energy Data'!B248/'Energy Data'!B$237</f>
-        <v>1.2681756403645339</v>
-      </c>
-      <c r="G248">
-        <f>'Energy Data'!C248/'Energy Data'!C$237</f>
-        <v>1.2594571866322002</v>
-      </c>
-      <c r="H248" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I248" s="4" t="str">
-        <f>'PWT Calcs'!H248</f>
-        <v>TZ</v>
-      </c>
-      <c r="J248" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10">
-      <c r="A249" s="4" t="str">
-        <f>'PWT Calcs'!A249</f>
-        <v>2003</v>
-      </c>
-      <c r="B249" s="4">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="C249">
-        <f>'PWT Calcs'!B249/'PWT Calcs'!B$237</f>
-        <v>1.7254720476576391</v>
-      </c>
-      <c r="D249">
-        <f>'PWT Calcs'!C249/'PWT Calcs'!C$237</f>
-        <v>1.3128051666617588</v>
-      </c>
-      <c r="E249">
-        <f>'PWT Calcs'!D249/'PWT Calcs'!D$237</f>
-        <v>1.4081508467709123</v>
-      </c>
-      <c r="F249">
-        <f>'Energy Data'!B249/'Energy Data'!B$237</f>
-        <v>1.2817801916504126</v>
-      </c>
-      <c r="G249">
-        <f>'Energy Data'!C249/'Energy Data'!C$237</f>
-        <v>1.2737285686323188</v>
-      </c>
-      <c r="H249" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I249" s="4" t="str">
-        <f>'PWT Calcs'!H249</f>
-        <v>TZ</v>
-      </c>
-      <c r="J249" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10">
-      <c r="A250" s="4" t="str">
-        <f>'PWT Calcs'!A250</f>
-        <v>2004</v>
-      </c>
-      <c r="B250" s="4">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="C250">
-        <f>'PWT Calcs'!B250/'PWT Calcs'!B$237</f>
-        <v>1.8605471480353619</v>
-      </c>
-      <c r="D250">
-        <f>'PWT Calcs'!C250/'PWT Calcs'!C$237</f>
-        <v>1.3782114411664306</v>
-      </c>
-      <c r="E250">
-        <f>'PWT Calcs'!D250/'PWT Calcs'!D$237</f>
-        <v>1.445116086517984</v>
-      </c>
-      <c r="F250">
-        <f>'Energy Data'!B250/'Energy Data'!B$237</f>
-        <v>1.3303358394122207</v>
-      </c>
-      <c r="G250">
-        <f>'Energy Data'!C250/'Energy Data'!C$237</f>
-        <v>1.3213471031927486</v>
-      </c>
-      <c r="H250" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I250" s="4" t="str">
-        <f>'PWT Calcs'!H250</f>
-        <v>TZ</v>
-      </c>
-      <c r="J250" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10">
-      <c r="A251" s="4" t="str">
-        <f>'PWT Calcs'!A251</f>
-        <v>2005</v>
-      </c>
-      <c r="B251" s="4">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="C251">
-        <f>'PWT Calcs'!B251/'PWT Calcs'!B$237</f>
-        <v>1.9976672431987119</v>
-      </c>
-      <c r="D251">
-        <f>'PWT Calcs'!C251/'PWT Calcs'!C$237</f>
-        <v>1.4668282407240787</v>
-      </c>
-      <c r="E251">
-        <f>'PWT Calcs'!D251/'PWT Calcs'!D$237</f>
-        <v>1.4840212218954749</v>
-      </c>
-      <c r="F251">
-        <f>'Energy Data'!B251/'Energy Data'!B$237</f>
-        <v>1.4046100612284109</v>
-      </c>
-      <c r="G251">
-        <f>'Energy Data'!C251/'Energy Data'!C$237</f>
-        <v>1.3941566621454999</v>
-      </c>
-      <c r="H251" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I251" s="4" t="str">
-        <f>'PWT Calcs'!H251</f>
-        <v>TZ</v>
-      </c>
-      <c r="J251" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10">
-      <c r="A252" s="4" t="str">
-        <f>'PWT Calcs'!A252</f>
-        <v>2006</v>
-      </c>
-      <c r="B252" s="4">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="C252">
-        <f>'PWT Calcs'!B252/'PWT Calcs'!B$237</f>
-        <v>2.1322576629278731</v>
-      </c>
-      <c r="D252">
-        <f>'PWT Calcs'!C252/'PWT Calcs'!C$237</f>
-        <v>1.5774913378201081</v>
-      </c>
-      <c r="E252">
-        <f>'PWT Calcs'!D252/'PWT Calcs'!D$237</f>
-        <v>1.5236527345000046</v>
-      </c>
-      <c r="F252">
-        <f>'Energy Data'!B252/'Energy Data'!B$237</f>
-        <v>1.4330854124506951</v>
-      </c>
-      <c r="G252">
-        <f>'Energy Data'!C252/'Energy Data'!C$237</f>
-        <v>1.4230840793074782</v>
-      </c>
-      <c r="H252" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I252" s="4" t="str">
-        <f>'PWT Calcs'!H252</f>
-        <v>TZ</v>
-      </c>
-      <c r="J252" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10">
-      <c r="A253" s="4" t="str">
-        <f>'PWT Calcs'!A253</f>
-        <v>2007</v>
-      </c>
-      <c r="B253" s="4">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="C253">
-        <f>'PWT Calcs'!B253/'PWT Calcs'!B$237</f>
-        <v>2.2846735046653133</v>
-      </c>
-      <c r="D253">
-        <f>'PWT Calcs'!C253/'PWT Calcs'!C$237</f>
-        <v>1.7085544547652622</v>
-      </c>
-      <c r="E253">
-        <f>'PWT Calcs'!D253/'PWT Calcs'!D$237</f>
-        <v>1.564944451001179</v>
-      </c>
-      <c r="F253">
-        <f>'Energy Data'!B253/'Energy Data'!B$237</f>
-        <v>1.5627634799051398</v>
-      </c>
-      <c r="G253">
-        <f>'Energy Data'!C253/'Energy Data'!C$237</f>
-        <v>1.5434349909975213</v>
-      </c>
-      <c r="H253" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I253" s="4" t="str">
-        <f>'PWT Calcs'!H253</f>
-        <v>TZ</v>
-      </c>
-      <c r="J253" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10">
-      <c r="A254" s="4" t="str">
-        <f>'PWT Calcs'!A254</f>
-        <v>2008</v>
-      </c>
-      <c r="B254" s="4">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="C254">
-        <f>'PWT Calcs'!B254/'PWT Calcs'!B$237</f>
-        <v>2.4545805572670889</v>
-      </c>
-      <c r="D254">
-        <f>'PWT Calcs'!C254/'PWT Calcs'!C$237</f>
-        <v>1.8486087072221369</v>
-      </c>
-      <c r="E254">
-        <f>'PWT Calcs'!D254/'PWT Calcs'!D$237</f>
-        <v>1.6079617696836754</v>
-      </c>
-      <c r="F254">
-        <f>'Energy Data'!B254/'Energy Data'!B$237</f>
-        <v>1.6284782451239013</v>
-      </c>
-      <c r="G254">
-        <f>'Energy Data'!C254/'Energy Data'!C$237</f>
-        <v>1.6065378027322621</v>
-      </c>
-      <c r="H254" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I254" s="4" t="str">
-        <f>'PWT Calcs'!H254</f>
-        <v>TZ</v>
-      </c>
-      <c r="J254" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10">
-      <c r="A255" s="4" t="str">
-        <f>'PWT Calcs'!A255</f>
-        <v>2009</v>
-      </c>
-      <c r="B255" s="4">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="C255">
-        <f>'PWT Calcs'!B255/'PWT Calcs'!B$237</f>
-        <v>2.6023942503053199</v>
-      </c>
-      <c r="D255">
-        <f>'PWT Calcs'!C255/'PWT Calcs'!C$237</f>
-        <v>2.0024210206594488</v>
-      </c>
-      <c r="E255">
-        <f>'PWT Calcs'!D255/'PWT Calcs'!D$237</f>
-        <v>1.6586822458561903</v>
-      </c>
-      <c r="F255">
-        <f>'Energy Data'!B255/'Energy Data'!B$237</f>
-        <v>1.6888896525810746</v>
-      </c>
-      <c r="G255">
-        <f>'Energy Data'!C255/'Energy Data'!C$237</f>
-        <v>1.6648975208649832</v>
-      </c>
-      <c r="H255" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I255" s="4" t="str">
-        <f>'PWT Calcs'!H255</f>
-        <v>TZ</v>
-      </c>
-      <c r="J255" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10">
-      <c r="A256" s="4" t="str">
-        <f>'PWT Calcs'!A256</f>
-        <v>2010</v>
-      </c>
-      <c r="B256" s="4">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="C256">
-        <f>'PWT Calcs'!B256/'PWT Calcs'!B$237</f>
-        <v>2.7856826602391789</v>
-      </c>
-      <c r="D256">
-        <f>'PWT Calcs'!C256/'PWT Calcs'!C$237</f>
-        <v>2.1731192681562237</v>
-      </c>
-      <c r="E256">
-        <f>'PWT Calcs'!D256/'PWT Calcs'!D$237</f>
-        <v>1.7091032587204893</v>
-      </c>
-      <c r="F256">
-        <f>'Energy Data'!B256/'Energy Data'!B$237</f>
-        <v>1.6680680933119416</v>
-      </c>
-      <c r="G256">
-        <f>'Energy Data'!C256/'Energy Data'!C$237</f>
-        <v>1.644653716355994</v>
-      </c>
-      <c r="H256" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I256" s="4" t="str">
-        <f>'PWT Calcs'!H256</f>
-        <v>TZ</v>
-      </c>
-      <c r="J256" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10">
-      <c r="A257" s="4" t="str">
-        <f>'PWT Calcs'!A257</f>
-        <v>2011</v>
-      </c>
-      <c r="B257" s="4">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="C257">
-        <f>'PWT Calcs'!B257/'PWT Calcs'!B$237</f>
-        <v>2.9629435167386018</v>
-      </c>
-      <c r="D257">
-        <f>'PWT Calcs'!C257/'PWT Calcs'!C$237</f>
-        <v>2.3514077610078119</v>
-      </c>
-      <c r="E257">
-        <f>'PWT Calcs'!D257/'PWT Calcs'!D$237</f>
-        <v>1.7622054491675907</v>
-      </c>
-      <c r="F257">
-        <f>'Energy Data'!B257/'Energy Data'!B$237</f>
-        <v>1.8858194322791211</v>
-      </c>
-      <c r="G257">
-        <f>'Energy Data'!C257/'Energy Data'!C$237</f>
-        <v>1.8543464410243797</v>
-      </c>
-      <c r="H257" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I257" s="4" t="str">
-        <f>'PWT Calcs'!H257</f>
-        <v>TZ</v>
-      </c>
-      <c r="J257" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10">
-      <c r="A258" s="4" t="str">
-        <f>'PWT Calcs'!A258</f>
-        <v>1980</v>
-      </c>
-      <c r="B258" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C258">
-        <f>'PWT Calcs'!B258/'PWT Calcs'!B$269</f>
-        <v>0.89677869751682981</v>
-      </c>
-      <c r="D258">
-        <f>'PWT Calcs'!C258/'PWT Calcs'!C$269</f>
-        <v>1.1935002986278458</v>
-      </c>
-      <c r="E258">
-        <f>'PWT Calcs'!D258/'PWT Calcs'!D$269</f>
-        <v>0.70525659946612995</v>
-      </c>
-      <c r="F258" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G258" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H258" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I258" s="4" t="str">
-        <f>'PWT Calcs'!H258</f>
-        <v>ZM</v>
-      </c>
-      <c r="J258" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10">
-      <c r="A259" s="4" t="str">
-        <f>'PWT Calcs'!A259</f>
-        <v>1981</v>
-      </c>
-      <c r="B259" s="4">
-        <f t="shared" ref="B259:B289" si="4">A259-$A$2</f>
-        <v>1</v>
-      </c>
-      <c r="C259">
-        <f>'PWT Calcs'!B259/'PWT Calcs'!B$269</f>
-        <v>0.88939862371589429</v>
-      </c>
-      <c r="D259">
-        <f>'PWT Calcs'!C259/'PWT Calcs'!C$269</f>
-        <v>1.1850630473845218</v>
-      </c>
-      <c r="E259">
-        <f>'PWT Calcs'!D259/'PWT Calcs'!D$269</f>
-        <v>0.72935864249676219</v>
-      </c>
-      <c r="F259" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G259" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H259" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I259" s="4" t="str">
-        <f>'PWT Calcs'!H259</f>
-        <v>ZM</v>
-      </c>
-      <c r="J259" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10">
-      <c r="A260" s="4" t="str">
-        <f>'PWT Calcs'!A260</f>
-        <v>1982</v>
-      </c>
-      <c r="B260" s="4">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C260">
-        <f>'PWT Calcs'!B260/'PWT Calcs'!B$269</f>
-        <v>0.9114391143913424</v>
-      </c>
-      <c r="D260">
-        <f>'PWT Calcs'!C260/'PWT Calcs'!C$269</f>
-        <v>1.1729692747257945</v>
-      </c>
-      <c r="E260">
-        <f>'PWT Calcs'!D260/'PWT Calcs'!D$269</f>
-        <v>0.75502979904054079</v>
-      </c>
-      <c r="F260" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G260" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H260" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I260" s="4" t="str">
-        <f>'PWT Calcs'!H260</f>
-        <v>ZM</v>
-      </c>
-      <c r="J260" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10">
-      <c r="A261" s="4" t="str">
-        <f>'PWT Calcs'!A261</f>
-        <v>1983</v>
-      </c>
-      <c r="B261" s="4">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C261">
-        <f>'PWT Calcs'!B261/'PWT Calcs'!B$269</f>
-        <v>0.93826667996412805</v>
-      </c>
-      <c r="D261">
-        <f>'PWT Calcs'!C261/'PWT Calcs'!C$269</f>
-        <v>1.1557262568493467</v>
-      </c>
-      <c r="E261">
-        <f>'PWT Calcs'!D261/'PWT Calcs'!D$269</f>
-        <v>0.77891387119595701</v>
-      </c>
-      <c r="F261" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G261" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H261" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I261" s="4" t="str">
-        <f>'PWT Calcs'!H261</f>
-        <v>ZM</v>
-      </c>
-      <c r="J261" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10">
-      <c r="A262" s="4" t="str">
-        <f>'PWT Calcs'!A262</f>
-        <v>1984</v>
-      </c>
-      <c r="B262" s="4">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="C262">
-        <f>'PWT Calcs'!B262/'PWT Calcs'!B$269</f>
-        <v>0.93278148997699872</v>
-      </c>
-      <c r="D262">
-        <f>'PWT Calcs'!C262/'PWT Calcs'!C$269</f>
-        <v>1.1362850568159848</v>
-      </c>
-      <c r="E262">
-        <f>'PWT Calcs'!D262/'PWT Calcs'!D$269</f>
-        <v>0.80669353267265753</v>
-      </c>
-      <c r="F262" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G262" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H262" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I262" s="4" t="str">
-        <f>'PWT Calcs'!H262</f>
-        <v>ZM</v>
-      </c>
-      <c r="J262" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10">
-      <c r="A263" s="4" t="str">
-        <f>'PWT Calcs'!A263</f>
-        <v>1985</v>
-      </c>
-      <c r="B263" s="4">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="C263">
-        <f>'PWT Calcs'!B263/'PWT Calcs'!B$269</f>
-        <v>0.93258202852313909</v>
-      </c>
-      <c r="D263">
-        <f>'PWT Calcs'!C263/'PWT Calcs'!C$269</f>
-        <v>1.1168285179526625</v>
-      </c>
-      <c r="E263">
-        <f>'PWT Calcs'!D263/'PWT Calcs'!D$269</f>
-        <v>0.83546084440394619</v>
-      </c>
-      <c r="F263" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G263" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H263" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I263" s="4" t="str">
-        <f>'PWT Calcs'!H263</f>
-        <v>ZM</v>
-      </c>
-      <c r="J263" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10">
-      <c r="A264" s="4" t="str">
-        <f>'PWT Calcs'!A264</f>
-        <v>1986</v>
-      </c>
-      <c r="B264" s="4">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="C264">
-        <f>'PWT Calcs'!B264/'PWT Calcs'!B$269</f>
-        <v>0.95731524882826002</v>
-      </c>
-      <c r="D264">
-        <f>'PWT Calcs'!C264/'PWT Calcs'!C$269</f>
-        <v>1.0957676652990609</v>
-      </c>
-      <c r="E264">
-        <f>'PWT Calcs'!D264/'PWT Calcs'!D$269</f>
-        <v>0.86184535388505623</v>
-      </c>
-      <c r="F264" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G264" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H264" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I264" s="4" t="str">
-        <f>'PWT Calcs'!H264</f>
-        <v>ZM</v>
-      </c>
-      <c r="J264" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10">
-      <c r="A265" s="4" t="str">
-        <f>'PWT Calcs'!A265</f>
-        <v>1987</v>
-      </c>
-      <c r="B265" s="4">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="C265">
-        <f>'PWT Calcs'!B265/'PWT Calcs'!B$269</f>
-        <v>0.98364416076596806</v>
-      </c>
-      <c r="D265">
-        <f>'PWT Calcs'!C265/'PWT Calcs'!C$269</f>
-        <v>1.0749662945189566</v>
-      </c>
-      <c r="E265">
-        <f>'PWT Calcs'!D265/'PWT Calcs'!D$269</f>
-        <v>0.8868850176646349</v>
-      </c>
-      <c r="F265" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G265" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H265" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I265" s="4" t="str">
-        <f>'PWT Calcs'!H265</f>
-        <v>ZM</v>
-      </c>
-      <c r="J265" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10">
-      <c r="A266" s="4" t="str">
-        <f>'PWT Calcs'!A266</f>
-        <v>1988</v>
-      </c>
-      <c r="B266" s="4">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="C266">
-        <f>'PWT Calcs'!B266/'PWT Calcs'!B$269</f>
-        <v>1.0027924603570293</v>
-      </c>
-      <c r="D266">
-        <f>'PWT Calcs'!C266/'PWT Calcs'!C$269</f>
-        <v>1.0569390150489899</v>
-      </c>
-      <c r="E266">
-        <f>'PWT Calcs'!D266/'PWT Calcs'!D$269</f>
-        <v>0.91442878621637858</v>
-      </c>
-      <c r="F266" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G266" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H266" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I266" s="4" t="str">
-        <f>'PWT Calcs'!H266</f>
-        <v>ZM</v>
-      </c>
-      <c r="J266" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10">
-      <c r="A267" s="4" t="str">
-        <f>'PWT Calcs'!A267</f>
-        <v>1989</v>
-      </c>
-      <c r="B267" s="4">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C267">
-        <f>'PWT Calcs'!B267/'PWT Calcs'!B$269</f>
-        <v>1.0123666101525599</v>
-      </c>
-      <c r="D267">
-        <f>'PWT Calcs'!C267/'PWT Calcs'!C$269</f>
-        <v>1.0345689293464733</v>
-      </c>
-      <c r="E267">
-        <f>'PWT Calcs'!D267/'PWT Calcs'!D$269</f>
-        <v>0.94374109433281228</v>
-      </c>
-      <c r="F267" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G267" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H267" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I267" s="4" t="str">
-        <f>'PWT Calcs'!H267</f>
-        <v>ZM</v>
-      </c>
-      <c r="J267" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10">
-      <c r="A268" s="4" t="str">
-        <f>'PWT Calcs'!A268</f>
-        <v>1990</v>
-      </c>
-      <c r="B268" s="4">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="C268">
-        <f>'PWT Calcs'!B268/'PWT Calcs'!B$269</f>
-        <v>1.0199461454073553</v>
-      </c>
-      <c r="D268">
-        <f>'PWT Calcs'!C268/'PWT Calcs'!C$269</f>
-        <v>1.0180569345412236</v>
-      </c>
-      <c r="E268">
-        <f>'PWT Calcs'!D268/'PWT Calcs'!D$269</f>
-        <v>0.9734285199459245</v>
-      </c>
-      <c r="F268" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G268" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H268" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I268" s="4" t="str">
-        <f>'PWT Calcs'!H268</f>
-        <v>ZM</v>
-      </c>
-      <c r="J268" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10">
-      <c r="A269" s="4" t="str">
-        <f>'PWT Calcs'!A269</f>
-        <v>1991</v>
-      </c>
-      <c r="B269" s="4">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="C269">
-        <f>'PWT Calcs'!B269/'PWT Calcs'!B$269</f>
-        <v>1</v>
-      </c>
-      <c r="D269">
-        <f>'PWT Calcs'!C269/'PWT Calcs'!C$269</f>
-        <v>1</v>
-      </c>
-      <c r="E269">
-        <f>'PWT Calcs'!D269/'PWT Calcs'!D$269</f>
-        <v>1</v>
-      </c>
-      <c r="F269">
-        <f>'Energy Data'!B269/'Energy Data'!B$269</f>
-        <v>1</v>
-      </c>
-      <c r="G269">
-        <f>'Energy Data'!C269/'Energy Data'!C$269</f>
-        <v>1</v>
-      </c>
-      <c r="H269" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I269" s="4" t="str">
-        <f>'PWT Calcs'!H269</f>
-        <v>ZM</v>
-      </c>
-      <c r="J269" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10">
-      <c r="A270" s="4" t="str">
-        <f>'PWT Calcs'!A270</f>
-        <v>1992</v>
-      </c>
-      <c r="B270" s="4">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="C270">
-        <f>'PWT Calcs'!B270/'PWT Calcs'!B$269</f>
-        <v>0.98269077911020464</v>
-      </c>
-      <c r="D270">
-        <f>'PWT Calcs'!C270/'PWT Calcs'!C$269</f>
-        <v>0.98401738656376014</v>
-      </c>
-      <c r="E270">
-        <f>'PWT Calcs'!D270/'PWT Calcs'!D$269</f>
-        <v>1.0265315533255017</v>
-      </c>
-      <c r="F270">
-        <f>'Energy Data'!B270/'Energy Data'!B$269</f>
-        <v>1.0372902442435501</v>
-      </c>
-      <c r="G270">
-        <f>'Energy Data'!C270/'Energy Data'!C$269</f>
-        <v>1.0393729022278826</v>
-      </c>
-      <c r="H270" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I270" s="4" t="str">
-        <f>'PWT Calcs'!H270</f>
-        <v>ZM</v>
-      </c>
-      <c r="J270" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10">
-      <c r="A271" s="4" t="str">
-        <f>'PWT Calcs'!A271</f>
-        <v>1993</v>
-      </c>
-      <c r="B271" s="4">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="C271">
-        <f>'PWT Calcs'!B271/'PWT Calcs'!B$269</f>
-        <v>1.0494869639937192</v>
-      </c>
-      <c r="D271">
-        <f>'PWT Calcs'!C271/'PWT Calcs'!C$269</f>
-        <v>0.97458394222629696</v>
-      </c>
-      <c r="E271">
-        <f>'PWT Calcs'!D271/'PWT Calcs'!D$269</f>
-        <v>1.0506456366521002</v>
-      </c>
-      <c r="F271">
-        <f>'Energy Data'!B271/'Energy Data'!B$269</f>
-        <v>0.99283416815065528</v>
-      </c>
-      <c r="G271">
-        <f>'Energy Data'!C271/'Energy Data'!C$269</f>
-        <v>0.99400494936643435</v>
-      </c>
-      <c r="H271" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I271" s="4" t="str">
-        <f>'PWT Calcs'!H271</f>
-        <v>ZM</v>
-      </c>
-      <c r="J271" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10">
-      <c r="A272" s="4" t="str">
-        <f>'PWT Calcs'!A272</f>
-        <v>1994</v>
-      </c>
-      <c r="B272" s="4">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="C272">
-        <f>'PWT Calcs'!B272/'PWT Calcs'!B$269</f>
-        <v>0.95922096981843963</v>
-      </c>
-      <c r="D272">
-        <f>'PWT Calcs'!C272/'PWT Calcs'!C$269</f>
-        <v>0.9595660133709859</v>
-      </c>
-      <c r="E272">
-        <f>'PWT Calcs'!D272/'PWT Calcs'!D$269</f>
-        <v>1.0803264885404056</v>
-      </c>
-      <c r="F272">
-        <f>'Energy Data'!B272/'Energy Data'!B$269</f>
-        <v>0.96226552654774133</v>
-      </c>
-      <c r="G272">
-        <f>'Energy Data'!C272/'Energy Data'!C$269</f>
-        <v>0.96264062328063982</v>
-      </c>
-      <c r="H272" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I272" s="4" t="str">
-        <f>'PWT Calcs'!H272</f>
-        <v>ZM</v>
-      </c>
-      <c r="J272" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10">
-      <c r="A273" s="4" t="str">
-        <f>'PWT Calcs'!A273</f>
-        <v>1995</v>
-      </c>
-      <c r="B273" s="4">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="C273">
-        <f>'PWT Calcs'!B273/'PWT Calcs'!B$269</f>
-        <v>0.93529074613260554</v>
-      </c>
-      <c r="D273">
-        <f>'PWT Calcs'!C273/'PWT Calcs'!C$269</f>
-        <v>0.95151919926194661</v>
-      </c>
-      <c r="E273">
-        <f>'PWT Calcs'!D273/'PWT Calcs'!D$269</f>
-        <v>1.1115687730633945</v>
-      </c>
-      <c r="F273">
-        <f>'Energy Data'!B273/'Energy Data'!B$269</f>
-        <v>0.97640745714480581</v>
-      </c>
-      <c r="G273">
-        <f>'Energy Data'!C273/'Energy Data'!C$269</f>
-        <v>0.97692629851626844</v>
-      </c>
-      <c r="H273" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I273" s="4" t="str">
-        <f>'PWT Calcs'!H273</f>
-        <v>ZM</v>
-      </c>
-      <c r="J273" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10">
-      <c r="A274" s="4" t="str">
-        <f>'PWT Calcs'!A274</f>
-        <v>1996</v>
-      </c>
-      <c r="B274" s="4">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="C274">
-        <f>'PWT Calcs'!B274/'PWT Calcs'!B$269</f>
-        <v>0.99693568729110671</v>
-      </c>
-      <c r="D274">
-        <f>'PWT Calcs'!C274/'PWT Calcs'!C$269</f>
-        <v>0.95758065747977272</v>
-      </c>
-      <c r="E274">
-        <f>'PWT Calcs'!D274/'PWT Calcs'!D$269</f>
-        <v>1.1427515480775934</v>
-      </c>
-      <c r="F274">
-        <f>'Energy Data'!B274/'Energy Data'!B$269</f>
-        <v>0.94601991154713516</v>
-      </c>
-      <c r="G274">
-        <f>'Energy Data'!C274/'Energy Data'!C$269</f>
-        <v>0.94990195806053934</v>
-      </c>
-      <c r="H274" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I274" s="4" t="str">
-        <f>'PWT Calcs'!H274</f>
-        <v>ZM</v>
-      </c>
-      <c r="J274" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10">
-      <c r="A275" s="4" t="str">
-        <f>'PWT Calcs'!A275</f>
-        <v>1997</v>
-      </c>
-      <c r="B275" s="4">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="C275">
-        <f>'PWT Calcs'!B275/'PWT Calcs'!B$269</f>
-        <v>1.0298129892423078</v>
-      </c>
-      <c r="D275">
-        <f>'PWT Calcs'!C275/'PWT Calcs'!C$269</f>
-        <v>0.96980340413375077</v>
-      </c>
-      <c r="E275">
-        <f>'PWT Calcs'!D275/'PWT Calcs'!D$269</f>
-        <v>1.1747071855379141</v>
-      </c>
-      <c r="F275">
-        <f>'Energy Data'!B275/'Energy Data'!B$269</f>
-        <v>1.0127519539095122</v>
-      </c>
-      <c r="G275">
-        <f>'Energy Data'!C275/'Energy Data'!C$269</f>
-        <v>1.0152765374757149</v>
-      </c>
-      <c r="H275" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I275" s="4" t="str">
-        <f>'PWT Calcs'!H275</f>
-        <v>ZM</v>
-      </c>
-      <c r="J275" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10">
-      <c r="A276" s="4" t="str">
-        <f>'PWT Calcs'!A276</f>
-        <v>1998</v>
-      </c>
-      <c r="B276" s="4">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="C276">
-        <f>'PWT Calcs'!B276/'PWT Calcs'!B$269</f>
-        <v>1.0106345631041074</v>
-      </c>
-      <c r="D276">
-        <f>'PWT Calcs'!C276/'PWT Calcs'!C$269</f>
-        <v>1.0018147753196949</v>
-      </c>
-      <c r="E276">
-        <f>'PWT Calcs'!D276/'PWT Calcs'!D$269</f>
-        <v>1.2088484827012762</v>
-      </c>
-      <c r="F276">
-        <f>'Energy Data'!B276/'Energy Data'!B$269</f>
-        <v>0.98049396767421726</v>
-      </c>
-      <c r="G276">
-        <f>'Energy Data'!C276/'Energy Data'!C$269</f>
-        <v>0.98403678650194581</v>
-      </c>
-      <c r="H276" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I276" s="4" t="str">
-        <f>'PWT Calcs'!H276</f>
-        <v>ZM</v>
-      </c>
-      <c r="J276" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10">
-      <c r="A277" s="4" t="str">
-        <f>'PWT Calcs'!A277</f>
-        <v>1999</v>
-      </c>
-      <c r="B277" s="4">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="C277">
-        <f>'PWT Calcs'!B277/'PWT Calcs'!B$269</f>
-        <v>1.0331092812348117</v>
-      </c>
-      <c r="D277">
-        <f>'PWT Calcs'!C277/'PWT Calcs'!C$269</f>
-        <v>1.0601106377022689</v>
-      </c>
-      <c r="E277">
-        <f>'PWT Calcs'!D277/'PWT Calcs'!D$269</f>
-        <v>1.2399970051493714</v>
-      </c>
-      <c r="F277">
-        <f>'Energy Data'!B277/'Energy Data'!B$269</f>
-        <v>0.97569047936520592</v>
-      </c>
-      <c r="G277">
-        <f>'Energy Data'!C277/'Energy Data'!C$269</f>
-        <v>0.97825536550413794</v>
-      </c>
-      <c r="H277" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I277" s="4" t="str">
-        <f>'PWT Calcs'!H277</f>
-        <v>ZM</v>
-      </c>
-      <c r="J277" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10">
-      <c r="A278" s="4" t="str">
-        <f>'PWT Calcs'!A278</f>
-        <v>2000</v>
-      </c>
-      <c r="B278" s="4">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="C278">
-        <f>'PWT Calcs'!B278/'PWT Calcs'!B$269</f>
-        <v>1.069813706616269</v>
-      </c>
-      <c r="D278">
-        <f>'PWT Calcs'!C278/'PWT Calcs'!C$269</f>
-        <v>1.0699278723477006</v>
-      </c>
-      <c r="E278">
-        <f>'PWT Calcs'!D278/'PWT Calcs'!D$269</f>
-        <v>1.2651904248923551</v>
-      </c>
-      <c r="F278">
-        <f>'Energy Data'!B278/'Energy Data'!B$269</f>
-        <v>0.97545030108404673</v>
-      </c>
-      <c r="G278">
-        <f>'Energy Data'!C278/'Energy Data'!C$269</f>
-        <v>0.978235239476691</v>
-      </c>
-      <c r="H278" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I278" s="4" t="str">
-        <f>'PWT Calcs'!H278</f>
-        <v>ZM</v>
-      </c>
-      <c r="J278" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10">
-      <c r="A279" s="4" t="str">
-        <f>'PWT Calcs'!A279</f>
-        <v>2001</v>
-      </c>
-      <c r="B279" s="4">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="C279">
-        <f>'PWT Calcs'!B279/'PWT Calcs'!B$269</f>
-        <v>1.1221562549180024</v>
-      </c>
-      <c r="D279">
-        <f>'PWT Calcs'!C279/'PWT Calcs'!C$269</f>
-        <v>1.0952750332101646</v>
-      </c>
-      <c r="E279">
-        <f>'PWT Calcs'!D279/'PWT Calcs'!D$269</f>
-        <v>1.2846771595308752</v>
-      </c>
-      <c r="F279">
-        <f>'Energy Data'!B279/'Energy Data'!B$269</f>
-        <v>1.0126536105257817</v>
-      </c>
-      <c r="G279">
-        <f>'Energy Data'!C279/'Energy Data'!C$269</f>
-        <v>1.0153905383962374</v>
-      </c>
-      <c r="H279" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I279" s="4" t="str">
-        <f>'PWT Calcs'!H279</f>
-        <v>ZM</v>
-      </c>
-      <c r="J279" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10">
-      <c r="A280" s="4" t="str">
-        <f>'PWT Calcs'!A280</f>
-        <v>2002</v>
-      </c>
-      <c r="B280" s="4">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="C280">
-        <f>'PWT Calcs'!B280/'PWT Calcs'!B$269</f>
-        <v>1.1592202757895509</v>
-      </c>
-      <c r="D280">
-        <f>'PWT Calcs'!C280/'PWT Calcs'!C$269</f>
-        <v>1.1258586149739576</v>
-      </c>
-      <c r="E280">
-        <f>'PWT Calcs'!D280/'PWT Calcs'!D$269</f>
-        <v>1.30718351736072</v>
-      </c>
-      <c r="F280">
-        <f>'Energy Data'!B280/'Energy Data'!B$269</f>
-        <v>1.0295376485352523</v>
-      </c>
-      <c r="G280">
-        <f>'Energy Data'!C280/'Energy Data'!C$269</f>
-        <v>1.032536365941823</v>
-      </c>
-      <c r="H280" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I280" s="4" t="str">
-        <f>'PWT Calcs'!H280</f>
-        <v>ZM</v>
-      </c>
-      <c r="J280" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10">
-      <c r="A281" s="4" t="str">
-        <f>'PWT Calcs'!A281</f>
-        <v>2003</v>
-      </c>
-      <c r="B281" s="4">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="C281">
-        <f>'PWT Calcs'!B281/'PWT Calcs'!B$269</f>
-        <v>1.2091954871148527</v>
-      </c>
-      <c r="D281">
-        <f>'PWT Calcs'!C281/'PWT Calcs'!C$269</f>
-        <v>1.1670588400712871</v>
-      </c>
-      <c r="E281">
-        <f>'PWT Calcs'!D281/'PWT Calcs'!D$269</f>
-        <v>1.3293665863242137</v>
-      </c>
-      <c r="F281">
-        <f>'Energy Data'!B281/'Energy Data'!B$269</f>
-        <v>1.0578078265415378</v>
-      </c>
-      <c r="G281">
-        <f>'Energy Data'!C281/'Energy Data'!C$269</f>
-        <v>1.06074192016828</v>
-      </c>
-      <c r="H281" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I281" s="4" t="str">
-        <f>'PWT Calcs'!H281</f>
-        <v>ZM</v>
-      </c>
-      <c r="J281" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10">
-      <c r="A282" s="4" t="str">
-        <f>'PWT Calcs'!A282</f>
-        <v>2004</v>
-      </c>
-      <c r="B282" s="4">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="C282">
-        <f>'PWT Calcs'!B282/'PWT Calcs'!B$269</f>
-        <v>1.28393141647216</v>
-      </c>
-      <c r="D282">
-        <f>'PWT Calcs'!C282/'PWT Calcs'!C$269</f>
-        <v>1.2239646209886963</v>
-      </c>
-      <c r="E282">
-        <f>'PWT Calcs'!D282/'PWT Calcs'!D$269</f>
-        <v>1.3529485439268725</v>
-      </c>
-      <c r="F282">
-        <f>'Energy Data'!B282/'Energy Data'!B$269</f>
-        <v>1.0648635894119554</v>
-      </c>
-      <c r="G282">
-        <f>'Energy Data'!C282/'Energy Data'!C$269</f>
-        <v>1.0680501390479304</v>
-      </c>
-      <c r="H282" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I282" s="4" t="str">
-        <f>'PWT Calcs'!H282</f>
-        <v>ZM</v>
-      </c>
-      <c r="J282" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10">
-      <c r="A283" s="4" t="str">
-        <f>'PWT Calcs'!A283</f>
-        <v>2005</v>
-      </c>
-      <c r="B283" s="4">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="C283">
-        <f>'PWT Calcs'!B283/'PWT Calcs'!B$269</f>
-        <v>1.3510088180702526</v>
-      </c>
-      <c r="D283">
-        <f>'PWT Calcs'!C283/'PWT Calcs'!C$269</f>
-        <v>1.2785149967420963</v>
-      </c>
-      <c r="E283">
-        <f>'PWT Calcs'!D283/'PWT Calcs'!D$269</f>
-        <v>1.3804430441411071</v>
-      </c>
-      <c r="F283">
-        <f>'Energy Data'!B283/'Energy Data'!B$269</f>
-        <v>1.1145715820582243</v>
-      </c>
-      <c r="G283">
-        <f>'Energy Data'!C283/'Energy Data'!C$269</f>
-        <v>1.1173484739058481</v>
-      </c>
-      <c r="H283" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I283" s="4" t="str">
-        <f>'PWT Calcs'!H283</f>
-        <v>ZM</v>
-      </c>
-      <c r="J283" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10">
-      <c r="A284" s="4" t="str">
-        <f>'PWT Calcs'!A284</f>
-        <v>2006</v>
-      </c>
-      <c r="B284" s="4">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="C284">
-        <f>'PWT Calcs'!B284/'PWT Calcs'!B$269</f>
-        <v>1.4348288144510495</v>
-      </c>
-      <c r="D284">
-        <f>'PWT Calcs'!C284/'PWT Calcs'!C$269</f>
-        <v>1.3392905088113589</v>
-      </c>
-      <c r="E284">
-        <f>'PWT Calcs'!D284/'PWT Calcs'!D$269</f>
-        <v>1.4083538341284514</v>
-      </c>
-      <c r="F284">
-        <f>'Energy Data'!B284/'Energy Data'!B$269</f>
-        <v>1.1729546519188956</v>
-      </c>
-      <c r="G284">
-        <f>'Energy Data'!C284/'Energy Data'!C$269</f>
-        <v>1.1729186553342772</v>
-      </c>
-      <c r="H284" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I284" s="4" t="str">
-        <f>'PWT Calcs'!H284</f>
-        <v>ZM</v>
-      </c>
-      <c r="J284" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10">
-      <c r="A285" s="4" t="str">
-        <f>'PWT Calcs'!A285</f>
-        <v>2007</v>
-      </c>
-      <c r="B285" s="4">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="C285">
-        <f>'PWT Calcs'!B285/'PWT Calcs'!B$269</f>
-        <v>1.5253141700946087</v>
-      </c>
-      <c r="D285">
-        <f>'PWT Calcs'!C285/'PWT Calcs'!C$269</f>
-        <v>1.4176095520007106</v>
-      </c>
-      <c r="E285">
-        <f>'PWT Calcs'!D285/'PWT Calcs'!D$269</f>
-        <v>1.4387641618791469</v>
-      </c>
-      <c r="F285">
-        <f>'Energy Data'!B285/'Energy Data'!B$269</f>
-        <v>1.1678285269002644</v>
-      </c>
-      <c r="G285">
-        <f>'Energy Data'!C285/'Energy Data'!C$269</f>
-        <v>1.1682366712021006</v>
-      </c>
-      <c r="H285" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I285" s="4" t="str">
-        <f>'PWT Calcs'!H285</f>
-        <v>ZM</v>
-      </c>
-      <c r="J285" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10">
-      <c r="A286" s="4" t="str">
-        <f>'PWT Calcs'!A286</f>
-        <v>2008</v>
-      </c>
-      <c r="B286" s="4">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="C286">
-        <f>'PWT Calcs'!B286/'PWT Calcs'!B$269</f>
-        <v>1.6169767728783511</v>
-      </c>
-      <c r="D286">
-        <f>'PWT Calcs'!C286/'PWT Calcs'!C$269</f>
-        <v>1.5089856463703055</v>
-      </c>
-      <c r="E286">
-        <f>'PWT Calcs'!D286/'PWT Calcs'!D$269</f>
-        <v>1.4737564450181935</v>
-      </c>
-      <c r="F286">
-        <f>'Energy Data'!B286/'Energy Data'!B$269</f>
-        <v>1.1142506951948152</v>
-      </c>
-      <c r="G286">
-        <f>'Energy Data'!C286/'Energy Data'!C$269</f>
-        <v>1.1144449707697175</v>
-      </c>
-      <c r="H286" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I286" s="4" t="str">
-        <f>'PWT Calcs'!H286</f>
-        <v>ZM</v>
-      </c>
-      <c r="J286" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10">
-      <c r="A287" s="4" t="str">
-        <f>'PWT Calcs'!A287</f>
-        <v>2009</v>
-      </c>
-      <c r="B287" s="4">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="C287">
-        <f>'PWT Calcs'!B287/'PWT Calcs'!B$269</f>
-        <v>1.7156386450227872</v>
-      </c>
-      <c r="D287">
-        <f>'PWT Calcs'!C287/'PWT Calcs'!C$269</f>
-        <v>1.5939522828173469</v>
-      </c>
-      <c r="E287">
-        <f>'PWT Calcs'!D287/'PWT Calcs'!D$269</f>
-        <v>1.5107710826966245</v>
-      </c>
-      <c r="F287">
-        <f>'Energy Data'!B287/'Energy Data'!B$269</f>
-        <v>1.1775631819612329</v>
-      </c>
-      <c r="G287">
-        <f>'Energy Data'!C287/'Energy Data'!C$269</f>
-        <v>1.1766170516561352</v>
-      </c>
-      <c r="H287" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I287" s="4" t="str">
-        <f>'PWT Calcs'!H287</f>
-        <v>ZM</v>
-      </c>
-      <c r="J287" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10">
-      <c r="A288" s="4" t="str">
-        <f>'PWT Calcs'!A288</f>
-        <v>2010</v>
-      </c>
-      <c r="B288" s="4">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="C288">
-        <f>'PWT Calcs'!B288/'PWT Calcs'!B$269</f>
-        <v>1.8375723386343135</v>
-      </c>
-      <c r="D288">
-        <f>'PWT Calcs'!C288/'PWT Calcs'!C$269</f>
-        <v>1.6930436808334608</v>
-      </c>
-      <c r="E288">
-        <f>'PWT Calcs'!D288/'PWT Calcs'!D$269</f>
-        <v>1.5298643626061044</v>
-      </c>
-      <c r="F288">
-        <f>'Energy Data'!B288/'Energy Data'!B$269</f>
-        <v>1.2642839456164883</v>
-      </c>
-      <c r="G288">
-        <f>'Energy Data'!C288/'Energy Data'!C$269</f>
-        <v>1.261520376667437</v>
-      </c>
-      <c r="H288" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I288" s="4" t="str">
-        <f>'PWT Calcs'!H288</f>
-        <v>ZM</v>
-      </c>
-      <c r="J288" s="4" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10">
-      <c r="A289" s="4" t="str">
-        <f>'PWT Calcs'!A289</f>
-        <v>2011</v>
-      </c>
-      <c r="B289" s="4">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="C289">
         <f>'PWT Calcs'!B289/'PWT Calcs'!B$269</f>
         <v>1.9588521129841756</v>
       </c>
-      <c r="D289">
+      <c r="D223">
         <f>'PWT Calcs'!C289/'PWT Calcs'!C$269</f>
         <v>1.802134845571536</v>
       </c>
-      <c r="E289">
+      <c r="E223">
         <f>'PWT Calcs'!D289/'PWT Calcs'!D$269</f>
         <v>1.5775437962305814</v>
       </c>
-      <c r="F289">
+      <c r="F223">
         <f>'Energy Data'!B289/'Energy Data'!B$269</f>
         <v>1.3328208853352348</v>
       </c>
-      <c r="G289">
+      <c r="G223">
         <f>'Energy Data'!C289/'Energy Data'!C$269</f>
         <v>1.3316902992491662</v>
       </c>
-      <c r="H289" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I289" s="4" t="str">
+      <c r="H223" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I223" s="4" t="str">
         <f>'PWT Calcs'!H289</f>
         <v>ZM</v>
       </c>
-      <c r="J289" s="4" t="s">
+      <c r="J223" s="4" t="s">
         <v>1588</v>
       </c>
     </row>
